--- a/接口文档/商品api/商品发布_商户端.xlsx
+++ b/接口文档/商品api/商品发布_商户端.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
   <si>
     <t>商品发布接口
 版本：1.0
@@ -89,7 +89,7 @@
     <t>"status":"0",</t>
   </si>
   <si>
-    <t>状态</t>
+    <t>状态规定(status=0:立刻上架；status=1：存入仓库；status=2：定时发布（暂未实现)。</t>
   </si>
   <si>
     <t xml:space="preserve">  "propertis":"{\"商品产地\":\"中国\"，\"系统\":\"IOS\"}",</t>
@@ -977,6 +977,9 @@
       </rPr>
       <t>,</t>
     </r>
+  </si>
+  <si>
+    <t>状态</t>
   </si>
   <si>
     <r>
@@ -2279,10 +2282,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -2347,30 +2350,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -2381,6 +2360,43 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2402,35 +2418,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2439,9 +2426,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2453,6 +2440,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2462,20 +2477,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2621,6 +2624,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2669,42 +2678,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2724,6 +2697,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2882,6 +2885,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2901,17 +2919,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2940,17 +2947,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2962,10 +2965,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2977,13 +2980,13 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2993,116 +2996,116 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
@@ -3823,7 +3826,7 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -4429,22 +4432,22 @@
         <v>94</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:5">
       <c r="A22" s="14"/>
       <c r="B22" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:5">
       <c r="A23" s="14"/>
       <c r="B23" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>32</v>
@@ -4453,20 +4456,20 @@
     <row r="24" s="1" customFormat="1" spans="1:5">
       <c r="A24" s="14"/>
       <c r="B24" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:5">
       <c r="A25" s="22"/>
       <c r="B25" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="2:5">
       <c r="B26" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>38</v>
@@ -4474,7 +4477,7 @@
     </row>
     <row r="27" s="1" customFormat="1" spans="2:5">
       <c r="B27" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>40</v>
@@ -4482,7 +4485,7 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="25.5" customHeight="1" spans="2:5">
       <c r="B28" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>42</v>
@@ -4490,7 +4493,7 @@
     </row>
     <row r="29" s="1" customFormat="1" spans="2:5">
       <c r="B29" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>44</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
       <c r="B30" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>46</v>
@@ -4506,7 +4509,7 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
       <c r="B31" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>48</v>
@@ -4514,205 +4517,205 @@
     </row>
     <row r="32" s="1" customFormat="1" spans="2:5">
       <c r="B32" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E32" s="3"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="2:5">
       <c r="B33" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="2:5">
       <c r="B34" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E34" s="3"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:5">
       <c r="B35" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="2:5">
       <c r="B36" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="2:5">
       <c r="B37" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="2:5">
       <c r="B38" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E38" s="3"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="2:5">
       <c r="B39" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E39" s="3"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="2:5">
       <c r="B40" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E40" s="3"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:5">
       <c r="B41" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:5">
       <c r="B42" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E42" s="3"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="2:5">
       <c r="B43" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E43" s="3"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="2:5">
       <c r="B44" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E44" s="3"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="2:5">
       <c r="B45" s="20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E45" s="3"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="2:5">
       <c r="B46" s="20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E46" s="3"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="2:5">
       <c r="B47" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E47" s="3"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="2:5">
       <c r="B48" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E48" s="3"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="2:5">
       <c r="B49" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E49" s="3"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="2:5">
       <c r="B50" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E50" s="3"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="2:5">
       <c r="B51" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E51" s="3"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="2:5">
       <c r="B52" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E52" s="3"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="2:5">
       <c r="B53" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E53" s="3"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="2:5">
       <c r="B54" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E54" s="3"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="2:5">
       <c r="B55" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E55" s="3"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="2:5">
       <c r="B56" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E56" s="3"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="2:5">
       <c r="B57" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="2:5">
       <c r="B58" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E58" s="3"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="2:5">
       <c r="B59" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E59" s="3"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="2:5">
       <c r="B60" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E60" s="3"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="2:5">
       <c r="B61" s="20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E61" s="3"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="2:5">
       <c r="B62" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E62" s="3"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="2:5">
       <c r="B63" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E63" s="3"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="2:5">
       <c r="B64" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E64" s="3"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:5">
       <c r="B65" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E65" s="3"/>
     </row>

--- a/接口文档/商品api/商品发布_商户端.xlsx
+++ b/接口文档/商品api/商品发布_商户端.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="669" firstSheet="3" activeTab="9"/>
+    <workbookView windowWidth="21255" windowHeight="9360" tabRatio="669" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221">
   <si>
     <t>商品发布接口
 版本：1.0
@@ -637,12 +637,42 @@
 </t>
   </si>
   <si>
-    <t>http://192.168.1.117/api/product_edit/v1/on</t>
+    <t>http://192.168.1.117/api/product_edit/v1/on?page=1&amp;size=10&amp;sort=createAt&amp;id=1&amp;title=商品</t>
   </si>
   <si>
     <t>GET</t>
   </si>
   <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>当前页（从0开始算起）</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>每页条数</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>排序字段</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>商品id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
     <t>公共响应参数</t>
   </si>
   <si>
@@ -650,6 +680,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -692,10 +728,13 @@
     </r>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -739,6 +778,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -772,6 +817,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -808,6 +859,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -851,6 +908,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -894,6 +957,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -937,6 +1006,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -980,6 +1055,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -1023,6 +1104,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -1066,6 +1153,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -1109,6 +1202,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -1152,6 +1251,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -1195,6 +1300,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -1238,6 +1349,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -1281,6 +1398,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -1308,6 +1431,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -1351,6 +1480,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -1394,6 +1529,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -1437,6 +1578,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -1480,6 +1627,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -1523,6 +1676,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -1560,6 +1719,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -1603,6 +1768,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -1646,6 +1817,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -1689,6 +1866,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -1732,6 +1915,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -1775,6 +1964,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -1818,6 +2013,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -1861,6 +2062,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -1904,6 +2111,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -1947,6 +2160,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -1996,6 +2215,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -2033,6 +2258,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -2076,6 +2307,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -2119,6 +2356,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -2162,6 +2405,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -2205,6 +2454,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -2248,6 +2503,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -2291,6 +2552,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -2334,6 +2601,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -2377,6 +2650,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -2420,6 +2699,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -2463,6 +2748,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -2506,6 +2797,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -2549,6 +2846,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -2592,6 +2895,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -2626,6 +2935,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -2669,6 +2984,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -2712,6 +3033,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -2755,6 +3082,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -2798,6 +3131,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -2841,6 +3180,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -2884,6 +3229,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -2927,6 +3278,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -2970,6 +3327,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -3013,6 +3376,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -3056,6 +3425,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -3099,6 +3474,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -3142,6 +3523,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -3185,6 +3572,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -3228,6 +3621,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -3271,6 +3670,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                        </t>
     </r>
     <r>
@@ -3314,6 +3719,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -3351,6 +3762,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        ]</t>
     </r>
     <r>
@@ -3365,6 +3782,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -3408,6 +3831,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -3451,6 +3880,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -3493,6 +3928,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -3536,6 +3977,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -3579,6 +4026,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -3612,6 +4065,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -3655,6 +4114,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -3698,6 +4163,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -3722,6 +4193,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -3765,6 +4242,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -3789,6 +4272,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -3831,6 +4320,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -3882,6 +4377,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -3906,6 +4407,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -3949,6 +4456,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -3992,6 +4505,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -4035,6 +4554,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -4078,6 +4603,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -4121,6 +4652,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -4164,6 +4701,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -4207,6 +4750,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -4250,6 +4799,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -4293,6 +4848,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -4336,6 +4897,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -4379,6 +4946,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -4412,6 +4985,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -4455,6 +5034,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -4498,6 +5083,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -4541,6 +5132,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -4584,6 +5181,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -4627,6 +5230,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -4661,6 +5270,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -4704,6 +5319,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -4747,6 +5368,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -4790,6 +5417,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -4833,6 +5466,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -4867,6 +5506,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -4910,6 +5555,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -4953,6 +5604,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -4996,6 +5653,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -5039,6 +5702,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -5082,6 +5751,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -5125,6 +5800,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -5168,6 +5849,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -5211,6 +5898,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -5254,6 +5947,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -5297,6 +5996,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -5340,6 +6045,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>                </t>
     </r>
     <r>
@@ -5383,6 +6094,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -5424,6 +6141,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -5465,6 +6188,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"status":"0","msg":"</t>
     </r>
     <r>
@@ -6312,10 +7041,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -6367,15 +7096,33 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6397,8 +7144,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6413,73 +7215,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -6487,21 +7222,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6575,7 +7304,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6587,7 +7328,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6599,7 +7364,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6617,7 +7436,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6629,127 +7472,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6883,45 +7612,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -6955,8 +7645,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6971,15 +7709,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6988,10 +7717,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7000,16 +7729,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7019,116 +7748,116 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
@@ -7137,7 +7866,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7202,14 +7931,29 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7580,186 +8324,186 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="7" spans="7:14">
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
     </row>
     <row r="8" spans="7:14">
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
     </row>
     <row r="9" spans="7:14">
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
     </row>
     <row r="10" spans="7:14">
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
     </row>
     <row r="11" spans="7:14">
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
     </row>
     <row r="12" spans="7:14">
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
     </row>
     <row r="13" spans="7:14">
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
     </row>
     <row r="14" spans="7:14">
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
     </row>
     <row r="15" spans="7:14">
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
     </row>
     <row r="16" spans="7:14">
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
     </row>
     <row r="17" spans="7:14">
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
     </row>
     <row r="18" spans="7:14">
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
     </row>
     <row r="19" spans="7:14">
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
     </row>
     <row r="20" spans="7:14">
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
     </row>
     <row r="21" spans="7:14">
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
     </row>
     <row r="22" spans="7:14">
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
     </row>
     <row r="23" spans="7:14">
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
     </row>
     <row r="24" spans="7:14">
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7775,7 +8519,7 @@
   <sheetPr/>
   <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -7794,7 +8538,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -7805,7 +8549,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -7849,7 +8593,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -7868,7 +8612,7 @@
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A9" s="14"/>
       <c r="B9" s="16" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -7877,526 +8621,494 @@
     <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="14"/>
       <c r="B10" s="20" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="E10" s="21"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="14"/>
-      <c r="B11" s="22"/>
+      <c r="B11" s="20"/>
       <c r="E11" s="21"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
       <c r="A12" s="14"/>
-      <c r="B12" s="22"/>
+      <c r="B12" s="20"/>
       <c r="E12" s="19"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
       <c r="A13" s="14"/>
-      <c r="B13" s="22"/>
+      <c r="B13" s="20"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
       <c r="A14" s="14"/>
-      <c r="B14" s="22"/>
+      <c r="B14" s="20"/>
       <c r="E14" s="19"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
       <c r="A15" s="14"/>
-      <c r="B15" s="22"/>
+      <c r="B15" s="20"/>
       <c r="E15" s="19"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
       <c r="A16" s="14"/>
-      <c r="B16" s="22"/>
+      <c r="B16" s="20"/>
       <c r="E16" s="19"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
       <c r="A17" s="14"/>
-      <c r="B17" s="22"/>
+      <c r="B17" s="20"/>
       <c r="E17" s="19"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
       <c r="A18" s="14"/>
-      <c r="B18" s="22"/>
+      <c r="B18" s="20"/>
       <c r="E18" s="19"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:5">
       <c r="A19" s="14"/>
-      <c r="B19" s="22"/>
+      <c r="B19" s="20"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="23"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="20"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="2:5">
-      <c r="B21" s="22"/>
+      <c r="B21" s="20"/>
       <c r="E21" s="19"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:5">
-      <c r="B22" s="22"/>
-      <c r="E22" s="24"/>
+      <c r="B22" s="20"/>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B23" s="22"/>
+      <c r="B23" s="20"/>
       <c r="E23" s="19"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="2:5">
-      <c r="B24" s="22"/>
-      <c r="E24" s="24"/>
+      <c r="B24" s="20"/>
+      <c r="E24" s="23"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
-      <c r="B25" s="22"/>
+      <c r="B25" s="20"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
-      <c r="B26" s="22"/>
+      <c r="B26" s="20"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="2:5">
-      <c r="B27" s="22"/>
+      <c r="B27" s="20"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:5">
-      <c r="B28" s="22"/>
+      <c r="B28" s="20"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="2:5">
-      <c r="B29" s="22"/>
+      <c r="B29" s="20"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="2:5">
-      <c r="B30" s="22"/>
+      <c r="B30" s="20"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="2:5">
-      <c r="B31" s="22"/>
+      <c r="B31" s="20"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="2:5">
-      <c r="B32" s="22"/>
+      <c r="B32" s="20"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="2:5">
-      <c r="B33" s="22"/>
+      <c r="B33" s="20"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="2:5">
-      <c r="B34" s="22"/>
+      <c r="B34" s="20"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:5">
-      <c r="B35" s="22"/>
+      <c r="B35" s="20"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="2:5">
-      <c r="B36" s="22"/>
+      <c r="B36" s="20"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="2:5">
-      <c r="B37" s="22"/>
+      <c r="B37" s="20"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="2:5">
-      <c r="B38" s="22"/>
+      <c r="B38" s="20"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="2:5">
-      <c r="B39" s="22"/>
+      <c r="B39" s="20"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="2:5">
-      <c r="B40" s="22"/>
+      <c r="B40" s="20"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:5">
-      <c r="B41" s="22"/>
+      <c r="B41" s="20"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:5">
-      <c r="B42" s="22"/>
+      <c r="B42" s="20"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="2:5">
-      <c r="B43" s="22"/>
+      <c r="B43" s="20"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="2:5">
-      <c r="B44" s="22"/>
+      <c r="B44" s="20"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="2:5">
-      <c r="B45" s="22"/>
+      <c r="B45" s="20"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="2:5">
-      <c r="B46" s="22"/>
+      <c r="B46" s="20"/>
       <c r="E46" s="3"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="2:5">
-      <c r="B47" s="22"/>
+      <c r="B47" s="20"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="2:5">
-      <c r="B48" s="22"/>
+      <c r="B48" s="20"/>
       <c r="E48" s="3"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="2:5">
-      <c r="B49" s="22"/>
+      <c r="B49" s="20"/>
       <c r="E49" s="3"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="2:5">
-      <c r="B50" s="22"/>
+      <c r="B50" s="20"/>
       <c r="E50" s="3"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="2:5">
-      <c r="B51" s="22"/>
+      <c r="B51" s="20"/>
       <c r="E51" s="3"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="2:5">
-      <c r="B52" s="22"/>
+      <c r="B52" s="20"/>
       <c r="E52" s="3"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="2:5">
-      <c r="B53" s="22"/>
+      <c r="B53" s="20"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="2:5">
-      <c r="B54" s="22"/>
+      <c r="B54" s="20"/>
       <c r="E54" s="3"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="2:5">
-      <c r="B55" s="22"/>
+      <c r="B55" s="20"/>
       <c r="E55" s="3"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="2:5">
-      <c r="B56" s="22"/>
+      <c r="B56" s="20"/>
       <c r="E56" s="3"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="2:5">
-      <c r="B57" s="22"/>
+      <c r="B57" s="20"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="2:5">
-      <c r="B58" s="22"/>
+      <c r="B58" s="20"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="2:5">
-      <c r="B59" s="22"/>
+      <c r="B59" s="20"/>
       <c r="E59" s="3"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="2:5">
-      <c r="B60" s="22"/>
+      <c r="B60" s="20"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="2:5">
-      <c r="B61" s="22"/>
+      <c r="B61" s="20"/>
       <c r="E61" s="3"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="2:5">
-      <c r="B62" s="22"/>
+      <c r="B62" s="20"/>
       <c r="E62" s="3"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="2:5">
-      <c r="B63" s="22"/>
+      <c r="B63" s="20"/>
       <c r="E63" s="3"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="2:5">
-      <c r="B64" s="22"/>
+      <c r="B64" s="20"/>
       <c r="E64" s="3"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:5">
-      <c r="B65" s="22"/>
+      <c r="B65" s="20"/>
       <c r="E65" s="3"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="2:5">
-      <c r="B66" s="22"/>
+      <c r="B66" s="20"/>
       <c r="E66" s="3"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="2:5">
-      <c r="B67" s="22"/>
+      <c r="B67" s="20"/>
       <c r="E67" s="3"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="2:5">
-      <c r="B68" s="22"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="B68" s="20"/>
       <c r="E68" s="3"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="2:5">
-      <c r="B69" s="22"/>
+      <c r="B69" s="20"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" s="1" customFormat="1" spans="2:5">
-      <c r="B70" s="22"/>
+      <c r="B70" s="20"/>
       <c r="E70" s="3"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="2:5">
-      <c r="B71" s="22"/>
+      <c r="B71" s="20"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="2:5">
-      <c r="B72" s="22"/>
+      <c r="B72" s="20"/>
       <c r="E72" s="3"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="2:5">
-      <c r="B73" s="22"/>
+      <c r="B73" s="20"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="2:5">
-      <c r="B74" s="22"/>
+      <c r="B74" s="20"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="2:5">
-      <c r="B75" s="22"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="B75" s="20"/>
       <c r="E75" s="3"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="2:5">
-      <c r="B76" s="22"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="B76" s="20"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="2:5">
-      <c r="B77" s="22"/>
+      <c r="B77" s="20"/>
       <c r="E77" s="3"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="2:5">
-      <c r="B78" s="22"/>
+      <c r="B78" s="20"/>
       <c r="E78" s="3"/>
     </row>
     <row r="79" s="1" customFormat="1" spans="2:5">
-      <c r="B79" s="22"/>
+      <c r="B79" s="20"/>
       <c r="E79" s="3"/>
     </row>
     <row r="80" s="1" customFormat="1" spans="2:5">
-      <c r="B80" s="22"/>
+      <c r="B80" s="20"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" s="1" customFormat="1" spans="2:5">
-      <c r="B81" s="22"/>
+      <c r="B81" s="20"/>
       <c r="E81" s="3"/>
     </row>
     <row r="82" s="1" customFormat="1" spans="2:5">
-      <c r="B82" s="22"/>
+      <c r="B82" s="20"/>
       <c r="E82" s="3"/>
     </row>
     <row r="83" s="1" customFormat="1" spans="2:5">
-      <c r="B83" s="22"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="B83" s="20"/>
       <c r="E83" s="3"/>
     </row>
     <row r="84" s="1" customFormat="1" spans="2:5">
-      <c r="B84" s="22"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="B84" s="20"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" s="1" customFormat="1" spans="2:5">
-      <c r="B85" s="22"/>
+      <c r="B85" s="20"/>
       <c r="E85" s="3"/>
     </row>
     <row r="86" s="1" customFormat="1" spans="2:5">
-      <c r="B86" s="22"/>
+      <c r="B86" s="20"/>
       <c r="E86" s="3"/>
     </row>
     <row r="87" s="1" customFormat="1" spans="2:5">
-      <c r="B87" s="22"/>
+      <c r="B87" s="20"/>
       <c r="E87" s="3"/>
     </row>
     <row r="88" s="1" customFormat="1" spans="2:5">
-      <c r="B88" s="22"/>
+      <c r="B88" s="20"/>
       <c r="E88" s="3"/>
     </row>
     <row r="89" s="1" customFormat="1" spans="2:5">
-      <c r="B89" s="22"/>
+      <c r="B89" s="20"/>
       <c r="E89" s="3"/>
     </row>
     <row r="90" s="1" customFormat="1" spans="2:5">
-      <c r="B90" s="22"/>
+      <c r="B90" s="20"/>
       <c r="E90" s="3"/>
     </row>
     <row r="91" s="1" customFormat="1" spans="2:5">
-      <c r="B91" s="22"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="B91" s="20"/>
       <c r="E91" s="3"/>
     </row>
     <row r="92" s="1" customFormat="1" spans="2:5">
-      <c r="B92" s="22"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="B92" s="20"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93" s="1" customFormat="1" spans="2:5">
-      <c r="B93" s="22"/>
+      <c r="B93" s="20"/>
       <c r="E93" s="3"/>
     </row>
     <row r="94" s="1" customFormat="1" spans="2:5">
-      <c r="B94" s="22"/>
+      <c r="B94" s="20"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95" s="1" customFormat="1" spans="2:5">
-      <c r="B95" s="22"/>
+      <c r="B95" s="20"/>
       <c r="E95" s="3"/>
     </row>
     <row r="96" s="1" customFormat="1" spans="2:5">
-      <c r="B96" s="22"/>
+      <c r="B96" s="20"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97" s="1" customFormat="1" spans="2:5">
-      <c r="B97" s="22"/>
+      <c r="B97" s="20"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" s="1" customFormat="1" spans="2:5">
-      <c r="B98" s="22"/>
+      <c r="B98" s="20"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" s="1" customFormat="1" spans="2:5">
-      <c r="B99" s="22"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
+      <c r="B99" s="20"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" s="1" customFormat="1" spans="2:5">
-      <c r="B100" s="22"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+      <c r="B100" s="20"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" s="1" customFormat="1" spans="2:5">
-      <c r="B101" s="22"/>
+      <c r="B101" s="20"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" s="1" customFormat="1" spans="2:5">
-      <c r="B102" s="22"/>
+      <c r="B102" s="20"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" s="1" customFormat="1" spans="2:5">
-      <c r="B103" s="22"/>
+      <c r="B103" s="20"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" s="1" customFormat="1" spans="2:5">
-      <c r="B104" s="22"/>
+      <c r="B104" s="20"/>
       <c r="E104" s="3"/>
     </row>
     <row r="105" s="1" customFormat="1" spans="2:5">
-      <c r="B105" s="22"/>
+      <c r="B105" s="20"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" s="1" customFormat="1" spans="2:5">
-      <c r="B106" s="22"/>
+      <c r="B106" s="20"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" s="1" customFormat="1" spans="2:5">
-      <c r="B107" s="22"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
+      <c r="B107" s="20"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" s="1" customFormat="1" spans="2:5">
-      <c r="B108" s="22"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
+      <c r="B108" s="20"/>
       <c r="E108" s="3"/>
     </row>
     <row r="109" s="1" customFormat="1" spans="2:5">
-      <c r="B109" s="22"/>
+      <c r="B109" s="20"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" s="1" customFormat="1" spans="2:5">
-      <c r="B110" s="22"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
+      <c r="B110" s="20"/>
       <c r="E110" s="3"/>
     </row>
     <row r="111" s="1" customFormat="1" spans="2:5">
-      <c r="B111" s="22"/>
+      <c r="B111" s="20"/>
       <c r="E111" s="3"/>
     </row>
     <row r="112" s="1" customFormat="1" spans="2:5">
-      <c r="B112" s="22"/>
+      <c r="B112" s="20"/>
       <c r="E112" s="3"/>
     </row>
     <row r="113" s="1" customFormat="1" spans="2:5">
-      <c r="B113" s="22"/>
+      <c r="B113" s="20"/>
       <c r="E113" s="3"/>
     </row>
     <row r="114" s="1" customFormat="1" spans="2:5">
-      <c r="B114" s="22"/>
+      <c r="B114" s="20"/>
       <c r="E114" s="3"/>
     </row>
     <row r="115" s="1" customFormat="1" spans="2:5">
-      <c r="B115" s="22"/>
+      <c r="B115" s="20"/>
       <c r="E115" s="3"/>
     </row>
     <row r="116" s="1" customFormat="1" spans="2:5">
-      <c r="B116" s="22"/>
+      <c r="B116" s="20"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" s="1" customFormat="1" spans="2:5">
-      <c r="B117" s="22"/>
+      <c r="B117" s="20"/>
       <c r="E117" s="3"/>
     </row>
     <row r="118" s="1" customFormat="1" spans="2:5">
-      <c r="B118" s="22"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
+      <c r="B118" s="20"/>
       <c r="E118" s="3"/>
     </row>
     <row r="119" s="1" customFormat="1" spans="2:5">
-      <c r="B119" s="22"/>
+      <c r="B119" s="20"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120" s="1" customFormat="1" spans="2:5">
-      <c r="B120" s="22"/>
+      <c r="B120" s="20"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" s="1" customFormat="1" spans="2:5">
-      <c r="B121" s="22"/>
+      <c r="B121" s="20"/>
       <c r="E121" s="3"/>
     </row>
     <row r="122" s="1" customFormat="1" spans="2:5">
-      <c r="B122" s="22"/>
+      <c r="B122" s="20"/>
       <c r="E122" s="3"/>
     </row>
     <row r="123" s="1" customFormat="1" spans="2:5">
-      <c r="B123" s="22"/>
+      <c r="B123" s="20"/>
       <c r="E123" s="3"/>
     </row>
     <row r="124" s="1" customFormat="1" spans="2:5">
-      <c r="B124" s="22"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
+      <c r="B124" s="20"/>
       <c r="E124" s="3"/>
     </row>
     <row r="125" s="1" customFormat="1" spans="2:5">
-      <c r="B125" s="22"/>
+      <c r="B125" s="20"/>
       <c r="E125" s="3"/>
     </row>
     <row r="126" s="1" customFormat="1" spans="2:5">
-      <c r="B126" s="22"/>
+      <c r="B126" s="20"/>
       <c r="E126" s="3"/>
     </row>
     <row r="127" s="1" customFormat="1" spans="2:5">
-      <c r="B127" s="22"/>
+      <c r="B127" s="20"/>
       <c r="E127" s="3"/>
     </row>
     <row r="128" s="1" customFormat="1" spans="2:5">
-      <c r="B128" s="22"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
+      <c r="B128" s="20"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" s="1" customFormat="1" spans="2:5">
-      <c r="B129" s="22"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
+      <c r="B129" s="20"/>
       <c r="E129" s="3"/>
     </row>
   </sheetData>
@@ -8431,50 +9143,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="25">
+      <c r="A3" s="30">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="25">
+      <c r="A4" s="30">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="25">
+      <c r="A5" s="30">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="27"/>
+      <c r="B6" s="32"/>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="28"/>
+      <c r="B7" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8644,7 +9356,7 @@
       </c>
     </row>
     <row r="15" ht="13.5" spans="1:2">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="20" t="s">
         <v>36</v>
       </c>
@@ -8661,7 +9373,7 @@
       <c r="B17" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="23" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8677,7 +9389,7 @@
       <c r="B19" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="23" t="s">
         <v>44</v>
       </c>
     </row>
@@ -8890,10 +9602,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="B5" sqref="B5:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -8921,7 +9633,7 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="29" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="9"/>
@@ -8956,704 +9668,764 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="21" customHeight="1" spans="1:5">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="21" customHeight="1" spans="1:5">
-      <c r="A6" s="11" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:5">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:5">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:5">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:5">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="21" customHeight="1" spans="1:5">
+      <c r="A9" s="14"/>
+      <c r="B9" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="21" customHeight="1" spans="1:5">
+      <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
-      <c r="A7" s="14"/>
-      <c r="B7" s="19"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:5">
-      <c r="A8" s="14"/>
-      <c r="B8" s="19"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A9" s="14"/>
-      <c r="B9" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:5">
-      <c r="A10" s="14"/>
-      <c r="B10" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="21"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:5">
+      <c r="B10" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A11" s="14"/>
-      <c r="B11" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="21"/>
+      <c r="B11" s="19"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
       <c r="A12" s="14"/>
-      <c r="B12" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:5">
+      <c r="B12" s="19"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A13" s="14"/>
-      <c r="B13" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="3"/>
+      <c r="B13" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
       <c r="A14" s="14"/>
-      <c r="B14" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="19"/>
+      <c r="B14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
       <c r="A15" s="14"/>
-      <c r="B15" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="19"/>
+      <c r="B15" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
       <c r="A16" s="14"/>
-      <c r="B16" s="22" t="s">
-        <v>81</v>
+      <c r="B16" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="E16" s="19"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
       <c r="A17" s="14"/>
-      <c r="B17" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="19"/>
+      <c r="B17" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
       <c r="A18" s="14"/>
-      <c r="B18" s="22" t="s">
-        <v>83</v>
+      <c r="B18" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="E18" s="19"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:5">
       <c r="A19" s="14"/>
-      <c r="B19" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="3"/>
+      <c r="B19" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="23"/>
-      <c r="B20" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="2:5">
-      <c r="B21" s="22" t="s">
-        <v>86</v>
+      <c r="A20" s="14"/>
+      <c r="B20" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:5">
+      <c r="A21" s="14"/>
+      <c r="B21" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="E21" s="19"/>
     </row>
-    <row r="22" s="1" customFormat="1" spans="2:5">
-      <c r="B22" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="24"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B23" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="19"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="2:5">
-      <c r="B24" s="22" t="s">
+    <row r="22" s="1" customFormat="1" spans="1:5">
+      <c r="A22" s="14"/>
+      <c r="B22" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:5">
+      <c r="A23" s="14"/>
+      <c r="B23" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:5">
+      <c r="A24" s="22"/>
+      <c r="B24" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="2:5">
+      <c r="B25" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="2:5">
+      <c r="B26" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="23"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="25.5" customHeight="1" spans="2:5">
+      <c r="B27" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="2:5">
+      <c r="B28" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="23"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
+      <c r="B29" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
+      <c r="B30" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="2:5">
+      <c r="B31" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="2:5">
+      <c r="B32" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="2:5">
+      <c r="B33" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="2:5">
+      <c r="B34" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="2:5">
+      <c r="B35" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="2:5">
+      <c r="B36" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="2:5">
+      <c r="B37" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="2:5">
+      <c r="B38" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="2:5">
+      <c r="B39" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:5">
+      <c r="B40" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="2:5">
+      <c r="B41" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="2:5">
+      <c r="B42" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="2:5">
+      <c r="B43" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="2:5">
+      <c r="B44" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="2:5">
+      <c r="B45" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="2:5">
+      <c r="B46" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="2:5">
+      <c r="B47" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="2:5">
+      <c r="B48" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="2:5">
+      <c r="B49" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="2:5">
+      <c r="B50" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:5">
+      <c r="B51" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="2:5">
+      <c r="B52" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="2:5">
+      <c r="B53" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:5">
+      <c r="B54" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="2:5">
+      <c r="B55" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="2:5">
+      <c r="B56" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="2:5">
+      <c r="B57" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="2:5">
+      <c r="B58" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="2:5">
+      <c r="B59" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="24"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
-      <c r="B25" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
-      <c r="B26" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="2:5">
-      <c r="B27" s="22" t="s">
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="2:5">
+      <c r="B60" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="2:5">
+      <c r="B61" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="2:5">
+      <c r="B62" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="2:5">
-      <c r="B28" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="2:5">
-      <c r="B29" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="2:5">
-      <c r="B30" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="2:5">
-      <c r="B31" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="2:5">
-      <c r="B32" s="22" t="s">
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="2:5">
+      <c r="B63" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="2:5">
+      <c r="B64" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="2:5">
+      <c r="B65" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="2:5">
-      <c r="B33" s="22" t="s">
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="2:5">
-      <c r="B34" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="2:5">
-      <c r="B35" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="2:5">
-      <c r="B36" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="2:5">
-      <c r="B37" s="22" t="s">
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="2:5">
-      <c r="B38" s="22" t="s">
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="2:5">
-      <c r="B39" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="2:5">
-      <c r="B40" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="2:5">
-      <c r="B41" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="2:5">
-      <c r="B42" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="2:5">
-      <c r="B43" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="2:5">
-      <c r="B44" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="2:5">
-      <c r="B45" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="2:5">
-      <c r="B46" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="2:5">
-      <c r="B47" s="22" t="s">
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="2:5">
-      <c r="B48" s="22" t="s">
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="2:5">
-      <c r="B49" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="2:5">
-      <c r="B50" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="2:5">
-      <c r="B51" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="2:5">
-      <c r="B52" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="2:5">
-      <c r="B53" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="2:5">
-      <c r="B54" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="2:5">
-      <c r="B55" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="2:5">
-      <c r="B56" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="2:5">
-      <c r="B57" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="2:5">
-      <c r="B58" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="2:5">
-      <c r="B59" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="2:5">
-      <c r="B60" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="2:5">
-      <c r="B61" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="22" t="s">
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="22" t="s">
+    <row r="112" spans="2:2">
+      <c r="B112" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94" s="22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2">
-      <c r="B95" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2">
-      <c r="B96" s="22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2">
-      <c r="B112" s="22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="22" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="22" t="s">
+    <row r="123" spans="2:2">
+      <c r="B123" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="20" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
-      <c r="B121" s="22" t="s">
+    <row r="129" spans="2:2">
+      <c r="B129" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
-      <c r="B122" s="22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2">
-      <c r="B127" s="22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="22" t="s">
+    <row r="130" spans="2:2">
+      <c r="B130" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="20" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9662,12 +10434,12 @@
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="A6:A20"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A10:A24"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.117/api/product_edit/v1/on" tooltip="http://192.168.1.117/api/product_edit/v1/on"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.117/api/product_edit/v1/on?page=1&amp;size=10&amp;sort=createAt&amp;id=1&amp;title=商品" tooltip="http://192.168.1.117/api/product_edit/v1/on?page=1&amp;size=10&amp;sort=createAt&amp;id=1&amp;title=商品"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -9677,10 +10449,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -9698,7 +10470,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -9709,7 +10481,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -9743,815 +10515,843 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="21" customHeight="1" spans="1:5">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="21" customHeight="1" spans="1:5">
-      <c r="A6" s="11" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:5">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:5">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:5">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:5">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:5">
+      <c r="A9" s="24"/>
+      <c r="B9" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="21" customHeight="1" spans="1:5">
+      <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
-      <c r="A7" s="14"/>
-      <c r="B7" s="19"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:5">
-      <c r="A8" s="14"/>
-      <c r="B8" s="19"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A9" s="14"/>
-      <c r="B9" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:5">
-      <c r="A10" s="14"/>
-      <c r="B10" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="21"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:5">
+      <c r="B10" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A11" s="14"/>
-      <c r="B11" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="21"/>
+      <c r="B11" s="19"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
       <c r="A12" s="14"/>
-      <c r="B12" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:5">
+      <c r="B12" s="19"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A13" s="14"/>
-      <c r="B13" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="3"/>
+      <c r="B13" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
       <c r="A14" s="14"/>
-      <c r="B14" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="19"/>
+      <c r="B14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
       <c r="A15" s="14"/>
-      <c r="B15" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="19"/>
+      <c r="B15" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
       <c r="A16" s="14"/>
-      <c r="B16" s="22" t="s">
-        <v>81</v>
+      <c r="B16" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="E16" s="19"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
       <c r="A17" s="14"/>
-      <c r="B17" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="19"/>
+      <c r="B17" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
       <c r="A18" s="14"/>
-      <c r="B18" s="22" t="s">
-        <v>83</v>
+      <c r="B18" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="E18" s="19"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:5">
       <c r="A19" s="14"/>
-      <c r="B19" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="3"/>
+      <c r="B19" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="23"/>
-      <c r="B20" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="2:5">
-      <c r="B21" s="22" t="s">
-        <v>86</v>
+      <c r="A20" s="14"/>
+      <c r="B20" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:5">
+      <c r="A21" s="14"/>
+      <c r="B21" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="E21" s="19"/>
     </row>
-    <row r="22" s="1" customFormat="1" spans="2:5">
-      <c r="B22" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="24"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B23" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="19"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="2:5">
-      <c r="B24" s="22" t="s">
+    <row r="22" s="1" customFormat="1" spans="1:5">
+      <c r="A22" s="14"/>
+      <c r="B22" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:5">
+      <c r="A23" s="14"/>
+      <c r="B23" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:5">
+      <c r="A24" s="22"/>
+      <c r="B24" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="2:5">
+      <c r="B25" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="2:5">
+      <c r="B26" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="23"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="25.5" customHeight="1" spans="2:5">
+      <c r="B27" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="2:5">
+      <c r="B28" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="23"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
+      <c r="B29" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
+      <c r="B30" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="2:5">
+      <c r="B31" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="2:5">
+      <c r="B32" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="2:5">
+      <c r="B33" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="2:5">
+      <c r="B34" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="2:5">
+      <c r="B35" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="2:5">
+      <c r="B36" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="2:5">
+      <c r="B37" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="2:5">
+      <c r="B38" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="2:5">
+      <c r="B39" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:5">
+      <c r="B40" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="2:5">
+      <c r="B41" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="2:5">
+      <c r="B42" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="2:5">
+      <c r="B43" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="2:5">
+      <c r="B44" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="2:5">
+      <c r="B45" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="2:5">
+      <c r="B46" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="2:5">
+      <c r="B47" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="2:5">
+      <c r="B48" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="2:5">
+      <c r="B49" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="2:5">
+      <c r="B50" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:5">
+      <c r="B51" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="2:5">
+      <c r="B52" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="2:5">
+      <c r="B53" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:5">
+      <c r="B54" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="2:5">
+      <c r="B55" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="2:5">
+      <c r="B56" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="2:5">
+      <c r="B57" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="2:5">
+      <c r="B58" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="2:5">
+      <c r="B59" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="24"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
-      <c r="B25" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
-      <c r="B26" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="2:5">
-      <c r="B27" s="22" t="s">
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="2:5">
+      <c r="B60" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="2:5">
+      <c r="B61" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="2:5">
+      <c r="B62" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="2:5">
-      <c r="B28" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="2:5">
-      <c r="B29" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="2:5">
-      <c r="B30" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="2:5">
-      <c r="B31" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="2:5">
-      <c r="B32" s="22" t="s">
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="2:5">
+      <c r="B63" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="2:5">
+      <c r="B64" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="2:5">
+      <c r="B65" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="2:5">
+      <c r="B66" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="2:5">
+      <c r="B67" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="2:5">
-      <c r="B33" s="22" t="s">
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="2:5">
+      <c r="B68" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="2:5">
-      <c r="B34" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="2:5">
-      <c r="B35" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="2:5">
-      <c r="B36" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="2:5">
-      <c r="B37" s="22" t="s">
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="2:5">
+      <c r="B69" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="2:5">
+      <c r="B70" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="2:5">
+      <c r="B71" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="2:5">
-      <c r="B38" s="22" t="s">
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="2:5">
+      <c r="B72" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="2:5">
-      <c r="B39" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="2:5">
-      <c r="B40" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="2:5">
-      <c r="B41" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="2:5">
-      <c r="B42" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="2:5">
-      <c r="B43" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="2:5">
-      <c r="B44" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="2:5">
-      <c r="B45" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="2:5">
-      <c r="B46" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="2:5">
-      <c r="B47" s="22" t="s">
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="2:5">
+      <c r="B73" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="2:5">
+      <c r="B74" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="2:5">
+      <c r="B75" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="2:5">
+      <c r="B76" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="2:5">
+      <c r="B77" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="2:5">
+      <c r="B78" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="2:5">
+      <c r="B79" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="2:5">
+      <c r="B80" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="2:5">
+      <c r="B81" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="2:5">
+      <c r="B82" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="2:5">
+      <c r="B83" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="2:5">
+      <c r="B84" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="2:5">
+      <c r="B85" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="2:5">
+      <c r="B86" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="2:5">
-      <c r="B48" s="22" t="s">
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="2:5">
+      <c r="B87" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="2:5">
-      <c r="B49" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="2:5">
-      <c r="B50" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="2:5">
-      <c r="B51" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="2:5">
-      <c r="B52" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="2:5">
-      <c r="B53" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="2:5">
-      <c r="B54" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="2:5">
-      <c r="B55" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="2:5">
-      <c r="B56" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="2:5">
-      <c r="B57" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="2:5">
-      <c r="B58" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="2:5">
-      <c r="B59" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="2:5">
-      <c r="B60" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="2:5">
-      <c r="B61" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" s="1" customFormat="1" spans="2:5">
-      <c r="B62" s="22" t="s">
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" s="1" customFormat="1" spans="2:5">
+      <c r="B88" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" s="1" customFormat="1" spans="2:5">
+      <c r="B89" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" s="1" customFormat="1" spans="2:5">
+      <c r="B90" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" s="1" customFormat="1" spans="2:5">
+      <c r="B91" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" s="1" customFormat="1" spans="2:5">
+      <c r="B92" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" s="1" customFormat="1" spans="2:5">
+      <c r="B93" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" s="1" customFormat="1" spans="2:5">
+      <c r="B94" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" s="1" customFormat="1" spans="2:5">
+      <c r="B95" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" s="1" customFormat="1" spans="2:5">
+      <c r="B96" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" s="1" customFormat="1" spans="2:5">
+      <c r="B97" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" s="1" customFormat="1" spans="2:5">
+      <c r="B98" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" s="1" customFormat="1" spans="2:5">
+      <c r="B99" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" s="1" customFormat="1" spans="2:5">
+      <c r="B100" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" s="1" customFormat="1" spans="2:5">
+      <c r="B101" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" s="1" customFormat="1" spans="2:5">
+      <c r="B102" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" s="1" customFormat="1" spans="2:5">
+      <c r="B103" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" s="1" customFormat="1" spans="2:5">
+      <c r="B104" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" s="1" customFormat="1" spans="2:5">
+      <c r="B105" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" s="1" customFormat="1" spans="2:5">
+      <c r="B106" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" s="1" customFormat="1" spans="2:5">
+      <c r="B107" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" s="1" customFormat="1" spans="2:5">
+      <c r="B108" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" s="1" customFormat="1" spans="2:5">
+      <c r="B109" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" s="1" customFormat="1" spans="2:5">
+      <c r="B110" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" s="1" customFormat="1" spans="2:5">
+      <c r="B111" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" s="1" customFormat="1" spans="2:5">
-      <c r="B63" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" s="1" customFormat="1" spans="2:5">
-      <c r="B64" s="22" t="s">
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" s="1" customFormat="1" spans="2:5">
+      <c r="B112" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" s="1" customFormat="1" spans="2:5">
+      <c r="B113" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" s="1" customFormat="1" spans="2:5">
+      <c r="B114" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" s="1" customFormat="1" spans="2:5">
+      <c r="B115" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" s="1" customFormat="1" spans="2:5">
+      <c r="B116" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" s="1" customFormat="1" spans="2:5">
+      <c r="B117" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" s="1" customFormat="1" spans="2:5">
+      <c r="B118" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" s="1" customFormat="1" spans="2:5">
+      <c r="B119" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" s="1" customFormat="1" spans="2:5">
+      <c r="B120" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" s="1" customFormat="1" spans="2:5">
+      <c r="B121" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" s="1" customFormat="1" spans="2:5">
+      <c r="B122" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" s="1" customFormat="1" spans="2:5">
-      <c r="B65" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" s="1" customFormat="1" spans="2:5">
-      <c r="B66" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" s="1" customFormat="1" spans="2:5">
-      <c r="B67" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" s="1" customFormat="1" spans="2:5">
-      <c r="B68" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" s="1" customFormat="1" spans="2:5">
-      <c r="B69" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" s="1" customFormat="1" spans="2:5">
-      <c r="B70" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" s="1" customFormat="1" spans="2:5">
-      <c r="B71" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" s="1" customFormat="1" spans="2:5">
-      <c r="B72" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E72" s="3"/>
-    </row>
-    <row r="73" s="1" customFormat="1" spans="2:5">
-      <c r="B73" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" s="1" customFormat="1" spans="2:5">
-      <c r="B74" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" s="1" customFormat="1" spans="2:5">
-      <c r="B75" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" s="1" customFormat="1" spans="2:5">
-      <c r="B76" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" s="1" customFormat="1" spans="2:5">
-      <c r="B77" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" s="1" customFormat="1" spans="2:5">
-      <c r="B78" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" s="1" customFormat="1" spans="2:5">
-      <c r="B79" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" s="1" customFormat="1" spans="2:5">
-      <c r="B80" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" s="1" customFormat="1" spans="2:5">
-      <c r="B81" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" s="1" customFormat="1" spans="2:5">
-      <c r="B82" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" s="1" customFormat="1" spans="2:5">
-      <c r="B83" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" s="1" customFormat="1" spans="2:5">
-      <c r="B84" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" s="1" customFormat="1" spans="2:5">
-      <c r="B85" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" s="1" customFormat="1" spans="2:5">
-      <c r="B86" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" s="1" customFormat="1" spans="2:5">
-      <c r="B87" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" s="1" customFormat="1" spans="2:5">
-      <c r="B88" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" s="1" customFormat="1" spans="2:5">
-      <c r="B89" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" s="1" customFormat="1" spans="2:5">
-      <c r="B90" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" s="1" customFormat="1" spans="2:5">
-      <c r="B91" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" s="1" customFormat="1" spans="2:5">
-      <c r="B92" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" s="1" customFormat="1" spans="2:5">
-      <c r="B93" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" s="1" customFormat="1" spans="2:5">
-      <c r="B94" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" s="1" customFormat="1" spans="2:5">
-      <c r="B95" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" s="1" customFormat="1" spans="2:5">
-      <c r="B96" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="E96" s="3"/>
-    </row>
-    <row r="97" s="1" customFormat="1" spans="2:5">
-      <c r="B97" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" s="1" customFormat="1" spans="2:5">
-      <c r="B98" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" s="1" customFormat="1" spans="2:5">
-      <c r="B99" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="3"/>
-    </row>
-    <row r="100" s="1" customFormat="1" spans="2:5">
-      <c r="B100" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="3"/>
-    </row>
-    <row r="101" s="1" customFormat="1" spans="2:5">
-      <c r="B101" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" s="1" customFormat="1" spans="2:5">
-      <c r="B102" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E102" s="3"/>
-    </row>
-    <row r="103" s="1" customFormat="1" spans="2:5">
-      <c r="B103" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E103" s="3"/>
-    </row>
-    <row r="104" s="1" customFormat="1" spans="2:5">
-      <c r="B104" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="E104" s="3"/>
-    </row>
-    <row r="105" s="1" customFormat="1" spans="2:5">
-      <c r="B105" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E105" s="3"/>
-    </row>
-    <row r="106" s="1" customFormat="1" spans="2:5">
-      <c r="B106" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E106" s="3"/>
-    </row>
-    <row r="107" s="1" customFormat="1" spans="2:5">
-      <c r="B107" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="3"/>
-    </row>
-    <row r="108" s="1" customFormat="1" spans="2:5">
-      <c r="B108" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="3"/>
-    </row>
-    <row r="109" s="1" customFormat="1" spans="2:5">
-      <c r="B109" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="E109" s="3"/>
-    </row>
-    <row r="110" s="1" customFormat="1" spans="2:5">
-      <c r="B110" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="3"/>
-    </row>
-    <row r="111" s="1" customFormat="1" spans="2:5">
-      <c r="B111" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E111" s="3"/>
-    </row>
-    <row r="112" s="1" customFormat="1" spans="2:5">
-      <c r="B112" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="E112" s="3"/>
-    </row>
-    <row r="113" s="1" customFormat="1" spans="2:5">
-      <c r="B113" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="E113" s="3"/>
-    </row>
-    <row r="114" s="1" customFormat="1" spans="2:5">
-      <c r="B114" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="E114" s="3"/>
-    </row>
-    <row r="115" s="1" customFormat="1" spans="2:5">
-      <c r="B115" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="E115" s="3"/>
-    </row>
-    <row r="116" s="1" customFormat="1" spans="2:5">
-      <c r="B116" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="E116" s="3"/>
-    </row>
-    <row r="117" s="1" customFormat="1" spans="2:5">
-      <c r="B117" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="E117" s="3"/>
-    </row>
-    <row r="118" s="1" customFormat="1" spans="2:5">
-      <c r="B118" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="3"/>
-    </row>
-    <row r="119" s="1" customFormat="1" spans="2:5">
-      <c r="B119" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="E119" s="3"/>
-    </row>
-    <row r="120" s="1" customFormat="1" spans="2:5">
-      <c r="B120" s="22" t="s">
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" s="1" customFormat="1" spans="2:5">
+      <c r="B123" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" s="1" customFormat="1" spans="2:5">
+      <c r="B124" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" s="1" customFormat="1" spans="2:5">
+      <c r="B125" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" s="1" customFormat="1" spans="2:5">
+      <c r="B126" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" s="1" customFormat="1" spans="2:5">
+      <c r="B127" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" s="1" customFormat="1" spans="2:5">
+      <c r="B128" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="E120" s="3"/>
-    </row>
-    <row r="121" s="1" customFormat="1" spans="2:5">
-      <c r="B121" s="22" t="s">
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" s="1" customFormat="1" spans="2:5">
+      <c r="B129" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="E121" s="3"/>
-    </row>
-    <row r="122" s="1" customFormat="1" spans="2:5">
-      <c r="B122" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="E122" s="3"/>
-    </row>
-    <row r="123" s="1" customFormat="1" spans="2:5">
-      <c r="B123" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="E123" s="3"/>
-    </row>
-    <row r="124" s="1" customFormat="1" spans="2:5">
-      <c r="B124" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="3"/>
-    </row>
-    <row r="125" s="1" customFormat="1" spans="2:5">
-      <c r="B125" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E125" s="3"/>
-    </row>
-    <row r="126" s="1" customFormat="1" spans="2:5">
-      <c r="B126" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="E126" s="3"/>
-    </row>
-    <row r="127" s="1" customFormat="1" spans="2:5">
-      <c r="B127" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="E127" s="3"/>
-    </row>
-    <row r="128" s="1" customFormat="1" spans="2:5">
-      <c r="B128" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="3"/>
-    </row>
-    <row r="129" s="1" customFormat="1" spans="2:5">
-      <c r="B129" s="22" t="s">
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" s="1" customFormat="1" spans="2:5">
+      <c r="B130" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" s="1" customFormat="1" spans="2:5">
+      <c r="B131" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" s="1" customFormat="1" spans="2:5">
+      <c r="B132" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" s="1" customFormat="1" spans="2:5">
+      <c r="B133" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="3"/>
+      <c r="E133" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="A6:A20"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A10:A24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.117/api/product_edit/v1/off" tooltip="http://192.168.1.117/api/product_edit/v1/off"/>
@@ -10585,7 +11385,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -10596,7 +11396,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -10640,7 +11440,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -10659,7 +11459,7 @@
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A9" s="14"/>
       <c r="B9" s="16" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -10667,648 +11467,616 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="14"/>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="21"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="14"/>
-      <c r="B11" s="22" t="s">
-        <v>75</v>
+      <c r="B11" s="20" t="s">
+        <v>85</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" s="21"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
       <c r="A12" s="14"/>
-      <c r="B12" s="22" t="s">
-        <v>77</v>
+      <c r="B12" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="E12" s="19"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
       <c r="A13" s="14"/>
       <c r="B13" s="20" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
       <c r="A14" s="14"/>
-      <c r="B14" s="22" t="s">
-        <v>167</v>
+      <c r="B14" s="20" t="s">
+        <v>176</v>
       </c>
       <c r="E14" s="19"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
       <c r="A15" s="14"/>
-      <c r="B15" s="22" t="s">
-        <v>168</v>
+      <c r="B15" s="20" t="s">
+        <v>177</v>
       </c>
       <c r="E15" s="19"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
       <c r="A16" s="14"/>
-      <c r="B16" s="22" t="s">
-        <v>169</v>
+      <c r="B16" s="20" t="s">
+        <v>178</v>
       </c>
       <c r="E16" s="19"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
       <c r="A17" s="14"/>
-      <c r="B17" s="22" t="s">
-        <v>170</v>
+      <c r="B17" s="20" t="s">
+        <v>179</v>
       </c>
       <c r="E17" s="19"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
       <c r="A18" s="14"/>
-      <c r="B18" s="22" t="s">
-        <v>171</v>
+      <c r="B18" s="20" t="s">
+        <v>180</v>
       </c>
       <c r="E18" s="19"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:5">
       <c r="A19" s="14"/>
-      <c r="B19" s="22" t="s">
-        <v>172</v>
+      <c r="B19" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="23"/>
-      <c r="B20" s="22" t="s">
-        <v>173</v>
+      <c r="A20" s="22"/>
+      <c r="B20" s="20" t="s">
+        <v>182</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="2:5">
-      <c r="B21" s="22" t="s">
-        <v>174</v>
+      <c r="B21" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="E21" s="19"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:5">
-      <c r="B22" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="E22" s="24"/>
+      <c r="B22" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B23" s="22" t="s">
-        <v>176</v>
+      <c r="B23" s="20" t="s">
+        <v>185</v>
       </c>
       <c r="E23" s="19"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="2:5">
-      <c r="B24" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="E24" s="24"/>
+      <c r="B24" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="23"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
-      <c r="B25" s="22" t="s">
-        <v>178</v>
+      <c r="B25" s="20" t="s">
+        <v>187</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
-      <c r="B26" s="22" t="s">
-        <v>80</v>
+      <c r="B26" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="2:5">
-      <c r="B27" s="22" t="s">
-        <v>179</v>
+      <c r="B27" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:5">
-      <c r="B28" s="22" t="s">
-        <v>180</v>
+      <c r="B28" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="E28" s="3"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="2:5">
-      <c r="B29" s="22" t="s">
-        <v>181</v>
+      <c r="B29" s="20" t="s">
+        <v>190</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="2:5">
-      <c r="B30" s="22" t="s">
-        <v>182</v>
+      <c r="B30" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="E30" s="3"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="2:5">
-      <c r="B31" s="22" t="s">
-        <v>183</v>
+      <c r="B31" s="20" t="s">
+        <v>192</v>
       </c>
       <c r="E31" s="3"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="2:5">
-      <c r="B32" s="22" t="s">
-        <v>184</v>
+      <c r="B32" s="20" t="s">
+        <v>193</v>
       </c>
       <c r="E32" s="3"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="2:5">
-      <c r="B33" s="22" t="s">
-        <v>114</v>
+      <c r="B33" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="E33" s="3"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="2:5">
-      <c r="B34" s="22" t="s">
-        <v>80</v>
+      <c r="B34" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="E34" s="3"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:5">
-      <c r="B35" s="22" t="s">
-        <v>185</v>
+      <c r="B35" s="20" t="s">
+        <v>194</v>
       </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="2:5">
-      <c r="B36" s="22" t="s">
-        <v>186</v>
+      <c r="B36" s="20" t="s">
+        <v>195</v>
       </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="2:5">
-      <c r="B37" s="22" t="s">
-        <v>181</v>
+      <c r="B37" s="20" t="s">
+        <v>190</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="2:5">
-      <c r="B38" s="22" t="s">
-        <v>187</v>
+      <c r="B38" s="20" t="s">
+        <v>196</v>
       </c>
       <c r="E38" s="3"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="2:5">
-      <c r="B39" s="22" t="s">
-        <v>188</v>
+      <c r="B39" s="20" t="s">
+        <v>197</v>
       </c>
       <c r="E39" s="3"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="2:5">
-      <c r="B40" s="22" t="s">
-        <v>189</v>
+      <c r="B40" s="20" t="s">
+        <v>198</v>
       </c>
       <c r="E40" s="3"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:5">
-      <c r="B41" s="22" t="s">
-        <v>114</v>
+      <c r="B41" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="E41" s="3"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:5">
-      <c r="B42" s="22" t="s">
-        <v>80</v>
+      <c r="B42" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="E42" s="3"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="2:5">
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="2:5">
+      <c r="B44" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="2:5">
+      <c r="B45" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="2:5">
-      <c r="B44" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="2:5">
-      <c r="B45" s="22" t="s">
-        <v>181</v>
-      </c>
       <c r="E45" s="3"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="2:5">
-      <c r="B46" s="22" t="s">
-        <v>192</v>
+      <c r="B46" s="20" t="s">
+        <v>201</v>
       </c>
       <c r="E46" s="3"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="2:5">
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="2:5">
+      <c r="B48" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="2:5">
+      <c r="B49" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="2:5">
+      <c r="B50" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:5">
+      <c r="B51" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="2:5">
+      <c r="B52" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="2:5">
+      <c r="B53" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:5">
+      <c r="B54" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="2:5">
+      <c r="B55" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="2:5">
+      <c r="B56" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="2:5">
+      <c r="B57" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="2:5">
+      <c r="B58" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="2:5">
+      <c r="B59" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="2:5">
+      <c r="B60" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="2:5">
+      <c r="B61" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="2:5">
+      <c r="B62" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="2:5">
+      <c r="B63" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="2:5">
+      <c r="B64" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="2:5">
-      <c r="B48" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="2:5">
-      <c r="B49" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="2:5">
-      <c r="B50" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="2:5">
-      <c r="B51" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="2:5">
-      <c r="B52" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="2:5">
-      <c r="B53" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="2:5">
-      <c r="B54" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="2:5">
-      <c r="B55" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="2:5">
-      <c r="B56" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="2:5">
-      <c r="B57" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="2:5">
-      <c r="B58" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="2:5">
-      <c r="B59" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="2:5">
-      <c r="B60" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="2:5">
-      <c r="B61" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" s="1" customFormat="1" spans="2:5">
-      <c r="B62" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" s="1" customFormat="1" spans="2:5">
-      <c r="B63" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" s="1" customFormat="1" spans="2:5">
-      <c r="B64" s="22" t="s">
-        <v>184</v>
-      </c>
       <c r="E64" s="3"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:5">
-      <c r="B65" s="22" t="s">
-        <v>146</v>
+      <c r="B65" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="E65" s="3"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="2:5">
-      <c r="B66" s="22" t="s">
-        <v>147</v>
+      <c r="B66" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="E66" s="3"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="2:5">
-      <c r="B67" s="22" t="s">
-        <v>202</v>
+      <c r="B67" s="20" t="s">
+        <v>211</v>
       </c>
       <c r="E67" s="3"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="2:5">
-      <c r="B68" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="B68" s="20" t="s">
+        <v>170</v>
+      </c>
       <c r="E68" s="3"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="2:5">
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="20" t="s">
         <v>69</v>
       </c>
       <c r="E69" s="3"/>
     </row>
     <row r="70" s="1" customFormat="1" spans="2:5">
-      <c r="B70" s="22"/>
+      <c r="B70" s="20"/>
       <c r="E70" s="3"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="2:5">
-      <c r="B71" s="22"/>
+      <c r="B71" s="20"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="2:5">
-      <c r="B72" s="22"/>
+      <c r="B72" s="20"/>
       <c r="E72" s="3"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="2:5">
-      <c r="B73" s="22"/>
+      <c r="B73" s="20"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="2:5">
-      <c r="B74" s="22"/>
+      <c r="B74" s="20"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="2:5">
-      <c r="B75" s="22"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="B75" s="20"/>
       <c r="E75" s="3"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="2:5">
-      <c r="B76" s="22"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="B76" s="20"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="2:5">
-      <c r="B77" s="22"/>
+      <c r="B77" s="20"/>
       <c r="E77" s="3"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="2:5">
-      <c r="B78" s="22"/>
+      <c r="B78" s="20"/>
       <c r="E78" s="3"/>
     </row>
     <row r="79" s="1" customFormat="1" spans="2:5">
-      <c r="B79" s="22"/>
+      <c r="B79" s="20"/>
       <c r="E79" s="3"/>
     </row>
     <row r="80" s="1" customFormat="1" spans="2:5">
-      <c r="B80" s="22"/>
+      <c r="B80" s="20"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" s="1" customFormat="1" spans="2:5">
-      <c r="B81" s="22"/>
+      <c r="B81" s="20"/>
       <c r="E81" s="3"/>
     </row>
     <row r="82" s="1" customFormat="1" spans="2:5">
-      <c r="B82" s="22"/>
+      <c r="B82" s="20"/>
       <c r="E82" s="3"/>
     </row>
     <row r="83" s="1" customFormat="1" spans="2:5">
-      <c r="B83" s="22"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="B83" s="20"/>
       <c r="E83" s="3"/>
     </row>
     <row r="84" s="1" customFormat="1" spans="2:5">
-      <c r="B84" s="22"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="B84" s="20"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" s="1" customFormat="1" spans="2:5">
-      <c r="B85" s="22"/>
+      <c r="B85" s="20"/>
       <c r="E85" s="3"/>
     </row>
     <row r="86" s="1" customFormat="1" spans="2:5">
-      <c r="B86" s="22"/>
+      <c r="B86" s="20"/>
       <c r="E86" s="3"/>
     </row>
     <row r="87" s="1" customFormat="1" spans="2:5">
-      <c r="B87" s="22"/>
+      <c r="B87" s="20"/>
       <c r="E87" s="3"/>
     </row>
     <row r="88" s="1" customFormat="1" spans="2:5">
-      <c r="B88" s="22"/>
+      <c r="B88" s="20"/>
       <c r="E88" s="3"/>
     </row>
     <row r="89" s="1" customFormat="1" spans="2:5">
-      <c r="B89" s="22"/>
+      <c r="B89" s="20"/>
       <c r="E89" s="3"/>
     </row>
     <row r="90" s="1" customFormat="1" spans="2:5">
-      <c r="B90" s="22"/>
+      <c r="B90" s="20"/>
       <c r="E90" s="3"/>
     </row>
     <row r="91" s="1" customFormat="1" spans="2:5">
-      <c r="B91" s="22"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="B91" s="20"/>
       <c r="E91" s="3"/>
     </row>
     <row r="92" s="1" customFormat="1" spans="2:5">
-      <c r="B92" s="22"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="B92" s="20"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93" s="1" customFormat="1" spans="2:5">
-      <c r="B93" s="22"/>
+      <c r="B93" s="20"/>
       <c r="E93" s="3"/>
     </row>
     <row r="94" s="1" customFormat="1" spans="2:5">
-      <c r="B94" s="22"/>
+      <c r="B94" s="20"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95" s="1" customFormat="1" spans="2:5">
-      <c r="B95" s="22"/>
+      <c r="B95" s="20"/>
       <c r="E95" s="3"/>
     </row>
     <row r="96" s="1" customFormat="1" spans="2:5">
-      <c r="B96" s="22"/>
+      <c r="B96" s="20"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97" s="1" customFormat="1" spans="2:5">
-      <c r="B97" s="22"/>
+      <c r="B97" s="20"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" s="1" customFormat="1" spans="2:5">
-      <c r="B98" s="22"/>
+      <c r="B98" s="20"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" s="1" customFormat="1" spans="2:5">
-      <c r="B99" s="22"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
+      <c r="B99" s="20"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" s="1" customFormat="1" spans="2:5">
-      <c r="B100" s="22"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+      <c r="B100" s="20"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" s="1" customFormat="1" spans="2:5">
-      <c r="B101" s="22"/>
+      <c r="B101" s="20"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" s="1" customFormat="1" spans="2:5">
-      <c r="B102" s="22"/>
+      <c r="B102" s="20"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" s="1" customFormat="1" spans="2:5">
-      <c r="B103" s="22"/>
+      <c r="B103" s="20"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" s="1" customFormat="1" spans="2:5">
-      <c r="B104" s="22"/>
+      <c r="B104" s="20"/>
       <c r="E104" s="3"/>
     </row>
     <row r="105" s="1" customFormat="1" spans="2:5">
-      <c r="B105" s="22"/>
+      <c r="B105" s="20"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" s="1" customFormat="1" spans="2:5">
-      <c r="B106" s="22"/>
+      <c r="B106" s="20"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" s="1" customFormat="1" spans="2:5">
-      <c r="B107" s="22"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
+      <c r="B107" s="20"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" s="1" customFormat="1" spans="2:5">
-      <c r="B108" s="22"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
+      <c r="B108" s="20"/>
       <c r="E108" s="3"/>
     </row>
     <row r="109" s="1" customFormat="1" spans="2:5">
-      <c r="B109" s="22"/>
+      <c r="B109" s="20"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" s="1" customFormat="1" spans="2:5">
-      <c r="B110" s="22"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
+      <c r="B110" s="20"/>
       <c r="E110" s="3"/>
     </row>
     <row r="111" s="1" customFormat="1" spans="2:5">
-      <c r="B111" s="22"/>
+      <c r="B111" s="20"/>
       <c r="E111" s="3"/>
     </row>
     <row r="112" s="1" customFormat="1" spans="2:5">
-      <c r="B112" s="22"/>
+      <c r="B112" s="20"/>
       <c r="E112" s="3"/>
     </row>
     <row r="113" s="1" customFormat="1" spans="2:5">
-      <c r="B113" s="22"/>
+      <c r="B113" s="20"/>
       <c r="E113" s="3"/>
     </row>
     <row r="114" s="1" customFormat="1" spans="2:5">
-      <c r="B114" s="22"/>
+      <c r="B114" s="20"/>
       <c r="E114" s="3"/>
     </row>
     <row r="115" s="1" customFormat="1" spans="2:5">
-      <c r="B115" s="22"/>
+      <c r="B115" s="20"/>
       <c r="E115" s="3"/>
     </row>
     <row r="116" s="1" customFormat="1" spans="2:5">
-      <c r="B116" s="22"/>
+      <c r="B116" s="20"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" s="1" customFormat="1" spans="2:5">
-      <c r="B117" s="22"/>
+      <c r="B117" s="20"/>
       <c r="E117" s="3"/>
     </row>
     <row r="118" s="1" customFormat="1" spans="2:5">
-      <c r="B118" s="22"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
+      <c r="B118" s="20"/>
       <c r="E118" s="3"/>
     </row>
     <row r="119" s="1" customFormat="1" spans="2:5">
-      <c r="B119" s="22"/>
+      <c r="B119" s="20"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120" s="1" customFormat="1" spans="2:5">
-      <c r="B120" s="22"/>
+      <c r="B120" s="20"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" s="1" customFormat="1" spans="2:5">
-      <c r="B121" s="22"/>
+      <c r="B121" s="20"/>
       <c r="E121" s="3"/>
     </row>
     <row r="122" s="1" customFormat="1" spans="2:5">
-      <c r="B122" s="22"/>
+      <c r="B122" s="20"/>
       <c r="E122" s="3"/>
     </row>
     <row r="123" s="1" customFormat="1" spans="2:5">
-      <c r="B123" s="22"/>
+      <c r="B123" s="20"/>
       <c r="E123" s="3"/>
     </row>
     <row r="124" s="1" customFormat="1" spans="2:5">
-      <c r="B124" s="22"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
+      <c r="B124" s="20"/>
       <c r="E124" s="3"/>
     </row>
     <row r="125" s="1" customFormat="1" spans="2:5">
-      <c r="B125" s="22"/>
+      <c r="B125" s="20"/>
       <c r="E125" s="3"/>
     </row>
     <row r="126" s="1" customFormat="1" spans="2:5">
-      <c r="B126" s="22"/>
+      <c r="B126" s="20"/>
       <c r="E126" s="3"/>
     </row>
     <row r="127" s="1" customFormat="1" spans="2:5">
-      <c r="B127" s="22"/>
+      <c r="B127" s="20"/>
       <c r="E127" s="3"/>
     </row>
     <row r="128" s="1" customFormat="1" spans="2:5">
-      <c r="B128" s="22"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
+      <c r="B128" s="20"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" s="1" customFormat="1" spans="2:5">
-      <c r="B129" s="22"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
+      <c r="B129" s="20"/>
       <c r="E129" s="3"/>
     </row>
   </sheetData>
@@ -11352,7 +12120,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -11363,7 +12131,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -11407,7 +12175,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -11426,7 +12194,7 @@
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A9" s="14"/>
       <c r="B9" s="16" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -11434,535 +12202,503 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="14"/>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="21"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="14"/>
-      <c r="B11" s="22" t="s">
-        <v>75</v>
+      <c r="B11" s="20" t="s">
+        <v>85</v>
       </c>
       <c r="E11" s="21"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
       <c r="A12" s="14"/>
-      <c r="B12" s="22" t="s">
-        <v>77</v>
+      <c r="B12" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="E12" s="19"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
       <c r="A13" s="14"/>
-      <c r="B13" s="22" t="s">
-        <v>205</v>
+      <c r="B13" s="20" t="s">
+        <v>214</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
       <c r="A14" s="14"/>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>69</v>
       </c>
       <c r="E14" s="19"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
       <c r="A15" s="14"/>
-      <c r="B15" s="22"/>
+      <c r="B15" s="20"/>
       <c r="E15" s="19"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
       <c r="A16" s="14"/>
-      <c r="B16" s="22"/>
+      <c r="B16" s="20"/>
       <c r="E16" s="19"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
       <c r="A17" s="14"/>
-      <c r="B17" s="22"/>
+      <c r="B17" s="20"/>
       <c r="E17" s="19"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
       <c r="A18" s="14"/>
-      <c r="B18" s="22"/>
+      <c r="B18" s="20"/>
       <c r="E18" s="19"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:5">
       <c r="A19" s="14"/>
-      <c r="B19" s="22"/>
+      <c r="B19" s="20"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="23"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="20"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="2:5">
-      <c r="B21" s="22"/>
+      <c r="B21" s="20"/>
       <c r="E21" s="19"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:5">
-      <c r="B22" s="22"/>
-      <c r="E22" s="24"/>
+      <c r="B22" s="20"/>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B23" s="22"/>
+      <c r="B23" s="20"/>
       <c r="E23" s="19"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="2:5">
-      <c r="B24" s="22"/>
-      <c r="E24" s="24"/>
+      <c r="B24" s="20"/>
+      <c r="E24" s="23"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
-      <c r="B25" s="22"/>
+      <c r="B25" s="20"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
-      <c r="B26" s="22"/>
+      <c r="B26" s="20"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="2:5">
-      <c r="B27" s="22"/>
+      <c r="B27" s="20"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:5">
-      <c r="B28" s="22"/>
+      <c r="B28" s="20"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="2:5">
-      <c r="B29" s="22"/>
+      <c r="B29" s="20"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="2:5">
-      <c r="B30" s="22"/>
+      <c r="B30" s="20"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="2:5">
-      <c r="B31" s="22"/>
+      <c r="B31" s="20"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="2:5">
-      <c r="B32" s="22"/>
+      <c r="B32" s="20"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="2:5">
-      <c r="B33" s="22"/>
+      <c r="B33" s="20"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="2:5">
-      <c r="B34" s="22"/>
+      <c r="B34" s="20"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:5">
-      <c r="B35" s="22"/>
+      <c r="B35" s="20"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="2:5">
-      <c r="B36" s="22"/>
+      <c r="B36" s="20"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="2:5">
-      <c r="B37" s="22"/>
+      <c r="B37" s="20"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="2:5">
-      <c r="B38" s="22"/>
+      <c r="B38" s="20"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="2:5">
-      <c r="B39" s="22"/>
+      <c r="B39" s="20"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="2:5">
-      <c r="B40" s="22"/>
+      <c r="B40" s="20"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:5">
-      <c r="B41" s="22"/>
+      <c r="B41" s="20"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:5">
-      <c r="B42" s="22"/>
+      <c r="B42" s="20"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="2:5">
-      <c r="B43" s="22"/>
+      <c r="B43" s="20"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="2:5">
-      <c r="B44" s="22"/>
+      <c r="B44" s="20"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="2:5">
-      <c r="B45" s="22"/>
+      <c r="B45" s="20"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="2:5">
-      <c r="B46" s="22"/>
+      <c r="B46" s="20"/>
       <c r="E46" s="3"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="2:5">
-      <c r="B47" s="22"/>
+      <c r="B47" s="20"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="2:5">
-      <c r="B48" s="22"/>
+      <c r="B48" s="20"/>
       <c r="E48" s="3"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="2:5">
-      <c r="B49" s="22"/>
+      <c r="B49" s="20"/>
       <c r="E49" s="3"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="2:5">
-      <c r="B50" s="22"/>
+      <c r="B50" s="20"/>
       <c r="E50" s="3"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="2:5">
-      <c r="B51" s="22"/>
+      <c r="B51" s="20"/>
       <c r="E51" s="3"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="2:5">
-      <c r="B52" s="22"/>
+      <c r="B52" s="20"/>
       <c r="E52" s="3"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="2:5">
-      <c r="B53" s="22"/>
+      <c r="B53" s="20"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="2:5">
-      <c r="B54" s="22"/>
+      <c r="B54" s="20"/>
       <c r="E54" s="3"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="2:5">
-      <c r="B55" s="22"/>
+      <c r="B55" s="20"/>
       <c r="E55" s="3"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="2:5">
-      <c r="B56" s="22"/>
+      <c r="B56" s="20"/>
       <c r="E56" s="3"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="2:5">
-      <c r="B57" s="22"/>
+      <c r="B57" s="20"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="2:5">
-      <c r="B58" s="22"/>
+      <c r="B58" s="20"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="2:5">
-      <c r="B59" s="22"/>
+      <c r="B59" s="20"/>
       <c r="E59" s="3"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="2:5">
-      <c r="B60" s="22"/>
+      <c r="B60" s="20"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="2:5">
-      <c r="B61" s="22"/>
+      <c r="B61" s="20"/>
       <c r="E61" s="3"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="2:5">
-      <c r="B62" s="22"/>
+      <c r="B62" s="20"/>
       <c r="E62" s="3"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="2:5">
-      <c r="B63" s="22"/>
+      <c r="B63" s="20"/>
       <c r="E63" s="3"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="2:5">
-      <c r="B64" s="22"/>
+      <c r="B64" s="20"/>
       <c r="E64" s="3"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:5">
-      <c r="B65" s="22"/>
+      <c r="B65" s="20"/>
       <c r="E65" s="3"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="2:5">
-      <c r="B66" s="22"/>
+      <c r="B66" s="20"/>
       <c r="E66" s="3"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="2:5">
-      <c r="B67" s="22"/>
+      <c r="B67" s="20"/>
       <c r="E67" s="3"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="2:5">
-      <c r="B68" s="22"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="B68" s="20"/>
       <c r="E68" s="3"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="2:5">
-      <c r="B69" s="22"/>
+      <c r="B69" s="20"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" s="1" customFormat="1" spans="2:5">
-      <c r="B70" s="22"/>
+      <c r="B70" s="20"/>
       <c r="E70" s="3"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="2:5">
-      <c r="B71" s="22"/>
+      <c r="B71" s="20"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="2:5">
-      <c r="B72" s="22"/>
+      <c r="B72" s="20"/>
       <c r="E72" s="3"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="2:5">
-      <c r="B73" s="22"/>
+      <c r="B73" s="20"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="2:5">
-      <c r="B74" s="22"/>
+      <c r="B74" s="20"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="2:5">
-      <c r="B75" s="22"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="B75" s="20"/>
       <c r="E75" s="3"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="2:5">
-      <c r="B76" s="22"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="B76" s="20"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="2:5">
-      <c r="B77" s="22"/>
+      <c r="B77" s="20"/>
       <c r="E77" s="3"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="2:5">
-      <c r="B78" s="22"/>
+      <c r="B78" s="20"/>
       <c r="E78" s="3"/>
     </row>
     <row r="79" s="1" customFormat="1" spans="2:5">
-      <c r="B79" s="22"/>
+      <c r="B79" s="20"/>
       <c r="E79" s="3"/>
     </row>
     <row r="80" s="1" customFormat="1" spans="2:5">
-      <c r="B80" s="22"/>
+      <c r="B80" s="20"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" s="1" customFormat="1" spans="2:5">
-      <c r="B81" s="22"/>
+      <c r="B81" s="20"/>
       <c r="E81" s="3"/>
     </row>
     <row r="82" s="1" customFormat="1" spans="2:5">
-      <c r="B82" s="22"/>
+      <c r="B82" s="20"/>
       <c r="E82" s="3"/>
     </row>
     <row r="83" s="1" customFormat="1" spans="2:5">
-      <c r="B83" s="22"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="B83" s="20"/>
       <c r="E83" s="3"/>
     </row>
     <row r="84" s="1" customFormat="1" spans="2:5">
-      <c r="B84" s="22"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="B84" s="20"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" s="1" customFormat="1" spans="2:5">
-      <c r="B85" s="22"/>
+      <c r="B85" s="20"/>
       <c r="E85" s="3"/>
     </row>
     <row r="86" s="1" customFormat="1" spans="2:5">
-      <c r="B86" s="22"/>
+      <c r="B86" s="20"/>
       <c r="E86" s="3"/>
     </row>
     <row r="87" s="1" customFormat="1" spans="2:5">
-      <c r="B87" s="22"/>
+      <c r="B87" s="20"/>
       <c r="E87" s="3"/>
     </row>
     <row r="88" s="1" customFormat="1" spans="2:5">
-      <c r="B88" s="22"/>
+      <c r="B88" s="20"/>
       <c r="E88" s="3"/>
     </row>
     <row r="89" s="1" customFormat="1" spans="2:5">
-      <c r="B89" s="22"/>
+      <c r="B89" s="20"/>
       <c r="E89" s="3"/>
     </row>
     <row r="90" s="1" customFormat="1" spans="2:5">
-      <c r="B90" s="22"/>
+      <c r="B90" s="20"/>
       <c r="E90" s="3"/>
     </row>
     <row r="91" s="1" customFormat="1" spans="2:5">
-      <c r="B91" s="22"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="B91" s="20"/>
       <c r="E91" s="3"/>
     </row>
     <row r="92" s="1" customFormat="1" spans="2:5">
-      <c r="B92" s="22"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="B92" s="20"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93" s="1" customFormat="1" spans="2:5">
-      <c r="B93" s="22"/>
+      <c r="B93" s="20"/>
       <c r="E93" s="3"/>
     </row>
     <row r="94" s="1" customFormat="1" spans="2:5">
-      <c r="B94" s="22"/>
+      <c r="B94" s="20"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95" s="1" customFormat="1" spans="2:5">
-      <c r="B95" s="22"/>
+      <c r="B95" s="20"/>
       <c r="E95" s="3"/>
     </row>
     <row r="96" s="1" customFormat="1" spans="2:5">
-      <c r="B96" s="22"/>
+      <c r="B96" s="20"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97" s="1" customFormat="1" spans="2:5">
-      <c r="B97" s="22"/>
+      <c r="B97" s="20"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" s="1" customFormat="1" spans="2:5">
-      <c r="B98" s="22"/>
+      <c r="B98" s="20"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" s="1" customFormat="1" spans="2:5">
-      <c r="B99" s="22"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
+      <c r="B99" s="20"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" s="1" customFormat="1" spans="2:5">
-      <c r="B100" s="22"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+      <c r="B100" s="20"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" s="1" customFormat="1" spans="2:5">
-      <c r="B101" s="22"/>
+      <c r="B101" s="20"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" s="1" customFormat="1" spans="2:5">
-      <c r="B102" s="22"/>
+      <c r="B102" s="20"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" s="1" customFormat="1" spans="2:5">
-      <c r="B103" s="22"/>
+      <c r="B103" s="20"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" s="1" customFormat="1" spans="2:5">
-      <c r="B104" s="22"/>
+      <c r="B104" s="20"/>
       <c r="E104" s="3"/>
     </row>
     <row r="105" s="1" customFormat="1" spans="2:5">
-      <c r="B105" s="22"/>
+      <c r="B105" s="20"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" s="1" customFormat="1" spans="2:5">
-      <c r="B106" s="22"/>
+      <c r="B106" s="20"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" s="1" customFormat="1" spans="2:5">
-      <c r="B107" s="22"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
+      <c r="B107" s="20"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" s="1" customFormat="1" spans="2:5">
-      <c r="B108" s="22"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
+      <c r="B108" s="20"/>
       <c r="E108" s="3"/>
     </row>
     <row r="109" s="1" customFormat="1" spans="2:5">
-      <c r="B109" s="22"/>
+      <c r="B109" s="20"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" s="1" customFormat="1" spans="2:5">
-      <c r="B110" s="22"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
+      <c r="B110" s="20"/>
       <c r="E110" s="3"/>
     </row>
     <row r="111" s="1" customFormat="1" spans="2:5">
-      <c r="B111" s="22"/>
+      <c r="B111" s="20"/>
       <c r="E111" s="3"/>
     </row>
     <row r="112" s="1" customFormat="1" spans="2:5">
-      <c r="B112" s="22"/>
+      <c r="B112" s="20"/>
       <c r="E112" s="3"/>
     </row>
     <row r="113" s="1" customFormat="1" spans="2:5">
-      <c r="B113" s="22"/>
+      <c r="B113" s="20"/>
       <c r="E113" s="3"/>
     </row>
     <row r="114" s="1" customFormat="1" spans="2:5">
-      <c r="B114" s="22"/>
+      <c r="B114" s="20"/>
       <c r="E114" s="3"/>
     </row>
     <row r="115" s="1" customFormat="1" spans="2:5">
-      <c r="B115" s="22"/>
+      <c r="B115" s="20"/>
       <c r="E115" s="3"/>
     </row>
     <row r="116" s="1" customFormat="1" spans="2:5">
-      <c r="B116" s="22"/>
+      <c r="B116" s="20"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" s="1" customFormat="1" spans="2:5">
-      <c r="B117" s="22"/>
+      <c r="B117" s="20"/>
       <c r="E117" s="3"/>
     </row>
     <row r="118" s="1" customFormat="1" spans="2:5">
-      <c r="B118" s="22"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
+      <c r="B118" s="20"/>
       <c r="E118" s="3"/>
     </row>
     <row r="119" s="1" customFormat="1" spans="2:5">
-      <c r="B119" s="22"/>
+      <c r="B119" s="20"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120" s="1" customFormat="1" spans="2:5">
-      <c r="B120" s="22"/>
+      <c r="B120" s="20"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" s="1" customFormat="1" spans="2:5">
-      <c r="B121" s="22"/>
+      <c r="B121" s="20"/>
       <c r="E121" s="3"/>
     </row>
     <row r="122" s="1" customFormat="1" spans="2:5">
-      <c r="B122" s="22"/>
+      <c r="B122" s="20"/>
       <c r="E122" s="3"/>
     </row>
     <row r="123" s="1" customFormat="1" spans="2:5">
-      <c r="B123" s="22"/>
+      <c r="B123" s="20"/>
       <c r="E123" s="3"/>
     </row>
     <row r="124" s="1" customFormat="1" spans="2:5">
-      <c r="B124" s="22"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
+      <c r="B124" s="20"/>
       <c r="E124" s="3"/>
     </row>
     <row r="125" s="1" customFormat="1" spans="2:5">
-      <c r="B125" s="22"/>
+      <c r="B125" s="20"/>
       <c r="E125" s="3"/>
     </row>
     <row r="126" s="1" customFormat="1" spans="2:5">
-      <c r="B126" s="22"/>
+      <c r="B126" s="20"/>
       <c r="E126" s="3"/>
     </row>
     <row r="127" s="1" customFormat="1" spans="2:5">
-      <c r="B127" s="22"/>
+      <c r="B127" s="20"/>
       <c r="E127" s="3"/>
     </row>
     <row r="128" s="1" customFormat="1" spans="2:5">
-      <c r="B128" s="22"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
+      <c r="B128" s="20"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" s="1" customFormat="1" spans="2:5">
-      <c r="B129" s="22"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
+      <c r="B129" s="20"/>
       <c r="E129" s="3"/>
     </row>
   </sheetData>
@@ -12006,7 +12742,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -12017,7 +12753,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -12061,7 +12797,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -12080,7 +12816,7 @@
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A9" s="14"/>
       <c r="B9" s="16" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -12089,526 +12825,494 @@
     <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="14"/>
       <c r="B10" s="20" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="E10" s="21"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="14"/>
-      <c r="B11" s="22"/>
+      <c r="B11" s="20"/>
       <c r="E11" s="21"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
       <c r="A12" s="14"/>
-      <c r="B12" s="22"/>
+      <c r="B12" s="20"/>
       <c r="E12" s="19"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
       <c r="A13" s="14"/>
-      <c r="B13" s="22"/>
+      <c r="B13" s="20"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
       <c r="A14" s="14"/>
-      <c r="B14" s="22"/>
+      <c r="B14" s="20"/>
       <c r="E14" s="19"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
       <c r="A15" s="14"/>
-      <c r="B15" s="22"/>
+      <c r="B15" s="20"/>
       <c r="E15" s="19"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
       <c r="A16" s="14"/>
-      <c r="B16" s="22"/>
+      <c r="B16" s="20"/>
       <c r="E16" s="19"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
       <c r="A17" s="14"/>
-      <c r="B17" s="22"/>
+      <c r="B17" s="20"/>
       <c r="E17" s="19"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
       <c r="A18" s="14"/>
-      <c r="B18" s="22"/>
+      <c r="B18" s="20"/>
       <c r="E18" s="19"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:5">
       <c r="A19" s="14"/>
-      <c r="B19" s="22"/>
+      <c r="B19" s="20"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="23"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="20"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="2:5">
-      <c r="B21" s="22"/>
+      <c r="B21" s="20"/>
       <c r="E21" s="19"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:5">
-      <c r="B22" s="22"/>
-      <c r="E22" s="24"/>
+      <c r="B22" s="20"/>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B23" s="22"/>
+      <c r="B23" s="20"/>
       <c r="E23" s="19"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="2:5">
-      <c r="B24" s="22"/>
-      <c r="E24" s="24"/>
+      <c r="B24" s="20"/>
+      <c r="E24" s="23"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
-      <c r="B25" s="22"/>
+      <c r="B25" s="20"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
-      <c r="B26" s="22"/>
+      <c r="B26" s="20"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="2:5">
-      <c r="B27" s="22"/>
+      <c r="B27" s="20"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:5">
-      <c r="B28" s="22"/>
+      <c r="B28" s="20"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="2:5">
-      <c r="B29" s="22"/>
+      <c r="B29" s="20"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="2:5">
-      <c r="B30" s="22"/>
+      <c r="B30" s="20"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="2:5">
-      <c r="B31" s="22"/>
+      <c r="B31" s="20"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="2:5">
-      <c r="B32" s="22"/>
+      <c r="B32" s="20"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="2:5">
-      <c r="B33" s="22"/>
+      <c r="B33" s="20"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="2:5">
-      <c r="B34" s="22"/>
+      <c r="B34" s="20"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:5">
-      <c r="B35" s="22"/>
+      <c r="B35" s="20"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="2:5">
-      <c r="B36" s="22"/>
+      <c r="B36" s="20"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="2:5">
-      <c r="B37" s="22"/>
+      <c r="B37" s="20"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="2:5">
-      <c r="B38" s="22"/>
+      <c r="B38" s="20"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="2:5">
-      <c r="B39" s="22"/>
+      <c r="B39" s="20"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="2:5">
-      <c r="B40" s="22"/>
+      <c r="B40" s="20"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:5">
-      <c r="B41" s="22"/>
+      <c r="B41" s="20"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:5">
-      <c r="B42" s="22"/>
+      <c r="B42" s="20"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="2:5">
-      <c r="B43" s="22"/>
+      <c r="B43" s="20"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="2:5">
-      <c r="B44" s="22"/>
+      <c r="B44" s="20"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="2:5">
-      <c r="B45" s="22"/>
+      <c r="B45" s="20"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="2:5">
-      <c r="B46" s="22"/>
+      <c r="B46" s="20"/>
       <c r="E46" s="3"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="2:5">
-      <c r="B47" s="22"/>
+      <c r="B47" s="20"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="2:5">
-      <c r="B48" s="22"/>
+      <c r="B48" s="20"/>
       <c r="E48" s="3"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="2:5">
-      <c r="B49" s="22"/>
+      <c r="B49" s="20"/>
       <c r="E49" s="3"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="2:5">
-      <c r="B50" s="22"/>
+      <c r="B50" s="20"/>
       <c r="E50" s="3"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="2:5">
-      <c r="B51" s="22"/>
+      <c r="B51" s="20"/>
       <c r="E51" s="3"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="2:5">
-      <c r="B52" s="22"/>
+      <c r="B52" s="20"/>
       <c r="E52" s="3"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="2:5">
-      <c r="B53" s="22"/>
+      <c r="B53" s="20"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="2:5">
-      <c r="B54" s="22"/>
+      <c r="B54" s="20"/>
       <c r="E54" s="3"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="2:5">
-      <c r="B55" s="22"/>
+      <c r="B55" s="20"/>
       <c r="E55" s="3"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="2:5">
-      <c r="B56" s="22"/>
+      <c r="B56" s="20"/>
       <c r="E56" s="3"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="2:5">
-      <c r="B57" s="22"/>
+      <c r="B57" s="20"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="2:5">
-      <c r="B58" s="22"/>
+      <c r="B58" s="20"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="2:5">
-      <c r="B59" s="22"/>
+      <c r="B59" s="20"/>
       <c r="E59" s="3"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="2:5">
-      <c r="B60" s="22"/>
+      <c r="B60" s="20"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="2:5">
-      <c r="B61" s="22"/>
+      <c r="B61" s="20"/>
       <c r="E61" s="3"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="2:5">
-      <c r="B62" s="22"/>
+      <c r="B62" s="20"/>
       <c r="E62" s="3"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="2:5">
-      <c r="B63" s="22"/>
+      <c r="B63" s="20"/>
       <c r="E63" s="3"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="2:5">
-      <c r="B64" s="22"/>
+      <c r="B64" s="20"/>
       <c r="E64" s="3"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:5">
-      <c r="B65" s="22"/>
+      <c r="B65" s="20"/>
       <c r="E65" s="3"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="2:5">
-      <c r="B66" s="22"/>
+      <c r="B66" s="20"/>
       <c r="E66" s="3"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="2:5">
-      <c r="B67" s="22"/>
+      <c r="B67" s="20"/>
       <c r="E67" s="3"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="2:5">
-      <c r="B68" s="22"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="B68" s="20"/>
       <c r="E68" s="3"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="2:5">
-      <c r="B69" s="22"/>
+      <c r="B69" s="20"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" s="1" customFormat="1" spans="2:5">
-      <c r="B70" s="22"/>
+      <c r="B70" s="20"/>
       <c r="E70" s="3"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="2:5">
-      <c r="B71" s="22"/>
+      <c r="B71" s="20"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="2:5">
-      <c r="B72" s="22"/>
+      <c r="B72" s="20"/>
       <c r="E72" s="3"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="2:5">
-      <c r="B73" s="22"/>
+      <c r="B73" s="20"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="2:5">
-      <c r="B74" s="22"/>
+      <c r="B74" s="20"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="2:5">
-      <c r="B75" s="22"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="B75" s="20"/>
       <c r="E75" s="3"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="2:5">
-      <c r="B76" s="22"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="B76" s="20"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="2:5">
-      <c r="B77" s="22"/>
+      <c r="B77" s="20"/>
       <c r="E77" s="3"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="2:5">
-      <c r="B78" s="22"/>
+      <c r="B78" s="20"/>
       <c r="E78" s="3"/>
     </row>
     <row r="79" s="1" customFormat="1" spans="2:5">
-      <c r="B79" s="22"/>
+      <c r="B79" s="20"/>
       <c r="E79" s="3"/>
     </row>
     <row r="80" s="1" customFormat="1" spans="2:5">
-      <c r="B80" s="22"/>
+      <c r="B80" s="20"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" s="1" customFormat="1" spans="2:5">
-      <c r="B81" s="22"/>
+      <c r="B81" s="20"/>
       <c r="E81" s="3"/>
     </row>
     <row r="82" s="1" customFormat="1" spans="2:5">
-      <c r="B82" s="22"/>
+      <c r="B82" s="20"/>
       <c r="E82" s="3"/>
     </row>
     <row r="83" s="1" customFormat="1" spans="2:5">
-      <c r="B83" s="22"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="B83" s="20"/>
       <c r="E83" s="3"/>
     </row>
     <row r="84" s="1" customFormat="1" spans="2:5">
-      <c r="B84" s="22"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="B84" s="20"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" s="1" customFormat="1" spans="2:5">
-      <c r="B85" s="22"/>
+      <c r="B85" s="20"/>
       <c r="E85" s="3"/>
     </row>
     <row r="86" s="1" customFormat="1" spans="2:5">
-      <c r="B86" s="22"/>
+      <c r="B86" s="20"/>
       <c r="E86" s="3"/>
     </row>
     <row r="87" s="1" customFormat="1" spans="2:5">
-      <c r="B87" s="22"/>
+      <c r="B87" s="20"/>
       <c r="E87" s="3"/>
     </row>
     <row r="88" s="1" customFormat="1" spans="2:5">
-      <c r="B88" s="22"/>
+      <c r="B88" s="20"/>
       <c r="E88" s="3"/>
     </row>
     <row r="89" s="1" customFormat="1" spans="2:5">
-      <c r="B89" s="22"/>
+      <c r="B89" s="20"/>
       <c r="E89" s="3"/>
     </row>
     <row r="90" s="1" customFormat="1" spans="2:5">
-      <c r="B90" s="22"/>
+      <c r="B90" s="20"/>
       <c r="E90" s="3"/>
     </row>
     <row r="91" s="1" customFormat="1" spans="2:5">
-      <c r="B91" s="22"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="B91" s="20"/>
       <c r="E91" s="3"/>
     </row>
     <row r="92" s="1" customFormat="1" spans="2:5">
-      <c r="B92" s="22"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="B92" s="20"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93" s="1" customFormat="1" spans="2:5">
-      <c r="B93" s="22"/>
+      <c r="B93" s="20"/>
       <c r="E93" s="3"/>
     </row>
     <row r="94" s="1" customFormat="1" spans="2:5">
-      <c r="B94" s="22"/>
+      <c r="B94" s="20"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95" s="1" customFormat="1" spans="2:5">
-      <c r="B95" s="22"/>
+      <c r="B95" s="20"/>
       <c r="E95" s="3"/>
     </row>
     <row r="96" s="1" customFormat="1" spans="2:5">
-      <c r="B96" s="22"/>
+      <c r="B96" s="20"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97" s="1" customFormat="1" spans="2:5">
-      <c r="B97" s="22"/>
+      <c r="B97" s="20"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" s="1" customFormat="1" spans="2:5">
-      <c r="B98" s="22"/>
+      <c r="B98" s="20"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" s="1" customFormat="1" spans="2:5">
-      <c r="B99" s="22"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
+      <c r="B99" s="20"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" s="1" customFormat="1" spans="2:5">
-      <c r="B100" s="22"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+      <c r="B100" s="20"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" s="1" customFormat="1" spans="2:5">
-      <c r="B101" s="22"/>
+      <c r="B101" s="20"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" s="1" customFormat="1" spans="2:5">
-      <c r="B102" s="22"/>
+      <c r="B102" s="20"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" s="1" customFormat="1" spans="2:5">
-      <c r="B103" s="22"/>
+      <c r="B103" s="20"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" s="1" customFormat="1" spans="2:5">
-      <c r="B104" s="22"/>
+      <c r="B104" s="20"/>
       <c r="E104" s="3"/>
     </row>
     <row r="105" s="1" customFormat="1" spans="2:5">
-      <c r="B105" s="22"/>
+      <c r="B105" s="20"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" s="1" customFormat="1" spans="2:5">
-      <c r="B106" s="22"/>
+      <c r="B106" s="20"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" s="1" customFormat="1" spans="2:5">
-      <c r="B107" s="22"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
+      <c r="B107" s="20"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" s="1" customFormat="1" spans="2:5">
-      <c r="B108" s="22"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
+      <c r="B108" s="20"/>
       <c r="E108" s="3"/>
     </row>
     <row r="109" s="1" customFormat="1" spans="2:5">
-      <c r="B109" s="22"/>
+      <c r="B109" s="20"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" s="1" customFormat="1" spans="2:5">
-      <c r="B110" s="22"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
+      <c r="B110" s="20"/>
       <c r="E110" s="3"/>
     </row>
     <row r="111" s="1" customFormat="1" spans="2:5">
-      <c r="B111" s="22"/>
+      <c r="B111" s="20"/>
       <c r="E111" s="3"/>
     </row>
     <row r="112" s="1" customFormat="1" spans="2:5">
-      <c r="B112" s="22"/>
+      <c r="B112" s="20"/>
       <c r="E112" s="3"/>
     </row>
     <row r="113" s="1" customFormat="1" spans="2:5">
-      <c r="B113" s="22"/>
+      <c r="B113" s="20"/>
       <c r="E113" s="3"/>
     </row>
     <row r="114" s="1" customFormat="1" spans="2:5">
-      <c r="B114" s="22"/>
+      <c r="B114" s="20"/>
       <c r="E114" s="3"/>
     </row>
     <row r="115" s="1" customFormat="1" spans="2:5">
-      <c r="B115" s="22"/>
+      <c r="B115" s="20"/>
       <c r="E115" s="3"/>
     </row>
     <row r="116" s="1" customFormat="1" spans="2:5">
-      <c r="B116" s="22"/>
+      <c r="B116" s="20"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" s="1" customFormat="1" spans="2:5">
-      <c r="B117" s="22"/>
+      <c r="B117" s="20"/>
       <c r="E117" s="3"/>
     </row>
     <row r="118" s="1" customFormat="1" spans="2:5">
-      <c r="B118" s="22"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
+      <c r="B118" s="20"/>
       <c r="E118" s="3"/>
     </row>
     <row r="119" s="1" customFormat="1" spans="2:5">
-      <c r="B119" s="22"/>
+      <c r="B119" s="20"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120" s="1" customFormat="1" spans="2:5">
-      <c r="B120" s="22"/>
+      <c r="B120" s="20"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" s="1" customFormat="1" spans="2:5">
-      <c r="B121" s="22"/>
+      <c r="B121" s="20"/>
       <c r="E121" s="3"/>
     </row>
     <row r="122" s="1" customFormat="1" spans="2:5">
-      <c r="B122" s="22"/>
+      <c r="B122" s="20"/>
       <c r="E122" s="3"/>
     </row>
     <row r="123" s="1" customFormat="1" spans="2:5">
-      <c r="B123" s="22"/>
+      <c r="B123" s="20"/>
       <c r="E123" s="3"/>
     </row>
     <row r="124" s="1" customFormat="1" spans="2:5">
-      <c r="B124" s="22"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
+      <c r="B124" s="20"/>
       <c r="E124" s="3"/>
     </row>
     <row r="125" s="1" customFormat="1" spans="2:5">
-      <c r="B125" s="22"/>
+      <c r="B125" s="20"/>
       <c r="E125" s="3"/>
     </row>
     <row r="126" s="1" customFormat="1" spans="2:5">
-      <c r="B126" s="22"/>
+      <c r="B126" s="20"/>
       <c r="E126" s="3"/>
     </row>
     <row r="127" s="1" customFormat="1" spans="2:5">
-      <c r="B127" s="22"/>
+      <c r="B127" s="20"/>
       <c r="E127" s="3"/>
     </row>
     <row r="128" s="1" customFormat="1" spans="2:5">
-      <c r="B128" s="22"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
+      <c r="B128" s="20"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" s="1" customFormat="1" spans="2:5">
-      <c r="B129" s="22"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
+      <c r="B129" s="20"/>
       <c r="E129" s="3"/>
     </row>
   </sheetData>
@@ -12652,7 +13356,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -12663,7 +13367,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -12707,7 +13411,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -12726,7 +13430,7 @@
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A9" s="14"/>
       <c r="B9" s="16" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -12735,526 +13439,494 @@
     <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="14"/>
       <c r="B10" s="20" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="E10" s="21"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="14"/>
-      <c r="B11" s="22"/>
+      <c r="B11" s="20"/>
       <c r="E11" s="21"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
       <c r="A12" s="14"/>
-      <c r="B12" s="22"/>
+      <c r="B12" s="20"/>
       <c r="E12" s="19"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
       <c r="A13" s="14"/>
-      <c r="B13" s="22"/>
+      <c r="B13" s="20"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
       <c r="A14" s="14"/>
-      <c r="B14" s="22"/>
+      <c r="B14" s="20"/>
       <c r="E14" s="19"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
       <c r="A15" s="14"/>
-      <c r="B15" s="22"/>
+      <c r="B15" s="20"/>
       <c r="E15" s="19"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
       <c r="A16" s="14"/>
-      <c r="B16" s="22"/>
+      <c r="B16" s="20"/>
       <c r="E16" s="19"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
       <c r="A17" s="14"/>
-      <c r="B17" s="22"/>
+      <c r="B17" s="20"/>
       <c r="E17" s="19"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
       <c r="A18" s="14"/>
-      <c r="B18" s="22"/>
+      <c r="B18" s="20"/>
       <c r="E18" s="19"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:5">
       <c r="A19" s="14"/>
-      <c r="B19" s="22"/>
+      <c r="B19" s="20"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="23"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="20"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="2:5">
-      <c r="B21" s="22"/>
+      <c r="B21" s="20"/>
       <c r="E21" s="19"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:5">
-      <c r="B22" s="22"/>
-      <c r="E22" s="24"/>
+      <c r="B22" s="20"/>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B23" s="22"/>
+      <c r="B23" s="20"/>
       <c r="E23" s="19"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="2:5">
-      <c r="B24" s="22"/>
-      <c r="E24" s="24"/>
+      <c r="B24" s="20"/>
+      <c r="E24" s="23"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
-      <c r="B25" s="22"/>
+      <c r="B25" s="20"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
-      <c r="B26" s="22"/>
+      <c r="B26" s="20"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="2:5">
-      <c r="B27" s="22"/>
+      <c r="B27" s="20"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:5">
-      <c r="B28" s="22"/>
+      <c r="B28" s="20"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="2:5">
-      <c r="B29" s="22"/>
+      <c r="B29" s="20"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="2:5">
-      <c r="B30" s="22"/>
+      <c r="B30" s="20"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="2:5">
-      <c r="B31" s="22"/>
+      <c r="B31" s="20"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="2:5">
-      <c r="B32" s="22"/>
+      <c r="B32" s="20"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="2:5">
-      <c r="B33" s="22"/>
+      <c r="B33" s="20"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="2:5">
-      <c r="B34" s="22"/>
+      <c r="B34" s="20"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:5">
-      <c r="B35" s="22"/>
+      <c r="B35" s="20"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="2:5">
-      <c r="B36" s="22"/>
+      <c r="B36" s="20"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="2:5">
-      <c r="B37" s="22"/>
+      <c r="B37" s="20"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="2:5">
-      <c r="B38" s="22"/>
+      <c r="B38" s="20"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="2:5">
-      <c r="B39" s="22"/>
+      <c r="B39" s="20"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="2:5">
-      <c r="B40" s="22"/>
+      <c r="B40" s="20"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:5">
-      <c r="B41" s="22"/>
+      <c r="B41" s="20"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:5">
-      <c r="B42" s="22"/>
+      <c r="B42" s="20"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="2:5">
-      <c r="B43" s="22"/>
+      <c r="B43" s="20"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="2:5">
-      <c r="B44" s="22"/>
+      <c r="B44" s="20"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="2:5">
-      <c r="B45" s="22"/>
+      <c r="B45" s="20"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="2:5">
-      <c r="B46" s="22"/>
+      <c r="B46" s="20"/>
       <c r="E46" s="3"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="2:5">
-      <c r="B47" s="22"/>
+      <c r="B47" s="20"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="2:5">
-      <c r="B48" s="22"/>
+      <c r="B48" s="20"/>
       <c r="E48" s="3"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="2:5">
-      <c r="B49" s="22"/>
+      <c r="B49" s="20"/>
       <c r="E49" s="3"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="2:5">
-      <c r="B50" s="22"/>
+      <c r="B50" s="20"/>
       <c r="E50" s="3"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="2:5">
-      <c r="B51" s="22"/>
+      <c r="B51" s="20"/>
       <c r="E51" s="3"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="2:5">
-      <c r="B52" s="22"/>
+      <c r="B52" s="20"/>
       <c r="E52" s="3"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="2:5">
-      <c r="B53" s="22"/>
+      <c r="B53" s="20"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="2:5">
-      <c r="B54" s="22"/>
+      <c r="B54" s="20"/>
       <c r="E54" s="3"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="2:5">
-      <c r="B55" s="22"/>
+      <c r="B55" s="20"/>
       <c r="E55" s="3"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="2:5">
-      <c r="B56" s="22"/>
+      <c r="B56" s="20"/>
       <c r="E56" s="3"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="2:5">
-      <c r="B57" s="22"/>
+      <c r="B57" s="20"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="2:5">
-      <c r="B58" s="22"/>
+      <c r="B58" s="20"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="2:5">
-      <c r="B59" s="22"/>
+      <c r="B59" s="20"/>
       <c r="E59" s="3"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="2:5">
-      <c r="B60" s="22"/>
+      <c r="B60" s="20"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="2:5">
-      <c r="B61" s="22"/>
+      <c r="B61" s="20"/>
       <c r="E61" s="3"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="2:5">
-      <c r="B62" s="22"/>
+      <c r="B62" s="20"/>
       <c r="E62" s="3"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="2:5">
-      <c r="B63" s="22"/>
+      <c r="B63" s="20"/>
       <c r="E63" s="3"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="2:5">
-      <c r="B64" s="22"/>
+      <c r="B64" s="20"/>
       <c r="E64" s="3"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:5">
-      <c r="B65" s="22"/>
+      <c r="B65" s="20"/>
       <c r="E65" s="3"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="2:5">
-      <c r="B66" s="22"/>
+      <c r="B66" s="20"/>
       <c r="E66" s="3"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="2:5">
-      <c r="B67" s="22"/>
+      <c r="B67" s="20"/>
       <c r="E67" s="3"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="2:5">
-      <c r="B68" s="22"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="B68" s="20"/>
       <c r="E68" s="3"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="2:5">
-      <c r="B69" s="22"/>
+      <c r="B69" s="20"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" s="1" customFormat="1" spans="2:5">
-      <c r="B70" s="22"/>
+      <c r="B70" s="20"/>
       <c r="E70" s="3"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="2:5">
-      <c r="B71" s="22"/>
+      <c r="B71" s="20"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="2:5">
-      <c r="B72" s="22"/>
+      <c r="B72" s="20"/>
       <c r="E72" s="3"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="2:5">
-      <c r="B73" s="22"/>
+      <c r="B73" s="20"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="2:5">
-      <c r="B74" s="22"/>
+      <c r="B74" s="20"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="2:5">
-      <c r="B75" s="22"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="B75" s="20"/>
       <c r="E75" s="3"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="2:5">
-      <c r="B76" s="22"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="B76" s="20"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="2:5">
-      <c r="B77" s="22"/>
+      <c r="B77" s="20"/>
       <c r="E77" s="3"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="2:5">
-      <c r="B78" s="22"/>
+      <c r="B78" s="20"/>
       <c r="E78" s="3"/>
     </row>
     <row r="79" s="1" customFormat="1" spans="2:5">
-      <c r="B79" s="22"/>
+      <c r="B79" s="20"/>
       <c r="E79" s="3"/>
     </row>
     <row r="80" s="1" customFormat="1" spans="2:5">
-      <c r="B80" s="22"/>
+      <c r="B80" s="20"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" s="1" customFormat="1" spans="2:5">
-      <c r="B81" s="22"/>
+      <c r="B81" s="20"/>
       <c r="E81" s="3"/>
     </row>
     <row r="82" s="1" customFormat="1" spans="2:5">
-      <c r="B82" s="22"/>
+      <c r="B82" s="20"/>
       <c r="E82" s="3"/>
     </row>
     <row r="83" s="1" customFormat="1" spans="2:5">
-      <c r="B83" s="22"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="B83" s="20"/>
       <c r="E83" s="3"/>
     </row>
     <row r="84" s="1" customFormat="1" spans="2:5">
-      <c r="B84" s="22"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="B84" s="20"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" s="1" customFormat="1" spans="2:5">
-      <c r="B85" s="22"/>
+      <c r="B85" s="20"/>
       <c r="E85" s="3"/>
     </row>
     <row r="86" s="1" customFormat="1" spans="2:5">
-      <c r="B86" s="22"/>
+      <c r="B86" s="20"/>
       <c r="E86" s="3"/>
     </row>
     <row r="87" s="1" customFormat="1" spans="2:5">
-      <c r="B87" s="22"/>
+      <c r="B87" s="20"/>
       <c r="E87" s="3"/>
     </row>
     <row r="88" s="1" customFormat="1" spans="2:5">
-      <c r="B88" s="22"/>
+      <c r="B88" s="20"/>
       <c r="E88" s="3"/>
     </row>
     <row r="89" s="1" customFormat="1" spans="2:5">
-      <c r="B89" s="22"/>
+      <c r="B89" s="20"/>
       <c r="E89" s="3"/>
     </row>
     <row r="90" s="1" customFormat="1" spans="2:5">
-      <c r="B90" s="22"/>
+      <c r="B90" s="20"/>
       <c r="E90" s="3"/>
     </row>
     <row r="91" s="1" customFormat="1" spans="2:5">
-      <c r="B91" s="22"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="B91" s="20"/>
       <c r="E91" s="3"/>
     </row>
     <row r="92" s="1" customFormat="1" spans="2:5">
-      <c r="B92" s="22"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="B92" s="20"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93" s="1" customFormat="1" spans="2:5">
-      <c r="B93" s="22"/>
+      <c r="B93" s="20"/>
       <c r="E93" s="3"/>
     </row>
     <row r="94" s="1" customFormat="1" spans="2:5">
-      <c r="B94" s="22"/>
+      <c r="B94" s="20"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95" s="1" customFormat="1" spans="2:5">
-      <c r="B95" s="22"/>
+      <c r="B95" s="20"/>
       <c r="E95" s="3"/>
     </row>
     <row r="96" s="1" customFormat="1" spans="2:5">
-      <c r="B96" s="22"/>
+      <c r="B96" s="20"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97" s="1" customFormat="1" spans="2:5">
-      <c r="B97" s="22"/>
+      <c r="B97" s="20"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" s="1" customFormat="1" spans="2:5">
-      <c r="B98" s="22"/>
+      <c r="B98" s="20"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" s="1" customFormat="1" spans="2:5">
-      <c r="B99" s="22"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
+      <c r="B99" s="20"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" s="1" customFormat="1" spans="2:5">
-      <c r="B100" s="22"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+      <c r="B100" s="20"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" s="1" customFormat="1" spans="2:5">
-      <c r="B101" s="22"/>
+      <c r="B101" s="20"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" s="1" customFormat="1" spans="2:5">
-      <c r="B102" s="22"/>
+      <c r="B102" s="20"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" s="1" customFormat="1" spans="2:5">
-      <c r="B103" s="22"/>
+      <c r="B103" s="20"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" s="1" customFormat="1" spans="2:5">
-      <c r="B104" s="22"/>
+      <c r="B104" s="20"/>
       <c r="E104" s="3"/>
     </row>
     <row r="105" s="1" customFormat="1" spans="2:5">
-      <c r="B105" s="22"/>
+      <c r="B105" s="20"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" s="1" customFormat="1" spans="2:5">
-      <c r="B106" s="22"/>
+      <c r="B106" s="20"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" s="1" customFormat="1" spans="2:5">
-      <c r="B107" s="22"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
+      <c r="B107" s="20"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" s="1" customFormat="1" spans="2:5">
-      <c r="B108" s="22"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
+      <c r="B108" s="20"/>
       <c r="E108" s="3"/>
     </row>
     <row r="109" s="1" customFormat="1" spans="2:5">
-      <c r="B109" s="22"/>
+      <c r="B109" s="20"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" s="1" customFormat="1" spans="2:5">
-      <c r="B110" s="22"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
+      <c r="B110" s="20"/>
       <c r="E110" s="3"/>
     </row>
     <row r="111" s="1" customFormat="1" spans="2:5">
-      <c r="B111" s="22"/>
+      <c r="B111" s="20"/>
       <c r="E111" s="3"/>
     </row>
     <row r="112" s="1" customFormat="1" spans="2:5">
-      <c r="B112" s="22"/>
+      <c r="B112" s="20"/>
       <c r="E112" s="3"/>
     </row>
     <row r="113" s="1" customFormat="1" spans="2:5">
-      <c r="B113" s="22"/>
+      <c r="B113" s="20"/>
       <c r="E113" s="3"/>
     </row>
     <row r="114" s="1" customFormat="1" spans="2:5">
-      <c r="B114" s="22"/>
+      <c r="B114" s="20"/>
       <c r="E114" s="3"/>
     </row>
     <row r="115" s="1" customFormat="1" spans="2:5">
-      <c r="B115" s="22"/>
+      <c r="B115" s="20"/>
       <c r="E115" s="3"/>
     </row>
     <row r="116" s="1" customFormat="1" spans="2:5">
-      <c r="B116" s="22"/>
+      <c r="B116" s="20"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" s="1" customFormat="1" spans="2:5">
-      <c r="B117" s="22"/>
+      <c r="B117" s="20"/>
       <c r="E117" s="3"/>
     </row>
     <row r="118" s="1" customFormat="1" spans="2:5">
-      <c r="B118" s="22"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
+      <c r="B118" s="20"/>
       <c r="E118" s="3"/>
     </row>
     <row r="119" s="1" customFormat="1" spans="2:5">
-      <c r="B119" s="22"/>
+      <c r="B119" s="20"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120" s="1" customFormat="1" spans="2:5">
-      <c r="B120" s="22"/>
+      <c r="B120" s="20"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" s="1" customFormat="1" spans="2:5">
-      <c r="B121" s="22"/>
+      <c r="B121" s="20"/>
       <c r="E121" s="3"/>
     </row>
     <row r="122" s="1" customFormat="1" spans="2:5">
-      <c r="B122" s="22"/>
+      <c r="B122" s="20"/>
       <c r="E122" s="3"/>
     </row>
     <row r="123" s="1" customFormat="1" spans="2:5">
-      <c r="B123" s="22"/>
+      <c r="B123" s="20"/>
       <c r="E123" s="3"/>
     </row>
     <row r="124" s="1" customFormat="1" spans="2:5">
-      <c r="B124" s="22"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
+      <c r="B124" s="20"/>
       <c r="E124" s="3"/>
     </row>
     <row r="125" s="1" customFormat="1" spans="2:5">
-      <c r="B125" s="22"/>
+      <c r="B125" s="20"/>
       <c r="E125" s="3"/>
     </row>
     <row r="126" s="1" customFormat="1" spans="2:5">
-      <c r="B126" s="22"/>
+      <c r="B126" s="20"/>
       <c r="E126" s="3"/>
     </row>
     <row r="127" s="1" customFormat="1" spans="2:5">
-      <c r="B127" s="22"/>
+      <c r="B127" s="20"/>
       <c r="E127" s="3"/>
     </row>
     <row r="128" s="1" customFormat="1" spans="2:5">
-      <c r="B128" s="22"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
+      <c r="B128" s="20"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" s="1" customFormat="1" spans="2:5">
-      <c r="B129" s="22"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
+      <c r="B129" s="20"/>
       <c r="E129" s="3"/>
     </row>
   </sheetData>

--- a/接口文档/商品api/商品发布_商户端.xlsx
+++ b/接口文档/商品api/商品发布_商户端.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="669" firstSheet="4" activeTab="10"/>
+    <workbookView windowWidth="21255" windowHeight="9360" tabRatio="669" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224">
   <si>
     <t>商品发布接口
 版本：1.0
@@ -6309,7 +6309,28 @@
 </t>
   </si>
   <si>
-    <t>http://192.168.1.117/api/product_edit/v1/history</t>
+    <t>http://192.168.1.117/api/product_edit/v1/history?begin=2016-11-09 00:00:00&amp;end=2016-11-11 00:00:00</t>
+  </si>
+  <si>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:01</t>
   </si>
 </sst>
 </file>
@@ -6317,10 +6338,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -6346,7 +6367,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -6359,7 +6380,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -6372,15 +6393,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6388,9 +6401,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6402,7 +6429,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6416,8 +6451,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6434,88 +6537,6 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -6574,31 +6595,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6616,31 +6619,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6658,18 +6655,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6682,7 +6667,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6694,13 +6739,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6712,43 +6769,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6882,11 +6903,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6921,17 +6948,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6961,24 +7000,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6987,10 +7008,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6999,138 +7020,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -7161,7 +7182,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7182,7 +7203,12 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7207,31 +7233,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7815,7 +7836,7 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="25" t="s">
         <v>160</v>
       </c>
       <c r="C2" s="9"/>
@@ -7852,530 +7873,530 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="21" customHeight="1" spans="1:5">
       <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
+      <c r="B5" s="26"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="21" customHeight="1" spans="1:5">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A7" s="14"/>
-      <c r="B7" s="19"/>
+      <c r="B7" s="20"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
       <c r="A8" s="14"/>
-      <c r="B8" s="19"/>
+      <c r="B8" s="20"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A9" s="14"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="14"/>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="14"/>
-      <c r="B11" s="20"/>
-      <c r="E11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
       <c r="A12" s="14"/>
-      <c r="B12" s="20"/>
-      <c r="E12" s="19"/>
+      <c r="B12" s="21"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
       <c r="A13" s="14"/>
-      <c r="B13" s="20"/>
+      <c r="B13" s="21"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
       <c r="A14" s="14"/>
-      <c r="B14" s="20"/>
-      <c r="E14" s="19"/>
+      <c r="B14" s="21"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
       <c r="A15" s="14"/>
-      <c r="B15" s="20"/>
-      <c r="E15" s="19"/>
+      <c r="B15" s="21"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
       <c r="A16" s="14"/>
-      <c r="B16" s="20"/>
-      <c r="E16" s="19"/>
+      <c r="B16" s="21"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
       <c r="A17" s="14"/>
-      <c r="B17" s="20"/>
-      <c r="E17" s="19"/>
+      <c r="B17" s="21"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
       <c r="A18" s="14"/>
-      <c r="B18" s="20"/>
-      <c r="E18" s="19"/>
+      <c r="B18" s="21"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:5">
       <c r="A19" s="14"/>
-      <c r="B19" s="20"/>
+      <c r="B19" s="21"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="22"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="21"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="2:5">
-      <c r="B21" s="20"/>
-      <c r="E21" s="19"/>
+      <c r="B21" s="21"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:5">
-      <c r="B22" s="20"/>
-      <c r="E22" s="23"/>
+      <c r="B22" s="21"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B23" s="20"/>
-      <c r="E23" s="19"/>
+      <c r="B23" s="21"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="2:5">
-      <c r="B24" s="20"/>
-      <c r="E24" s="23"/>
+      <c r="B24" s="21"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
-      <c r="B25" s="20"/>
+      <c r="B25" s="21"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
-      <c r="B26" s="20"/>
+      <c r="B26" s="21"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="2:5">
-      <c r="B27" s="20"/>
+      <c r="B27" s="21"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:5">
-      <c r="B28" s="20"/>
+      <c r="B28" s="21"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="2:5">
-      <c r="B29" s="20"/>
+      <c r="B29" s="21"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="2:5">
-      <c r="B30" s="20"/>
+      <c r="B30" s="21"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="2:5">
-      <c r="B31" s="20"/>
+      <c r="B31" s="21"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="2:5">
-      <c r="B32" s="20"/>
+      <c r="B32" s="21"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="2:5">
-      <c r="B33" s="20"/>
+      <c r="B33" s="21"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="2:5">
-      <c r="B34" s="20"/>
+      <c r="B34" s="21"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:5">
-      <c r="B35" s="20"/>
+      <c r="B35" s="21"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="2:5">
-      <c r="B36" s="20"/>
+      <c r="B36" s="21"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="2:5">
-      <c r="B37" s="20"/>
+      <c r="B37" s="21"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="2:5">
-      <c r="B38" s="20"/>
+      <c r="B38" s="21"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="2:5">
-      <c r="B39" s="20"/>
+      <c r="B39" s="21"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="2:5">
-      <c r="B40" s="20"/>
+      <c r="B40" s="21"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:5">
-      <c r="B41" s="20"/>
+      <c r="B41" s="21"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:5">
-      <c r="B42" s="20"/>
+      <c r="B42" s="21"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="2:5">
-      <c r="B43" s="20"/>
+      <c r="B43" s="21"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="2:5">
-      <c r="B44" s="20"/>
+      <c r="B44" s="21"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="2:5">
-      <c r="B45" s="20"/>
+      <c r="B45" s="21"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="2:5">
-      <c r="B46" s="20"/>
+      <c r="B46" s="21"/>
       <c r="E46" s="3"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="2:5">
-      <c r="B47" s="20"/>
+      <c r="B47" s="21"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="2:5">
-      <c r="B48" s="20"/>
+      <c r="B48" s="21"/>
       <c r="E48" s="3"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="2:5">
-      <c r="B49" s="20"/>
+      <c r="B49" s="21"/>
       <c r="E49" s="3"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="2:5">
-      <c r="B50" s="20"/>
+      <c r="B50" s="21"/>
       <c r="E50" s="3"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="2:5">
-      <c r="B51" s="20"/>
+      <c r="B51" s="21"/>
       <c r="E51" s="3"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="2:5">
-      <c r="B52" s="20"/>
+      <c r="B52" s="21"/>
       <c r="E52" s="3"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="2:5">
-      <c r="B53" s="20"/>
+      <c r="B53" s="21"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="2:5">
-      <c r="B54" s="20"/>
+      <c r="B54" s="21"/>
       <c r="E54" s="3"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="2:5">
-      <c r="B55" s="20"/>
+      <c r="B55" s="21"/>
       <c r="E55" s="3"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="2:5">
-      <c r="B56" s="20"/>
+      <c r="B56" s="21"/>
       <c r="E56" s="3"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="2:5">
-      <c r="B57" s="20"/>
+      <c r="B57" s="21"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="2:5">
-      <c r="B58" s="20"/>
+      <c r="B58" s="21"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="2:5">
-      <c r="B59" s="20"/>
+      <c r="B59" s="21"/>
       <c r="E59" s="3"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="2:5">
-      <c r="B60" s="20"/>
+      <c r="B60" s="21"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="2:5">
-      <c r="B61" s="20"/>
+      <c r="B61" s="21"/>
       <c r="E61" s="3"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="2:5">
-      <c r="B62" s="20"/>
+      <c r="B62" s="21"/>
       <c r="E62" s="3"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="2:5">
-      <c r="B63" s="20"/>
+      <c r="B63" s="21"/>
       <c r="E63" s="3"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="2:5">
-      <c r="B64" s="20"/>
+      <c r="B64" s="21"/>
       <c r="E64" s="3"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:5">
-      <c r="B65" s="20"/>
+      <c r="B65" s="21"/>
       <c r="E65" s="3"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="2:5">
-      <c r="B66" s="20"/>
+      <c r="B66" s="21"/>
       <c r="E66" s="3"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="2:5">
-      <c r="B67" s="20"/>
+      <c r="B67" s="21"/>
       <c r="E67" s="3"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="2:5">
-      <c r="B68" s="20"/>
+      <c r="B68" s="21"/>
       <c r="E68" s="3"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="2:5">
-      <c r="B69" s="20"/>
+      <c r="B69" s="21"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" s="1" customFormat="1" spans="2:5">
-      <c r="B70" s="20"/>
+      <c r="B70" s="21"/>
       <c r="E70" s="3"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="2:5">
-      <c r="B71" s="20"/>
+      <c r="B71" s="21"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="2:5">
-      <c r="B72" s="20"/>
+      <c r="B72" s="21"/>
       <c r="E72" s="3"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="2:5">
-      <c r="B73" s="20"/>
+      <c r="B73" s="21"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="2:5">
-      <c r="B74" s="20"/>
+      <c r="B74" s="21"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="2:5">
-      <c r="B75" s="20"/>
+      <c r="B75" s="21"/>
       <c r="E75" s="3"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="2:5">
-      <c r="B76" s="20"/>
+      <c r="B76" s="21"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="2:5">
-      <c r="B77" s="20"/>
+      <c r="B77" s="21"/>
       <c r="E77" s="3"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="2:5">
-      <c r="B78" s="20"/>
+      <c r="B78" s="21"/>
       <c r="E78" s="3"/>
     </row>
     <row r="79" s="1" customFormat="1" spans="2:5">
-      <c r="B79" s="20"/>
+      <c r="B79" s="21"/>
       <c r="E79" s="3"/>
     </row>
     <row r="80" s="1" customFormat="1" spans="2:5">
-      <c r="B80" s="20"/>
+      <c r="B80" s="21"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" s="1" customFormat="1" spans="2:5">
-      <c r="B81" s="20"/>
+      <c r="B81" s="21"/>
       <c r="E81" s="3"/>
     </row>
     <row r="82" s="1" customFormat="1" spans="2:5">
-      <c r="B82" s="20"/>
+      <c r="B82" s="21"/>
       <c r="E82" s="3"/>
     </row>
     <row r="83" s="1" customFormat="1" spans="2:5">
-      <c r="B83" s="20"/>
+      <c r="B83" s="21"/>
       <c r="E83" s="3"/>
     </row>
     <row r="84" s="1" customFormat="1" spans="2:5">
-      <c r="B84" s="20"/>
+      <c r="B84" s="21"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" s="1" customFormat="1" spans="2:5">
-      <c r="B85" s="20"/>
+      <c r="B85" s="21"/>
       <c r="E85" s="3"/>
     </row>
     <row r="86" s="1" customFormat="1" spans="2:5">
-      <c r="B86" s="20"/>
+      <c r="B86" s="21"/>
       <c r="E86" s="3"/>
     </row>
     <row r="87" s="1" customFormat="1" spans="2:5">
-      <c r="B87" s="20"/>
+      <c r="B87" s="21"/>
       <c r="E87" s="3"/>
     </row>
     <row r="88" s="1" customFormat="1" spans="2:5">
-      <c r="B88" s="20"/>
+      <c r="B88" s="21"/>
       <c r="E88" s="3"/>
     </row>
     <row r="89" s="1" customFormat="1" spans="2:5">
-      <c r="B89" s="20"/>
+      <c r="B89" s="21"/>
       <c r="E89" s="3"/>
     </row>
     <row r="90" s="1" customFormat="1" spans="2:5">
-      <c r="B90" s="20"/>
+      <c r="B90" s="21"/>
       <c r="E90" s="3"/>
     </row>
     <row r="91" s="1" customFormat="1" spans="2:5">
-      <c r="B91" s="20"/>
+      <c r="B91" s="21"/>
       <c r="E91" s="3"/>
     </row>
     <row r="92" s="1" customFormat="1" spans="2:5">
-      <c r="B92" s="20"/>
+      <c r="B92" s="21"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93" s="1" customFormat="1" spans="2:5">
-      <c r="B93" s="20"/>
+      <c r="B93" s="21"/>
       <c r="E93" s="3"/>
     </row>
     <row r="94" s="1" customFormat="1" spans="2:5">
-      <c r="B94" s="20"/>
+      <c r="B94" s="21"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95" s="1" customFormat="1" spans="2:5">
-      <c r="B95" s="20"/>
+      <c r="B95" s="21"/>
       <c r="E95" s="3"/>
     </row>
     <row r="96" s="1" customFormat="1" spans="2:5">
-      <c r="B96" s="20"/>
+      <c r="B96" s="21"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97" s="1" customFormat="1" spans="2:5">
-      <c r="B97" s="20"/>
+      <c r="B97" s="21"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" s="1" customFormat="1" spans="2:5">
-      <c r="B98" s="20"/>
+      <c r="B98" s="21"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" s="1" customFormat="1" spans="2:5">
-      <c r="B99" s="20"/>
+      <c r="B99" s="21"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" s="1" customFormat="1" spans="2:5">
-      <c r="B100" s="20"/>
+      <c r="B100" s="21"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" s="1" customFormat="1" spans="2:5">
-      <c r="B101" s="20"/>
+      <c r="B101" s="21"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" s="1" customFormat="1" spans="2:5">
-      <c r="B102" s="20"/>
+      <c r="B102" s="21"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" s="1" customFormat="1" spans="2:5">
-      <c r="B103" s="20"/>
+      <c r="B103" s="21"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" s="1" customFormat="1" spans="2:5">
-      <c r="B104" s="20"/>
+      <c r="B104" s="21"/>
       <c r="E104" s="3"/>
     </row>
     <row r="105" s="1" customFormat="1" spans="2:5">
-      <c r="B105" s="20"/>
+      <c r="B105" s="21"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" s="1" customFormat="1" spans="2:5">
-      <c r="B106" s="20"/>
+      <c r="B106" s="21"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" s="1" customFormat="1" spans="2:5">
-      <c r="B107" s="20"/>
+      <c r="B107" s="21"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" s="1" customFormat="1" spans="2:5">
-      <c r="B108" s="20"/>
+      <c r="B108" s="21"/>
       <c r="E108" s="3"/>
     </row>
     <row r="109" s="1" customFormat="1" spans="2:5">
-      <c r="B109" s="20"/>
+      <c r="B109" s="21"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" s="1" customFormat="1" spans="2:5">
-      <c r="B110" s="20"/>
+      <c r="B110" s="21"/>
       <c r="E110" s="3"/>
     </row>
     <row r="111" s="1" customFormat="1" spans="2:5">
-      <c r="B111" s="20"/>
+      <c r="B111" s="21"/>
       <c r="E111" s="3"/>
     </row>
     <row r="112" s="1" customFormat="1" spans="2:5">
-      <c r="B112" s="20"/>
+      <c r="B112" s="21"/>
       <c r="E112" s="3"/>
     </row>
     <row r="113" s="1" customFormat="1" spans="2:5">
-      <c r="B113" s="20"/>
+      <c r="B113" s="21"/>
       <c r="E113" s="3"/>
     </row>
     <row r="114" s="1" customFormat="1" spans="2:5">
-      <c r="B114" s="20"/>
+      <c r="B114" s="21"/>
       <c r="E114" s="3"/>
     </row>
     <row r="115" s="1" customFormat="1" spans="2:5">
-      <c r="B115" s="20"/>
+      <c r="B115" s="21"/>
       <c r="E115" s="3"/>
     </row>
     <row r="116" s="1" customFormat="1" spans="2:5">
-      <c r="B116" s="20"/>
+      <c r="B116" s="21"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" s="1" customFormat="1" spans="2:5">
-      <c r="B117" s="20"/>
+      <c r="B117" s="21"/>
       <c r="E117" s="3"/>
     </row>
     <row r="118" s="1" customFormat="1" spans="2:5">
-      <c r="B118" s="20"/>
+      <c r="B118" s="21"/>
       <c r="E118" s="3"/>
     </row>
     <row r="119" s="1" customFormat="1" spans="2:5">
-      <c r="B119" s="20"/>
+      <c r="B119" s="21"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120" s="1" customFormat="1" spans="2:5">
-      <c r="B120" s="20"/>
+      <c r="B120" s="21"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" s="1" customFormat="1" spans="2:5">
-      <c r="B121" s="20"/>
+      <c r="B121" s="21"/>
       <c r="E121" s="3"/>
     </row>
     <row r="122" s="1" customFormat="1" spans="2:5">
-      <c r="B122" s="20"/>
+      <c r="B122" s="21"/>
       <c r="E122" s="3"/>
     </row>
     <row r="123" s="1" customFormat="1" spans="2:5">
-      <c r="B123" s="20"/>
+      <c r="B123" s="21"/>
       <c r="E123" s="3"/>
     </row>
     <row r="124" s="1" customFormat="1" spans="2:5">
-      <c r="B124" s="20"/>
+      <c r="B124" s="21"/>
       <c r="E124" s="3"/>
     </row>
     <row r="125" s="1" customFormat="1" spans="2:5">
-      <c r="B125" s="20"/>
+      <c r="B125" s="21"/>
       <c r="E125" s="3"/>
     </row>
     <row r="126" s="1" customFormat="1" spans="2:5">
-      <c r="B126" s="20"/>
+      <c r="B126" s="21"/>
       <c r="E126" s="3"/>
     </row>
     <row r="127" s="1" customFormat="1" spans="2:5">
-      <c r="B127" s="20"/>
+      <c r="B127" s="21"/>
       <c r="E127" s="3"/>
     </row>
     <row r="128" s="1" customFormat="1" spans="2:5">
-      <c r="B128" s="20"/>
+      <c r="B128" s="21"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" s="1" customFormat="1" spans="2:5">
-      <c r="B129" s="20"/>
+      <c r="B129" s="21"/>
       <c r="E129" s="3"/>
     </row>
   </sheetData>
@@ -8398,17 +8419,17 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="56.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="52.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="56.25" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -8464,543 +8485,568 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="21" customHeight="1" spans="1:5">
+    <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="21" customHeight="1" spans="1:5">
-      <c r="A6" s="11" t="s">
+      <c r="B5" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="21" customHeight="1" spans="1:5">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="21" customHeight="1" spans="1:5">
+      <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
-      <c r="A7" s="14"/>
-      <c r="B7" s="19"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:5">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A8" s="14"/>
-      <c r="B8" s="19"/>
+      <c r="B8" s="20"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="14"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="20"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A10" s="14"/>
+      <c r="B10" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:5">
-      <c r="A10" s="14"/>
-      <c r="B10" s="20"/>
-      <c r="E10" s="21"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="14"/>
-      <c r="B11" s="20"/>
-      <c r="E11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
       <c r="A12" s="14"/>
-      <c r="B12" s="20"/>
-      <c r="E12" s="19"/>
+      <c r="B12" s="21"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
       <c r="A13" s="14"/>
-      <c r="B13" s="20"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="21"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
       <c r="A14" s="14"/>
-      <c r="B14" s="20"/>
-      <c r="E14" s="19"/>
+      <c r="B14" s="21"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
       <c r="A15" s="14"/>
-      <c r="B15" s="20"/>
-      <c r="E15" s="19"/>
+      <c r="B15" s="21"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
       <c r="A16" s="14"/>
-      <c r="B16" s="20"/>
-      <c r="E16" s="19"/>
+      <c r="B16" s="21"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
       <c r="A17" s="14"/>
-      <c r="B17" s="20"/>
-      <c r="E17" s="19"/>
+      <c r="B17" s="21"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
       <c r="A18" s="14"/>
-      <c r="B18" s="20"/>
-      <c r="E18" s="19"/>
+      <c r="B18" s="21"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:5">
       <c r="A19" s="14"/>
-      <c r="B19" s="20"/>
-      <c r="E19" s="3"/>
+      <c r="B19" s="21"/>
+      <c r="E19" s="20"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="22"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="21"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" s="1" customFormat="1" spans="2:5">
-      <c r="B21" s="20"/>
-      <c r="E21" s="19"/>
+    <row r="21" s="1" customFormat="1" spans="1:5">
+      <c r="A21" s="23"/>
+      <c r="B21" s="21"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:5">
-      <c r="B22" s="20"/>
-      <c r="E22" s="23"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B23" s="20"/>
-      <c r="E23" s="19"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="2:5">
-      <c r="B24" s="20"/>
-      <c r="E24" s="23"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
-      <c r="B25" s="20"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
-      <c r="B26" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="2:5">
+      <c r="B23" s="21"/>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="25.5" customHeight="1" spans="2:5">
+      <c r="B24" s="21"/>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="2:5">
+      <c r="B25" s="21"/>
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
+      <c r="B26" s="21"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" s="1" customFormat="1" spans="2:5">
-      <c r="B27" s="20"/>
+    <row r="27" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
+      <c r="B27" s="21"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:5">
-      <c r="B28" s="20"/>
+      <c r="B28" s="21"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="2:5">
-      <c r="B29" s="20"/>
+      <c r="B29" s="21"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="2:5">
-      <c r="B30" s="20"/>
+      <c r="B30" s="21"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="2:5">
-      <c r="B31" s="20"/>
+      <c r="B31" s="21"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="2:5">
-      <c r="B32" s="20"/>
+      <c r="B32" s="21"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="2:5">
-      <c r="B33" s="20"/>
+      <c r="B33" s="21"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="2:5">
-      <c r="B34" s="20"/>
+      <c r="B34" s="21"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:5">
-      <c r="B35" s="20"/>
+      <c r="B35" s="21"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="2:5">
-      <c r="B36" s="20"/>
+      <c r="B36" s="21"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="2:5">
-      <c r="B37" s="20"/>
+      <c r="B37" s="21"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="2:5">
-      <c r="B38" s="20"/>
+      <c r="B38" s="21"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="2:5">
-      <c r="B39" s="20"/>
+      <c r="B39" s="21"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="2:5">
-      <c r="B40" s="20"/>
+      <c r="B40" s="21"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:5">
-      <c r="B41" s="20"/>
+      <c r="B41" s="21"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:5">
-      <c r="B42" s="20"/>
+      <c r="B42" s="21"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="2:5">
-      <c r="B43" s="20"/>
+      <c r="B43" s="21"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="2:5">
-      <c r="B44" s="20"/>
+      <c r="B44" s="21"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="2:5">
-      <c r="B45" s="20"/>
+      <c r="B45" s="21"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="2:5">
-      <c r="B46" s="20"/>
+      <c r="B46" s="21"/>
       <c r="E46" s="3"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="2:5">
-      <c r="B47" s="20"/>
+      <c r="B47" s="21"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="2:5">
-      <c r="B48" s="20"/>
+      <c r="B48" s="21"/>
       <c r="E48" s="3"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="2:5">
-      <c r="B49" s="20"/>
+      <c r="B49" s="21"/>
       <c r="E49" s="3"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="2:5">
-      <c r="B50" s="20"/>
+      <c r="B50" s="21"/>
       <c r="E50" s="3"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="2:5">
-      <c r="B51" s="20"/>
+      <c r="B51" s="21"/>
       <c r="E51" s="3"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="2:5">
-      <c r="B52" s="20"/>
+      <c r="B52" s="21"/>
       <c r="E52" s="3"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="2:5">
-      <c r="B53" s="20"/>
+      <c r="B53" s="21"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="2:5">
-      <c r="B54" s="20"/>
+      <c r="B54" s="21"/>
       <c r="E54" s="3"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="2:5">
-      <c r="B55" s="20"/>
+      <c r="B55" s="21"/>
       <c r="E55" s="3"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="2:5">
-      <c r="B56" s="20"/>
+      <c r="B56" s="21"/>
       <c r="E56" s="3"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="2:5">
-      <c r="B57" s="20"/>
+      <c r="B57" s="21"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="2:5">
-      <c r="B58" s="20"/>
+      <c r="B58" s="21"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="2:5">
-      <c r="B59" s="20"/>
+      <c r="B59" s="21"/>
       <c r="E59" s="3"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="2:5">
-      <c r="B60" s="20"/>
+      <c r="B60" s="21"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="2:5">
-      <c r="B61" s="20"/>
+      <c r="B61" s="21"/>
       <c r="E61" s="3"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="2:5">
-      <c r="B62" s="20"/>
+      <c r="B62" s="21"/>
       <c r="E62" s="3"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="2:5">
-      <c r="B63" s="20"/>
+      <c r="B63" s="21"/>
       <c r="E63" s="3"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="2:5">
-      <c r="B64" s="20"/>
+      <c r="B64" s="21"/>
       <c r="E64" s="3"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:5">
-      <c r="B65" s="20"/>
+      <c r="B65" s="21"/>
       <c r="E65" s="3"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="2:5">
-      <c r="B66" s="20"/>
+      <c r="B66" s="21"/>
       <c r="E66" s="3"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="2:5">
-      <c r="B67" s="20"/>
+      <c r="B67" s="21"/>
       <c r="E67" s="3"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="2:5">
-      <c r="B68" s="20"/>
+      <c r="B68" s="21"/>
       <c r="E68" s="3"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="2:5">
-      <c r="B69" s="20"/>
+      <c r="B69" s="21"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" s="1" customFormat="1" spans="2:5">
-      <c r="B70" s="20"/>
+      <c r="B70" s="21"/>
       <c r="E70" s="3"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="2:5">
-      <c r="B71" s="20"/>
+      <c r="B71" s="21"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="2:5">
-      <c r="B72" s="20"/>
+      <c r="B72" s="21"/>
       <c r="E72" s="3"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="2:5">
-      <c r="B73" s="20"/>
+      <c r="B73" s="21"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="2:5">
-      <c r="B74" s="20"/>
+      <c r="B74" s="21"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="2:5">
-      <c r="B75" s="20"/>
+      <c r="B75" s="21"/>
       <c r="E75" s="3"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="2:5">
-      <c r="B76" s="20"/>
+      <c r="B76" s="21"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="2:5">
-      <c r="B77" s="20"/>
+      <c r="B77" s="21"/>
       <c r="E77" s="3"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="2:5">
-      <c r="B78" s="20"/>
+      <c r="B78" s="21"/>
       <c r="E78" s="3"/>
     </row>
     <row r="79" s="1" customFormat="1" spans="2:5">
-      <c r="B79" s="20"/>
+      <c r="B79" s="21"/>
       <c r="E79" s="3"/>
     </row>
     <row r="80" s="1" customFormat="1" spans="2:5">
-      <c r="B80" s="20"/>
+      <c r="B80" s="21"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" s="1" customFormat="1" spans="2:5">
-      <c r="B81" s="20"/>
+      <c r="B81" s="21"/>
       <c r="E81" s="3"/>
     </row>
     <row r="82" s="1" customFormat="1" spans="2:5">
-      <c r="B82" s="20"/>
+      <c r="B82" s="21"/>
       <c r="E82" s="3"/>
     </row>
     <row r="83" s="1" customFormat="1" spans="2:5">
-      <c r="B83" s="20"/>
+      <c r="B83" s="21"/>
       <c r="E83" s="3"/>
     </row>
     <row r="84" s="1" customFormat="1" spans="2:5">
-      <c r="B84" s="20"/>
+      <c r="B84" s="21"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" s="1" customFormat="1" spans="2:5">
-      <c r="B85" s="20"/>
+      <c r="B85" s="21"/>
       <c r="E85" s="3"/>
     </row>
     <row r="86" s="1" customFormat="1" spans="2:5">
-      <c r="B86" s="20"/>
+      <c r="B86" s="21"/>
       <c r="E86" s="3"/>
     </row>
     <row r="87" s="1" customFormat="1" spans="2:5">
-      <c r="B87" s="20"/>
+      <c r="B87" s="21"/>
       <c r="E87" s="3"/>
     </row>
     <row r="88" s="1" customFormat="1" spans="2:5">
-      <c r="B88" s="20"/>
+      <c r="B88" s="21"/>
       <c r="E88" s="3"/>
     </row>
     <row r="89" s="1" customFormat="1" spans="2:5">
-      <c r="B89" s="20"/>
+      <c r="B89" s="21"/>
       <c r="E89" s="3"/>
     </row>
     <row r="90" s="1" customFormat="1" spans="2:5">
-      <c r="B90" s="20"/>
+      <c r="B90" s="21"/>
       <c r="E90" s="3"/>
     </row>
     <row r="91" s="1" customFormat="1" spans="2:5">
-      <c r="B91" s="20"/>
+      <c r="B91" s="21"/>
       <c r="E91" s="3"/>
     </row>
     <row r="92" s="1" customFormat="1" spans="2:5">
-      <c r="B92" s="20"/>
+      <c r="B92" s="21"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93" s="1" customFormat="1" spans="2:5">
-      <c r="B93" s="20"/>
+      <c r="B93" s="21"/>
       <c r="E93" s="3"/>
     </row>
     <row r="94" s="1" customFormat="1" spans="2:5">
-      <c r="B94" s="20"/>
+      <c r="B94" s="21"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95" s="1" customFormat="1" spans="2:5">
-      <c r="B95" s="20"/>
+      <c r="B95" s="21"/>
       <c r="E95" s="3"/>
     </row>
     <row r="96" s="1" customFormat="1" spans="2:5">
-      <c r="B96" s="20"/>
+      <c r="B96" s="21"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97" s="1" customFormat="1" spans="2:5">
-      <c r="B97" s="20"/>
+      <c r="B97" s="21"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" s="1" customFormat="1" spans="2:5">
-      <c r="B98" s="20"/>
+      <c r="B98" s="21"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" s="1" customFormat="1" spans="2:5">
-      <c r="B99" s="20"/>
+      <c r="B99" s="21"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" s="1" customFormat="1" spans="2:5">
-      <c r="B100" s="20"/>
+      <c r="B100" s="21"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" s="1" customFormat="1" spans="2:5">
-      <c r="B101" s="20"/>
+      <c r="B101" s="21"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" s="1" customFormat="1" spans="2:5">
-      <c r="B102" s="20"/>
+      <c r="B102" s="21"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" s="1" customFormat="1" spans="2:5">
-      <c r="B103" s="20"/>
+      <c r="B103" s="21"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" s="1" customFormat="1" spans="2:5">
-      <c r="B104" s="20"/>
+      <c r="B104" s="21"/>
       <c r="E104" s="3"/>
     </row>
     <row r="105" s="1" customFormat="1" spans="2:5">
-      <c r="B105" s="20"/>
+      <c r="B105" s="21"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" s="1" customFormat="1" spans="2:5">
-      <c r="B106" s="20"/>
+      <c r="B106" s="21"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" s="1" customFormat="1" spans="2:5">
-      <c r="B107" s="20"/>
+      <c r="B107" s="21"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" s="1" customFormat="1" spans="2:5">
-      <c r="B108" s="20"/>
+      <c r="B108" s="21"/>
       <c r="E108" s="3"/>
     </row>
     <row r="109" s="1" customFormat="1" spans="2:5">
-      <c r="B109" s="20"/>
+      <c r="B109" s="21"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" s="1" customFormat="1" spans="2:5">
-      <c r="B110" s="20"/>
+      <c r="B110" s="21"/>
       <c r="E110" s="3"/>
     </row>
     <row r="111" s="1" customFormat="1" spans="2:5">
-      <c r="B111" s="20"/>
+      <c r="B111" s="21"/>
       <c r="E111" s="3"/>
     </row>
     <row r="112" s="1" customFormat="1" spans="2:5">
-      <c r="B112" s="20"/>
+      <c r="B112" s="21"/>
       <c r="E112" s="3"/>
     </row>
     <row r="113" s="1" customFormat="1" spans="2:5">
-      <c r="B113" s="20"/>
+      <c r="B113" s="21"/>
       <c r="E113" s="3"/>
     </row>
     <row r="114" s="1" customFormat="1" spans="2:5">
-      <c r="B114" s="20"/>
+      <c r="B114" s="21"/>
       <c r="E114" s="3"/>
     </row>
     <row r="115" s="1" customFormat="1" spans="2:5">
-      <c r="B115" s="20"/>
+      <c r="B115" s="21"/>
       <c r="E115" s="3"/>
     </row>
     <row r="116" s="1" customFormat="1" spans="2:5">
-      <c r="B116" s="20"/>
+      <c r="B116" s="21"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" s="1" customFormat="1" spans="2:5">
-      <c r="B117" s="20"/>
+      <c r="B117" s="21"/>
       <c r="E117" s="3"/>
     </row>
     <row r="118" s="1" customFormat="1" spans="2:5">
-      <c r="B118" s="20"/>
+      <c r="B118" s="21"/>
       <c r="E118" s="3"/>
     </row>
     <row r="119" s="1" customFormat="1" spans="2:5">
-      <c r="B119" s="20"/>
+      <c r="B119" s="21"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120" s="1" customFormat="1" spans="2:5">
-      <c r="B120" s="20"/>
+      <c r="B120" s="21"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" s="1" customFormat="1" spans="2:5">
-      <c r="B121" s="20"/>
+      <c r="B121" s="21"/>
       <c r="E121" s="3"/>
     </row>
     <row r="122" s="1" customFormat="1" spans="2:5">
-      <c r="B122" s="20"/>
+      <c r="B122" s="21"/>
       <c r="E122" s="3"/>
     </row>
     <row r="123" s="1" customFormat="1" spans="2:5">
-      <c r="B123" s="20"/>
+      <c r="B123" s="21"/>
       <c r="E123" s="3"/>
     </row>
     <row r="124" s="1" customFormat="1" spans="2:5">
-      <c r="B124" s="20"/>
+      <c r="B124" s="21"/>
       <c r="E124" s="3"/>
     </row>
     <row r="125" s="1" customFormat="1" spans="2:5">
-      <c r="B125" s="20"/>
+      <c r="B125" s="21"/>
       <c r="E125" s="3"/>
     </row>
     <row r="126" s="1" customFormat="1" spans="2:5">
-      <c r="B126" s="20"/>
+      <c r="B126" s="21"/>
       <c r="E126" s="3"/>
     </row>
     <row r="127" s="1" customFormat="1" spans="2:5">
-      <c r="B127" s="20"/>
+      <c r="B127" s="21"/>
       <c r="E127" s="3"/>
     </row>
     <row r="128" s="1" customFormat="1" spans="2:5">
-      <c r="B128" s="20"/>
+      <c r="B128" s="21"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" s="1" customFormat="1" spans="2:5">
-      <c r="B129" s="20"/>
+      <c r="B129" s="21"/>
       <c r="E129" s="3"/>
+    </row>
+    <row r="130" s="1" customFormat="1" spans="2:5">
+      <c r="B130" s="21"/>
+      <c r="E130" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="A6:A20"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A7:A21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.117/api/product_edit/v1/history" tooltip="http://192.168.1.117/api/product_edit/v1/history"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.117/api/product_edit/v1/history?begin=2016-11-09 00:00:00&amp;end=2016-11-11 00:00:00" tooltip="http://192.168.1.117/api/product_edit/v1/history?begin=2016-11-09 00:00:00&amp;end=2016-11-11 00:00:00"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -9114,7 +9160,7 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="9"/>
@@ -9151,7 +9197,7 @@
     </row>
     <row r="5" ht="13.5" spans="1:5">
       <c r="A5" s="14"/>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C5"/>
@@ -9160,7 +9206,7 @@
     </row>
     <row r="6" ht="13.5" spans="1:5">
       <c r="A6" s="14"/>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C6"/>
@@ -9169,7 +9215,7 @@
     </row>
     <row r="7" ht="13.5" spans="1:5">
       <c r="A7" s="14"/>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C7"/>
@@ -9178,7 +9224,7 @@
     </row>
     <row r="8" ht="13.5" spans="1:5">
       <c r="A8" s="14"/>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C8"/>
@@ -9187,7 +9233,7 @@
     </row>
     <row r="9" ht="13.5" spans="1:5">
       <c r="A9" s="14"/>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C9"/>
@@ -9196,7 +9242,7 @@
     </row>
     <row r="10" ht="13.5" spans="1:5">
       <c r="A10" s="14"/>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C10"/>
@@ -9205,7 +9251,7 @@
     </row>
     <row r="11" ht="13.5" spans="1:5">
       <c r="A11" s="14"/>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C11"/>
@@ -9214,7 +9260,7 @@
     </row>
     <row r="12" ht="13.5" spans="1:5">
       <c r="A12" s="14"/>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C12"/>
@@ -9223,7 +9269,7 @@
     </row>
     <row r="13" ht="13.5" spans="1:5">
       <c r="A13" s="14"/>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C13"/>
@@ -9232,7 +9278,7 @@
     </row>
     <row r="14" ht="13.5" spans="1:5">
       <c r="A14" s="14"/>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C14"/>
@@ -9240,8 +9286,8 @@
       <c r="E14"/>
     </row>
     <row r="15" ht="13.5" spans="1:5">
-      <c r="A15" s="22"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C15"/>
@@ -9249,7 +9295,7 @@
       <c r="E15"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C16"/>
@@ -9257,7 +9303,7 @@
       <c r="E16"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C17"/>
@@ -9265,7 +9311,7 @@
       <c r="E17"/>
     </row>
     <row r="18" ht="19" customHeight="1" spans="2:5">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C18"/>
@@ -9273,7 +9319,7 @@
       <c r="E18"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C19"/>
@@ -9281,7 +9327,7 @@
       <c r="E19"/>
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="2:5">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C20"/>
@@ -9289,7 +9335,7 @@
       <c r="E20"/>
     </row>
     <row r="21" ht="21" customHeight="1" spans="2:5">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C21"/>
@@ -9297,16 +9343,16 @@
       <c r="E21"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
-      <c r="F22" s="19"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C23"/>
@@ -9314,7 +9360,7 @@
       <c r="E23"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C24"/>
@@ -9322,7 +9368,7 @@
       <c r="E24"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C25"/>
@@ -9330,7 +9376,7 @@
       <c r="E25"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="21" t="s">
         <v>39</v>
       </c>
       <c r="C26"/>
@@ -9338,7 +9384,7 @@
       <c r="E26"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C27"/>
@@ -9346,7 +9392,7 @@
       <c r="E27"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="21" t="s">
         <v>41</v>
       </c>
       <c r="C28"/>
@@ -9354,7 +9400,7 @@
       <c r="E28"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C29"/>
@@ -9362,7 +9408,7 @@
       <c r="E29"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C30"/>
@@ -9370,7 +9416,7 @@
       <c r="E30"/>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C31"/>
@@ -9378,7 +9424,7 @@
       <c r="E31"/>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C32"/>
@@ -9386,7 +9432,7 @@
       <c r="E32"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C33"/>
@@ -9394,7 +9440,7 @@
       <c r="E33"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C34"/>
@@ -9402,7 +9448,7 @@
       <c r="E34"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C35"/>
@@ -9410,7 +9456,7 @@
       <c r="E35"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C36"/>
@@ -9418,7 +9464,7 @@
       <c r="E36"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="21" t="s">
         <v>50</v>
       </c>
       <c r="C37"/>
@@ -9426,7 +9472,7 @@
       <c r="E37"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C38"/>
@@ -9434,7 +9480,7 @@
       <c r="E38"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C39"/>
@@ -9442,7 +9488,7 @@
       <c r="E39"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="21" t="s">
         <v>52</v>
       </c>
       <c r="C40"/>
@@ -9450,7 +9496,7 @@
       <c r="E40"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C41"/>
@@ -9458,7 +9504,7 @@
       <c r="E41"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C42"/>
@@ -9466,7 +9512,7 @@
       <c r="E42"/>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="21" t="s">
         <v>54</v>
       </c>
       <c r="C43"/>
@@ -9474,7 +9520,7 @@
       <c r="E43"/>
     </row>
     <row r="44" spans="2:5">
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C44"/>
@@ -9482,7 +9528,7 @@
       <c r="E44"/>
     </row>
     <row r="45" spans="2:5">
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="21" t="s">
         <v>56</v>
       </c>
       <c r="C45"/>
@@ -9490,7 +9536,7 @@
       <c r="E45"/>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C46"/>
@@ -9498,7 +9544,7 @@
       <c r="E46"/>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C47"/>
@@ -9506,7 +9552,7 @@
       <c r="E47"/>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C48"/>
@@ -9514,7 +9560,7 @@
       <c r="E48"/>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="21" t="s">
         <v>58</v>
       </c>
       <c r="C49"/>
@@ -9522,7 +9568,7 @@
       <c r="E49"/>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="21" t="s">
         <v>59</v>
       </c>
       <c r="C50"/>
@@ -9530,7 +9576,7 @@
       <c r="E50"/>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C51"/>
@@ -9538,7 +9584,7 @@
       <c r="E51"/>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C52"/>
@@ -9546,7 +9592,7 @@
       <c r="E52"/>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C53"/>
@@ -9554,7 +9600,7 @@
       <c r="E53"/>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="21" t="s">
         <v>56</v>
       </c>
       <c r="C54"/>
@@ -9562,7 +9608,7 @@
       <c r="E54"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C55"/>
@@ -9570,7 +9616,7 @@
       <c r="E55"/>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="21" t="s">
         <v>62</v>
       </c>
       <c r="C56"/>
@@ -9578,7 +9624,7 @@
       <c r="E56"/>
     </row>
     <row r="57" spans="2:5">
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="21" t="s">
         <v>63</v>
       </c>
       <c r="C57"/>
@@ -9586,7 +9632,7 @@
       <c r="E57"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="21" t="s">
         <v>64</v>
       </c>
       <c r="C58"/>
@@ -10278,7 +10324,7 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="9"/>
@@ -10315,65 +10361,65 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="14"/>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="24" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
       <c r="A6" s="14"/>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
       <c r="A7" s="14"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="24" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
       <c r="A8" s="14"/>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="24" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="21" customHeight="1" spans="1:5">
       <c r="A9" s="14"/>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="10" t="s">
         <v>78</v>
       </c>
@@ -10382,695 +10428,695 @@
       <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A11" s="14"/>
-      <c r="B11" s="19"/>
+      <c r="B11" s="20"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
       <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
+      <c r="B12" s="20"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A13" s="14"/>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
       <c r="A14" s="14"/>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
       <c r="A15" s="14"/>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="21" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="21"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
       <c r="A16" s="14"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="19"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
       <c r="A17" s="14"/>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
         <v>84</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
       <c r="A18" s="14"/>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="19"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:5">
       <c r="A19" s="14"/>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="19"/>
+      <c r="E19" s="20"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:5">
       <c r="A20" s="14"/>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="19"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:5">
       <c r="A21" s="14"/>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="19"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:5">
       <c r="A22" s="14"/>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="19"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:5">
       <c r="A23" s="14"/>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="21" t="s">
         <v>88</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:5">
-      <c r="A24" s="22"/>
-      <c r="B24" s="20" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="21" t="s">
         <v>89</v>
       </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="2:5">
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="19"/>
+      <c r="E25" s="20"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="2:5">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="23"/>
+      <c r="E26" s="24"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="19"/>
+      <c r="E27" s="20"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:5">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="23"/>
+      <c r="E28" s="24"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="21" t="s">
         <v>94</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="21" t="s">
         <v>95</v>
       </c>
       <c r="E30" s="3"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="2:5">
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="21" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="3"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="2:5">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E32" s="3"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="2:5">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="21" t="s">
         <v>96</v>
       </c>
       <c r="E33" s="3"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="2:5">
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="21" t="s">
         <v>97</v>
       </c>
       <c r="E34" s="3"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:5">
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="21" t="s">
         <v>98</v>
       </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="2:5">
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="21" t="s">
         <v>99</v>
       </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="2:5">
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="21" t="s">
         <v>100</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="2:5">
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="21" t="s">
         <v>57</v>
       </c>
       <c r="E38" s="3"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="2:5">
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E39" s="3"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="2:5">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E40" s="3"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:5">
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="21" t="s">
         <v>101</v>
       </c>
       <c r="E41" s="3"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:5">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="21" t="s">
         <v>102</v>
       </c>
       <c r="E42" s="3"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="2:5">
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="21" t="s">
         <v>103</v>
       </c>
       <c r="E43" s="3"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="2:5">
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="21" t="s">
         <v>104</v>
       </c>
       <c r="E44" s="3"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="2:5">
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="21" t="s">
         <v>105</v>
       </c>
       <c r="E45" s="3"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="2:5">
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="21" t="s">
         <v>57</v>
       </c>
       <c r="E46" s="3"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="2:5">
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E47" s="3"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="2:5">
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E48" s="3"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="2:5">
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="21" t="s">
         <v>106</v>
       </c>
       <c r="E49" s="3"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="2:5">
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="21" t="s">
         <v>107</v>
       </c>
       <c r="E50" s="3"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="2:5">
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="21" t="s">
         <v>108</v>
       </c>
       <c r="E51" s="3"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="2:5">
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="21" t="s">
         <v>109</v>
       </c>
       <c r="E52" s="3"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="2:5">
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="21" t="s">
         <v>110</v>
       </c>
       <c r="E53" s="3"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="2:5">
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="21" t="s">
         <v>57</v>
       </c>
       <c r="E54" s="3"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="2:5">
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="21" t="s">
         <v>62</v>
       </c>
       <c r="E55" s="3"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="2:5">
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="21" t="s">
         <v>111</v>
       </c>
       <c r="E56" s="3"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="2:5">
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="21" t="s">
         <v>112</v>
       </c>
       <c r="E57" s="3"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="2:5">
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E58" s="3"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="2:5">
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E59" s="3"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="2:5">
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="21" t="s">
         <v>113</v>
       </c>
       <c r="E60" s="3"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="2:5">
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="21" t="s">
         <v>114</v>
       </c>
       <c r="E61" s="3"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="2:5">
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E62" s="3"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="2:5">
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="21" t="s">
         <v>115</v>
       </c>
       <c r="E63" s="3"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="2:5">
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="21" t="s">
         <v>116</v>
       </c>
       <c r="E64" s="3"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:5">
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="21" t="s">
         <v>117</v>
       </c>
       <c r="E65" s="3"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="21" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="21" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="21" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="21" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="21" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="20" t="s">
+      <c r="B71" s="21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="21" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="21" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="20" t="s">
+      <c r="B75" s="21" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="21" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="20" t="s">
+      <c r="B79" s="21" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="20" t="s">
+      <c r="B80" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="20" t="s">
+      <c r="B81" s="21" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="20" t="s">
+      <c r="B82" s="21" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="20" t="s">
+      <c r="B83" s="21" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="20" t="s">
+      <c r="B84" s="21" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="20" t="s">
+      <c r="B85" s="21" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="21" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="20" t="s">
+      <c r="B88" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="21" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="20" t="s">
+      <c r="B90" s="21" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="20" t="s">
+      <c r="B91" s="21" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="20" t="s">
+      <c r="B92" s="21" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="20" t="s">
+      <c r="B93" s="21" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="20" t="s">
+      <c r="B95" s="21" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="20" t="s">
+      <c r="B96" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="20" t="s">
+      <c r="B97" s="21" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="21" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="20" t="s">
+      <c r="B99" s="21" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="20" t="s">
+      <c r="B100" s="21" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="20" t="s">
+      <c r="B101" s="21" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="20" t="s">
+      <c r="B102" s="21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="103" spans="2:2">
-      <c r="B103" s="20" t="s">
+      <c r="B103" s="21" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="20" t="s">
+      <c r="B104" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="20" t="s">
+      <c r="B105" s="21" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="20" t="s">
+      <c r="B106" s="21" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="20" t="s">
+      <c r="B107" s="21" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="20" t="s">
+      <c r="B108" s="21" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="20" t="s">
+      <c r="B109" s="21" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="20" t="s">
+      <c r="B110" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="111" spans="2:2">
-      <c r="B111" s="20" t="s">
+      <c r="B111" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="112" spans="2:2">
-      <c r="B112" s="20" t="s">
+      <c r="B112" s="21" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="20" t="s">
+      <c r="B113" s="21" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="20" t="s">
+      <c r="B114" s="21" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="115" spans="2:2">
-      <c r="B115" s="20" t="s">
+      <c r="B115" s="21" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="20" t="s">
+      <c r="B116" s="21" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="20" t="s">
+      <c r="B117" s="21" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="118" spans="2:2">
-      <c r="B118" s="20" t="s">
+      <c r="B118" s="21" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="119" spans="2:2">
-      <c r="B119" s="20" t="s">
+      <c r="B119" s="21" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="20" t="s">
+      <c r="B120" s="21" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="20" t="s">
+      <c r="B121" s="21" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="20" t="s">
+      <c r="B122" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="20" t="s">
+      <c r="B123" s="21" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="20" t="s">
+      <c r="B124" s="21" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="20" t="s">
+      <c r="B125" s="21" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="20" t="s">
+      <c r="B126" s="21" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="20" t="s">
+      <c r="B127" s="21" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="20" t="s">
+      <c r="B128" s="21" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="129" spans="2:2">
-      <c r="B129" s="20" t="s">
+      <c r="B129" s="21" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="20" t="s">
+      <c r="B130" s="21" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="20" t="s">
+      <c r="B131" s="21" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="20" t="s">
+      <c r="B132" s="21" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="20" t="s">
+      <c r="B133" s="21" t="s">
         <v>158</v>
       </c>
     </row>
@@ -11125,7 +11171,7 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="25" t="s">
         <v>160</v>
       </c>
       <c r="C2" s="9"/>
@@ -11162,65 +11208,65 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="14"/>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="24" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
       <c r="A6" s="14"/>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
       <c r="A7" s="14"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="24" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
       <c r="A8" s="14"/>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="24" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="14"/>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="10" t="s">
         <v>78</v>
       </c>
@@ -11229,762 +11275,762 @@
       <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A11" s="14"/>
-      <c r="B11" s="19"/>
+      <c r="B11" s="20"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
       <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
+      <c r="B12" s="20"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A13" s="14"/>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
       <c r="A14" s="14"/>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
       <c r="A15" s="14"/>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="21" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="21"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
       <c r="A16" s="14"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="19"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
       <c r="A17" s="14"/>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
         <v>84</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
       <c r="A18" s="14"/>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="19"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:5">
       <c r="A19" s="14"/>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="19"/>
+      <c r="E19" s="20"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:5">
       <c r="A20" s="14"/>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="19"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:5">
       <c r="A21" s="14"/>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="19"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:5">
       <c r="A22" s="14"/>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="19"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:5">
       <c r="A23" s="14"/>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="21" t="s">
         <v>88</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:5">
-      <c r="A24" s="22"/>
-      <c r="B24" s="20" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="21" t="s">
         <v>89</v>
       </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="2:5">
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="19"/>
+      <c r="E25" s="20"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="2:5">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="23"/>
+      <c r="E26" s="24"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="19"/>
+      <c r="E27" s="20"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:5">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="23"/>
+      <c r="E28" s="24"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="21" t="s">
         <v>94</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="21" t="s">
         <v>95</v>
       </c>
       <c r="E30" s="3"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="2:5">
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="21" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="3"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="2:5">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E32" s="3"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="2:5">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="21" t="s">
         <v>96</v>
       </c>
       <c r="E33" s="3"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="2:5">
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="21" t="s">
         <v>97</v>
       </c>
       <c r="E34" s="3"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:5">
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="21" t="s">
         <v>98</v>
       </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="2:5">
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="21" t="s">
         <v>99</v>
       </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="2:5">
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="21" t="s">
         <v>100</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="2:5">
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="21" t="s">
         <v>57</v>
       </c>
       <c r="E38" s="3"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="2:5">
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E39" s="3"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="2:5">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E40" s="3"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:5">
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="21" t="s">
         <v>101</v>
       </c>
       <c r="E41" s="3"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:5">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="21" t="s">
         <v>102</v>
       </c>
       <c r="E42" s="3"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="2:5">
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="21" t="s">
         <v>103</v>
       </c>
       <c r="E43" s="3"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="2:5">
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="21" t="s">
         <v>104</v>
       </c>
       <c r="E44" s="3"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="2:5">
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="21" t="s">
         <v>105</v>
       </c>
       <c r="E45" s="3"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="2:5">
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="21" t="s">
         <v>57</v>
       </c>
       <c r="E46" s="3"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="2:5">
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E47" s="3"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="2:5">
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E48" s="3"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="2:5">
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="21" t="s">
         <v>106</v>
       </c>
       <c r="E49" s="3"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="2:5">
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="21" t="s">
         <v>107</v>
       </c>
       <c r="E50" s="3"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="2:5">
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="21" t="s">
         <v>108</v>
       </c>
       <c r="E51" s="3"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="2:5">
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="21" t="s">
         <v>109</v>
       </c>
       <c r="E52" s="3"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="2:5">
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="21" t="s">
         <v>110</v>
       </c>
       <c r="E53" s="3"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="2:5">
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="21" t="s">
         <v>57</v>
       </c>
       <c r="E54" s="3"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="2:5">
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="21" t="s">
         <v>62</v>
       </c>
       <c r="E55" s="3"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="2:5">
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="21" t="s">
         <v>111</v>
       </c>
       <c r="E56" s="3"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="2:5">
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="21" t="s">
         <v>112</v>
       </c>
       <c r="E57" s="3"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="2:5">
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E58" s="3"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="2:5">
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E59" s="3"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="2:5">
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="21" t="s">
         <v>113</v>
       </c>
       <c r="E60" s="3"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="2:5">
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="21" t="s">
         <v>114</v>
       </c>
       <c r="E61" s="3"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="2:5">
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E62" s="3"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="2:5">
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="21" t="s">
         <v>115</v>
       </c>
       <c r="E63" s="3"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="2:5">
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="21" t="s">
         <v>116</v>
       </c>
       <c r="E64" s="3"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:5">
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="21" t="s">
         <v>117</v>
       </c>
       <c r="E65" s="3"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="2:5">
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="21" t="s">
         <v>118</v>
       </c>
       <c r="E66" s="3"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="2:5">
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="21" t="s">
         <v>92</v>
       </c>
       <c r="E67" s="3"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="2:5">
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="21" t="s">
         <v>93</v>
       </c>
       <c r="E68" s="3"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="2:5">
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="21" t="s">
         <v>119</v>
       </c>
       <c r="E69" s="3"/>
     </row>
     <row r="70" s="1" customFormat="1" spans="2:5">
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="21" t="s">
         <v>120</v>
       </c>
       <c r="E70" s="3"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="2:5">
-      <c r="B71" s="20" t="s">
+      <c r="B71" s="21" t="s">
         <v>42</v>
       </c>
       <c r="E71" s="3"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="2:5">
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E72" s="3"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="2:5">
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="21" t="s">
         <v>121</v>
       </c>
       <c r="E73" s="3"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="2:5">
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="21" t="s">
         <v>122</v>
       </c>
       <c r="E74" s="3"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="2:5">
-      <c r="B75" s="20" t="s">
+      <c r="B75" s="21" t="s">
         <v>123</v>
       </c>
       <c r="E75" s="3"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="2:5">
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="21" t="s">
         <v>48</v>
       </c>
       <c r="E76" s="3"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="2:5">
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="21" t="s">
         <v>124</v>
       </c>
       <c r="E77" s="3"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="2:5">
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E78" s="3"/>
     </row>
     <row r="79" s="1" customFormat="1" spans="2:5">
-      <c r="B79" s="20" t="s">
+      <c r="B79" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E79" s="3"/>
     </row>
     <row r="80" s="1" customFormat="1" spans="2:5">
-      <c r="B80" s="20" t="s">
+      <c r="B80" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E80" s="3"/>
     </row>
     <row r="81" s="1" customFormat="1" spans="2:5">
-      <c r="B81" s="20" t="s">
+      <c r="B81" s="21" t="s">
         <v>125</v>
       </c>
       <c r="E81" s="3"/>
     </row>
     <row r="82" s="1" customFormat="1" spans="2:5">
-      <c r="B82" s="20" t="s">
+      <c r="B82" s="21" t="s">
         <v>126</v>
       </c>
       <c r="E82" s="3"/>
     </row>
     <row r="83" s="1" customFormat="1" spans="2:5">
-      <c r="B83" s="20" t="s">
+      <c r="B83" s="21" t="s">
         <v>123</v>
       </c>
       <c r="E83" s="3"/>
     </row>
     <row r="84" s="1" customFormat="1" spans="2:5">
-      <c r="B84" s="20" t="s">
+      <c r="B84" s="21" t="s">
         <v>127</v>
       </c>
       <c r="E84" s="3"/>
     </row>
     <row r="85" s="1" customFormat="1" spans="2:5">
-      <c r="B85" s="20" t="s">
+      <c r="B85" s="21" t="s">
         <v>128</v>
       </c>
       <c r="E85" s="3"/>
     </row>
     <row r="86" s="1" customFormat="1" spans="2:5">
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="21" t="s">
         <v>57</v>
       </c>
       <c r="E86" s="3"/>
     </row>
     <row r="87" s="1" customFormat="1" spans="2:5">
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E87" s="3"/>
     </row>
     <row r="88" s="1" customFormat="1" spans="2:5">
-      <c r="B88" s="20" t="s">
+      <c r="B88" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E88" s="3"/>
     </row>
     <row r="89" s="1" customFormat="1" spans="2:5">
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="21" t="s">
         <v>129</v>
       </c>
       <c r="E89" s="3"/>
     </row>
     <row r="90" s="1" customFormat="1" spans="2:5">
-      <c r="B90" s="20" t="s">
+      <c r="B90" s="21" t="s">
         <v>130</v>
       </c>
       <c r="E90" s="3"/>
     </row>
     <row r="91" s="1" customFormat="1" spans="2:5">
-      <c r="B91" s="20" t="s">
+      <c r="B91" s="21" t="s">
         <v>123</v>
       </c>
       <c r="E91" s="3"/>
     </row>
     <row r="92" s="1" customFormat="1" spans="2:5">
-      <c r="B92" s="20" t="s">
+      <c r="B92" s="21" t="s">
         <v>131</v>
       </c>
       <c r="E92" s="3"/>
     </row>
     <row r="93" s="1" customFormat="1" spans="2:5">
-      <c r="B93" s="20" t="s">
+      <c r="B93" s="21" t="s">
         <v>132</v>
       </c>
       <c r="E93" s="3"/>
     </row>
     <row r="94" s="1" customFormat="1" spans="2:5">
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="21" t="s">
         <v>57</v>
       </c>
       <c r="E94" s="3"/>
     </row>
     <row r="95" s="1" customFormat="1" spans="2:5">
-      <c r="B95" s="20" t="s">
+      <c r="B95" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E95" s="3"/>
     </row>
     <row r="96" s="1" customFormat="1" spans="2:5">
-      <c r="B96" s="20" t="s">
+      <c r="B96" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E96" s="3"/>
     </row>
     <row r="97" s="1" customFormat="1" spans="2:5">
-      <c r="B97" s="20" t="s">
+      <c r="B97" s="21" t="s">
         <v>133</v>
       </c>
       <c r="E97" s="3"/>
     </row>
     <row r="98" s="1" customFormat="1" spans="2:5">
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="21" t="s">
         <v>134</v>
       </c>
       <c r="E98" s="3"/>
     </row>
     <row r="99" s="1" customFormat="1" spans="2:5">
-      <c r="B99" s="20" t="s">
+      <c r="B99" s="21" t="s">
         <v>123</v>
       </c>
       <c r="E99" s="3"/>
     </row>
     <row r="100" s="1" customFormat="1" spans="2:5">
-      <c r="B100" s="20" t="s">
+      <c r="B100" s="21" t="s">
         <v>135</v>
       </c>
       <c r="E100" s="3"/>
     </row>
     <row r="101" s="1" customFormat="1" spans="2:5">
-      <c r="B101" s="20" t="s">
+      <c r="B101" s="21" t="s">
         <v>136</v>
       </c>
       <c r="E101" s="3"/>
     </row>
     <row r="102" s="1" customFormat="1" spans="2:5">
-      <c r="B102" s="20" t="s">
+      <c r="B102" s="21" t="s">
         <v>57</v>
       </c>
       <c r="E102" s="3"/>
     </row>
     <row r="103" s="1" customFormat="1" spans="2:5">
-      <c r="B103" s="20" t="s">
+      <c r="B103" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E103" s="3"/>
     </row>
     <row r="104" s="1" customFormat="1" spans="2:5">
-      <c r="B104" s="20" t="s">
+      <c r="B104" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E104" s="3"/>
     </row>
     <row r="105" s="1" customFormat="1" spans="2:5">
-      <c r="B105" s="20" t="s">
+      <c r="B105" s="21" t="s">
         <v>137</v>
       </c>
       <c r="E105" s="3"/>
     </row>
     <row r="106" s="1" customFormat="1" spans="2:5">
-      <c r="B106" s="20" t="s">
+      <c r="B106" s="21" t="s">
         <v>138</v>
       </c>
       <c r="E106" s="3"/>
     </row>
     <row r="107" s="1" customFormat="1" spans="2:5">
-      <c r="B107" s="20" t="s">
+      <c r="B107" s="21" t="s">
         <v>123</v>
       </c>
       <c r="E107" s="3"/>
     </row>
     <row r="108" s="1" customFormat="1" spans="2:5">
-      <c r="B108" s="20" t="s">
+      <c r="B108" s="21" t="s">
         <v>139</v>
       </c>
       <c r="E108" s="3"/>
     </row>
     <row r="109" s="1" customFormat="1" spans="2:5">
-      <c r="B109" s="20" t="s">
+      <c r="B109" s="21" t="s">
         <v>140</v>
       </c>
       <c r="E109" s="3"/>
     </row>
     <row r="110" s="1" customFormat="1" spans="2:5">
-      <c r="B110" s="20" t="s">
+      <c r="B110" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E110" s="3"/>
     </row>
     <row r="111" s="1" customFormat="1" spans="2:5">
-      <c r="B111" s="20" t="s">
+      <c r="B111" s="21" t="s">
         <v>62</v>
       </c>
       <c r="E111" s="3"/>
     </row>
     <row r="112" s="1" customFormat="1" spans="2:5">
-      <c r="B112" s="20" t="s">
+      <c r="B112" s="21" t="s">
         <v>111</v>
       </c>
       <c r="E112" s="3"/>
     </row>
     <row r="113" s="1" customFormat="1" spans="2:5">
-      <c r="B113" s="20" t="s">
+      <c r="B113" s="21" t="s">
         <v>141</v>
       </c>
       <c r="E113" s="3"/>
     </row>
     <row r="114" s="1" customFormat="1" spans="2:5">
-      <c r="B114" s="20" t="s">
+      <c r="B114" s="21" t="s">
         <v>142</v>
       </c>
       <c r="E114" s="3"/>
     </row>
     <row r="115" s="1" customFormat="1" spans="2:5">
-      <c r="B115" s="20" t="s">
+      <c r="B115" s="21" t="s">
         <v>143</v>
       </c>
       <c r="E115" s="3"/>
     </row>
     <row r="116" s="1" customFormat="1" spans="2:5">
-      <c r="B116" s="20" t="s">
+      <c r="B116" s="21" t="s">
         <v>144</v>
       </c>
       <c r="E116" s="3"/>
     </row>
     <row r="117" s="1" customFormat="1" spans="2:5">
-      <c r="B117" s="20" t="s">
+      <c r="B117" s="21" t="s">
         <v>145</v>
       </c>
       <c r="E117" s="3"/>
     </row>
     <row r="118" s="1" customFormat="1" spans="2:5">
-      <c r="B118" s="20" t="s">
+      <c r="B118" s="21" t="s">
         <v>146</v>
       </c>
       <c r="E118" s="3"/>
     </row>
     <row r="119" s="1" customFormat="1" spans="2:5">
-      <c r="B119" s="20" t="s">
+      <c r="B119" s="21" t="s">
         <v>147</v>
       </c>
       <c r="E119" s="3"/>
     </row>
     <row r="120" s="1" customFormat="1" spans="2:5">
-      <c r="B120" s="20" t="s">
+      <c r="B120" s="21" t="s">
         <v>148</v>
       </c>
       <c r="E120" s="3"/>
     </row>
     <row r="121" s="1" customFormat="1" spans="2:5">
-      <c r="B121" s="20" t="s">
+      <c r="B121" s="21" t="s">
         <v>149</v>
       </c>
       <c r="E121" s="3"/>
     </row>
     <row r="122" s="1" customFormat="1" spans="2:5">
-      <c r="B122" s="20" t="s">
+      <c r="B122" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E122" s="3"/>
     </row>
     <row r="123" s="1" customFormat="1" spans="2:5">
-      <c r="B123" s="20" t="s">
+      <c r="B123" s="21" t="s">
         <v>150</v>
       </c>
       <c r="E123" s="3"/>
     </row>
     <row r="124" s="1" customFormat="1" spans="2:5">
-      <c r="B124" s="20" t="s">
+      <c r="B124" s="21" t="s">
         <v>151</v>
       </c>
       <c r="E124" s="3"/>
     </row>
     <row r="125" s="1" customFormat="1" spans="2:5">
-      <c r="B125" s="20" t="s">
+      <c r="B125" s="21" t="s">
         <v>152</v>
       </c>
       <c r="E125" s="3"/>
     </row>
     <row r="126" s="1" customFormat="1" spans="2:5">
-      <c r="B126" s="20" t="s">
+      <c r="B126" s="21" t="s">
         <v>153</v>
       </c>
       <c r="E126" s="3"/>
     </row>
     <row r="127" s="1" customFormat="1" spans="2:5">
-      <c r="B127" s="20" t="s">
+      <c r="B127" s="21" t="s">
         <v>154</v>
       </c>
       <c r="E127" s="3"/>
     </row>
     <row r="128" s="1" customFormat="1" spans="2:5">
-      <c r="B128" s="20" t="s">
+      <c r="B128" s="21" t="s">
         <v>142</v>
       </c>
       <c r="E128" s="3"/>
     </row>
     <row r="129" s="1" customFormat="1" spans="2:5">
-      <c r="B129" s="20" t="s">
+      <c r="B129" s="21" t="s">
         <v>143</v>
       </c>
       <c r="E129" s="3"/>
     </row>
     <row r="130" s="1" customFormat="1" spans="2:5">
-      <c r="B130" s="20" t="s">
+      <c r="B130" s="21" t="s">
         <v>155</v>
       </c>
       <c r="E130" s="3"/>
     </row>
     <row r="131" s="1" customFormat="1" spans="2:5">
-      <c r="B131" s="20" t="s">
+      <c r="B131" s="21" t="s">
         <v>156</v>
       </c>
       <c r="E131" s="3"/>
     </row>
     <row r="132" s="1" customFormat="1" spans="2:5">
-      <c r="B132" s="20" t="s">
+      <c r="B132" s="21" t="s">
         <v>157</v>
       </c>
       <c r="E132" s="3"/>
     </row>
     <row r="133" s="1" customFormat="1" spans="2:5">
-      <c r="B133" s="20" t="s">
+      <c r="B133" s="21" t="s">
         <v>158</v>
       </c>
       <c r="E133" s="3"/>
@@ -12040,7 +12086,7 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="25" t="s">
         <v>162</v>
       </c>
       <c r="C2" s="9"/>
@@ -12077,51 +12123,51 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="21" customHeight="1" spans="1:5">
       <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
+      <c r="B5" s="26"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="21" customHeight="1" spans="1:5">
       <c r="A6" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A7" s="14"/>
-      <c r="B7" s="19"/>
+      <c r="B7" s="20"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
       <c r="A8" s="14"/>
-      <c r="B8" s="19"/>
+      <c r="B8" s="20"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A9" s="14"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="14"/>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>81</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
-      <c r="E10" s="21"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="14"/>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>82</v>
       </c>
       <c r="C11"/>
@@ -12132,7 +12178,7 @@
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
       <c r="A12" s="14"/>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>83</v>
       </c>
       <c r="C12"/>
@@ -12143,29 +12189,29 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
       <c r="A13" s="14"/>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>84</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="20" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
       <c r="A14" s="14"/>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>85</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="20" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
       <c r="A15" s="14"/>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C15"/>
@@ -12174,51 +12220,51 @@
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
       <c r="A16" s="14"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
       <c r="A17" s="14"/>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="20" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
       <c r="A18" s="14"/>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="20" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:5">
       <c r="A19" s="14"/>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="20" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="22"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C20"/>
@@ -12228,7 +12274,7 @@
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="2:5">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C21"/>
@@ -12238,37 +12284,37 @@
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:5">
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="24" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="20" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="2:5">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="24" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C25"/>
@@ -12278,7 +12324,7 @@
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C26"/>
@@ -12288,7 +12334,7 @@
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="2:5">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C27"/>
@@ -12298,7 +12344,7 @@
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:5">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C28"/>
@@ -12308,7 +12354,7 @@
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="2:5">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C29"/>
@@ -12318,7 +12364,7 @@
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="2:5">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C30"/>
@@ -12328,7 +12374,7 @@
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="2:5">
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C31"/>
@@ -12338,7 +12384,7 @@
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="2:5">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C32"/>
@@ -12348,7 +12394,7 @@
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="2:5">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C33"/>
@@ -12358,7 +12404,7 @@
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="2:5">
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C34"/>
@@ -12368,7 +12414,7 @@
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:5">
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C35"/>
@@ -12378,7 +12424,7 @@
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="2:5">
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="21" t="s">
         <v>39</v>
       </c>
       <c r="C36"/>
@@ -12388,7 +12434,7 @@
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="2:5">
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C37"/>
@@ -12398,7 +12444,7 @@
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="2:5">
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="21" t="s">
         <v>41</v>
       </c>
       <c r="C38"/>
@@ -12408,7 +12454,7 @@
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="2:5">
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C39"/>
@@ -12418,7 +12464,7 @@
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="2:5">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C40"/>
@@ -12426,7 +12472,7 @@
       <c r="E40"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:5">
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C41"/>
@@ -12436,7 +12482,7 @@
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:5">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C42"/>
@@ -12446,7 +12492,7 @@
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="2:5">
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C43"/>
@@ -12456,7 +12502,7 @@
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="2:5">
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C44"/>
@@ -12466,7 +12512,7 @@
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="2:5">
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C45"/>
@@ -12476,7 +12522,7 @@
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="2:5">
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C46"/>
@@ -12486,7 +12532,7 @@
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="2:5">
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="21" t="s">
         <v>50</v>
       </c>
       <c r="C47"/>
@@ -12496,7 +12542,7 @@
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="2:5">
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C48"/>
@@ -12504,7 +12550,7 @@
       <c r="E48"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="2:5">
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C49"/>
@@ -12512,7 +12558,7 @@
       <c r="E49"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="2:5">
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="21" t="s">
         <v>52</v>
       </c>
       <c r="C50"/>
@@ -12520,7 +12566,7 @@
       <c r="E50"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="2:5">
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C51"/>
@@ -12528,7 +12574,7 @@
       <c r="E51"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="2:5">
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C52"/>
@@ -12536,7 +12582,7 @@
       <c r="E52"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="2:5">
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="21" t="s">
         <v>54</v>
       </c>
       <c r="C53"/>
@@ -12544,7 +12590,7 @@
       <c r="E53"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="2:5">
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C54"/>
@@ -12552,7 +12598,7 @@
       <c r="E54"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="2:5">
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="21" t="s">
         <v>56</v>
       </c>
       <c r="C55"/>
@@ -12560,7 +12606,7 @@
       <c r="E55"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="2:5">
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C56"/>
@@ -12568,7 +12614,7 @@
       <c r="E56"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="2:5">
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C57"/>
@@ -12576,7 +12622,7 @@
       <c r="E57"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="2:5">
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C58"/>
@@ -12584,7 +12630,7 @@
       <c r="E58"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="2:5">
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="21" t="s">
         <v>58</v>
       </c>
       <c r="C59"/>
@@ -12592,7 +12638,7 @@
       <c r="E59"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="2:5">
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="21" t="s">
         <v>59</v>
       </c>
       <c r="C60"/>
@@ -12600,7 +12646,7 @@
       <c r="E60"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="2:5">
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C61"/>
@@ -12608,7 +12654,7 @@
       <c r="E61"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="2:5">
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C62"/>
@@ -12616,7 +12662,7 @@
       <c r="E62"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="2:5">
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C63"/>
@@ -12624,7 +12670,7 @@
       <c r="E63"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="2:5">
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="21" t="s">
         <v>56</v>
       </c>
       <c r="C64"/>
@@ -12632,7 +12678,7 @@
       <c r="E64"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:5">
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C65"/>
@@ -12640,7 +12686,7 @@
       <c r="E65"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="2:5">
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="21" t="s">
         <v>62</v>
       </c>
       <c r="C66"/>
@@ -12648,7 +12694,7 @@
       <c r="E66"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="2:5">
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="21" t="s">
         <v>63</v>
       </c>
       <c r="C67"/>
@@ -12656,7 +12702,7 @@
       <c r="E67"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="2:5">
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="21" t="s">
         <v>64</v>
       </c>
       <c r="C68"/>
@@ -12664,7 +12710,7 @@
       <c r="E68"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="2:5">
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C69"/>
@@ -12672,7 +12718,7 @@
       <c r="E69"/>
     </row>
     <row r="70" s="1" customFormat="1" spans="2:5">
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="21" t="s">
         <v>196</v>
       </c>
       <c r="C70"/>
@@ -12680,7 +12726,7 @@
       <c r="E70"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="2:5">
-      <c r="B71" s="20" t="s">
+      <c r="B71" s="21" t="s">
         <v>197</v>
       </c>
       <c r="C71"/>
@@ -12688,7 +12734,7 @@
       <c r="E71"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="2:5">
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C72"/>
@@ -12696,7 +12742,7 @@
       <c r="E72"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="2:5">
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C73"/>
@@ -12704,7 +12750,7 @@
       <c r="E73"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="2:5">
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C74"/>
@@ -12712,7 +12758,7 @@
       <c r="E74"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="2:5">
-      <c r="B75" s="20" t="s">
+      <c r="B75" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C75"/>
@@ -12720,7 +12766,7 @@
       <c r="E75"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="2:5">
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C76"/>
@@ -12728,7 +12774,7 @@
       <c r="E76"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="2:5">
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C77"/>
@@ -12736,7 +12782,7 @@
       <c r="E77"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="2:5">
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C78"/>
@@ -12744,7 +12790,7 @@
       <c r="E78"/>
     </row>
     <row r="79" s="1" customFormat="1" spans="2:5">
-      <c r="B79" s="20" t="s">
+      <c r="B79" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C79"/>
@@ -12752,7 +12798,7 @@
       <c r="E79"/>
     </row>
     <row r="80" s="1" customFormat="1" spans="2:5">
-      <c r="B80" s="20" t="s">
+      <c r="B80" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C80"/>
@@ -12760,7 +12806,7 @@
       <c r="E80"/>
     </row>
     <row r="81" s="1" customFormat="1" spans="2:5">
-      <c r="B81" s="20" t="s">
+      <c r="B81" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C81"/>
@@ -12768,7 +12814,7 @@
       <c r="E81"/>
     </row>
     <row r="82" s="1" customFormat="1" spans="2:5">
-      <c r="B82" s="20" t="s">
+      <c r="B82" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C82"/>
@@ -12776,7 +12822,7 @@
       <c r="E82"/>
     </row>
     <row r="83" s="1" customFormat="1" spans="2:5">
-      <c r="B83" s="20" t="s">
+      <c r="B83" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C83"/>
@@ -12784,7 +12830,7 @@
       <c r="E83"/>
     </row>
     <row r="84" s="1" customFormat="1" spans="2:5">
-      <c r="B84" s="20" t="s">
+      <c r="B84" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C84"/>
@@ -12792,7 +12838,7 @@
       <c r="E84"/>
     </row>
     <row r="85" s="1" customFormat="1" spans="2:5">
-      <c r="B85" s="20" t="s">
+      <c r="B85" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C85"/>
@@ -12800,7 +12846,7 @@
       <c r="E85"/>
     </row>
     <row r="86" s="1" customFormat="1" spans="2:5">
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C86"/>
@@ -12808,7 +12854,7 @@
       <c r="E86"/>
     </row>
     <row r="87" s="1" customFormat="1" spans="2:5">
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C87"/>
@@ -12816,7 +12862,7 @@
       <c r="E87"/>
     </row>
     <row r="88" s="1" customFormat="1" spans="2:5">
-      <c r="B88" s="20" t="s">
+      <c r="B88" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C88"/>
@@ -12824,7 +12870,7 @@
       <c r="E88"/>
     </row>
     <row r="89" s="1" customFormat="1" spans="2:5">
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C89"/>
@@ -12832,7 +12878,7 @@
       <c r="E89"/>
     </row>
     <row r="90" s="1" customFormat="1" spans="2:5">
-      <c r="B90" s="20" t="s">
+      <c r="B90" s="21" t="s">
         <v>39</v>
       </c>
       <c r="C90"/>
@@ -12840,7 +12886,7 @@
       <c r="E90"/>
     </row>
     <row r="91" s="1" customFormat="1" spans="2:5">
-      <c r="B91" s="20" t="s">
+      <c r="B91" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C91"/>
@@ -12848,7 +12894,7 @@
       <c r="E91"/>
     </row>
     <row r="92" s="1" customFormat="1" spans="2:5">
-      <c r="B92" s="20" t="s">
+      <c r="B92" s="21" t="s">
         <v>41</v>
       </c>
       <c r="C92"/>
@@ -12856,7 +12902,7 @@
       <c r="E92"/>
     </row>
     <row r="93" s="1" customFormat="1" spans="2:5">
-      <c r="B93" s="20" t="s">
+      <c r="B93" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C93"/>
@@ -12864,7 +12910,7 @@
       <c r="E93"/>
     </row>
     <row r="94" s="1" customFormat="1" spans="2:5">
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C94"/>
@@ -12872,7 +12918,7 @@
       <c r="E94"/>
     </row>
     <row r="95" s="1" customFormat="1" spans="2:5">
-      <c r="B95" s="20" t="s">
+      <c r="B95" s="21" t="s">
         <v>52</v>
       </c>
       <c r="C95"/>
@@ -12880,7 +12926,7 @@
       <c r="E95"/>
     </row>
     <row r="96" s="1" customFormat="1" spans="2:5">
-      <c r="B96" s="20" t="s">
+      <c r="B96" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C96"/>
@@ -12888,7 +12934,7 @@
       <c r="E96"/>
     </row>
     <row r="97" s="1" customFormat="1" spans="2:5">
-      <c r="B97" s="20" t="s">
+      <c r="B97" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C97"/>
@@ -12896,7 +12942,7 @@
       <c r="E97"/>
     </row>
     <row r="98" s="1" customFormat="1" spans="2:5">
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="21" t="s">
         <v>54</v>
       </c>
       <c r="C98"/>
@@ -12904,7 +12950,7 @@
       <c r="E98"/>
     </row>
     <row r="99" s="1" customFormat="1" spans="2:5">
-      <c r="B99" s="20" t="s">
+      <c r="B99" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C99"/>
@@ -12912,7 +12958,7 @@
       <c r="E99"/>
     </row>
     <row r="100" s="1" customFormat="1" spans="2:5">
-      <c r="B100" s="20" t="s">
+      <c r="B100" s="21" t="s">
         <v>56</v>
       </c>
       <c r="C100"/>
@@ -12920,7 +12966,7 @@
       <c r="E100"/>
     </row>
     <row r="101" s="1" customFormat="1" spans="2:5">
-      <c r="B101" s="20" t="s">
+      <c r="B101" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C101"/>
@@ -12928,7 +12974,7 @@
       <c r="E101"/>
     </row>
     <row r="102" s="1" customFormat="1" spans="2:5">
-      <c r="B102" s="20" t="s">
+      <c r="B102" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C102"/>
@@ -12936,7 +12982,7 @@
       <c r="E102"/>
     </row>
     <row r="103" s="1" customFormat="1" spans="2:5">
-      <c r="B103" s="20" t="s">
+      <c r="B103" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C103"/>
@@ -12944,7 +12990,7 @@
       <c r="E103"/>
     </row>
     <row r="104" s="1" customFormat="1" spans="2:5">
-      <c r="B104" s="20" t="s">
+      <c r="B104" s="21" t="s">
         <v>58</v>
       </c>
       <c r="C104"/>
@@ -12952,7 +12998,7 @@
       <c r="E104"/>
     </row>
     <row r="105" s="1" customFormat="1" spans="2:5">
-      <c r="B105" s="20" t="s">
+      <c r="B105" s="21" t="s">
         <v>59</v>
       </c>
       <c r="C105"/>
@@ -12960,7 +13006,7 @@
       <c r="E105"/>
     </row>
     <row r="106" s="1" customFormat="1" spans="2:5">
-      <c r="B106" s="20" t="s">
+      <c r="B106" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C106"/>
@@ -12968,7 +13014,7 @@
       <c r="E106"/>
     </row>
     <row r="107" s="1" customFormat="1" spans="2:5">
-      <c r="B107" s="20" t="s">
+      <c r="B107" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C107"/>
@@ -12976,7 +13022,7 @@
       <c r="E107"/>
     </row>
     <row r="108" s="1" customFormat="1" spans="2:5">
-      <c r="B108" s="20" t="s">
+      <c r="B108" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C108"/>
@@ -12984,7 +13030,7 @@
       <c r="E108"/>
     </row>
     <row r="109" s="1" customFormat="1" spans="2:5">
-      <c r="B109" s="20" t="s">
+      <c r="B109" s="21" t="s">
         <v>56</v>
       </c>
       <c r="C109"/>
@@ -12992,7 +13038,7 @@
       <c r="E109"/>
     </row>
     <row r="110" s="1" customFormat="1" spans="2:5">
-      <c r="B110" s="20" t="s">
+      <c r="B110" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C110"/>
@@ -13000,7 +13046,7 @@
       <c r="E110"/>
     </row>
     <row r="111" s="1" customFormat="1" spans="2:5">
-      <c r="B111" s="20" t="s">
+      <c r="B111" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C111"/>
@@ -13008,7 +13054,7 @@
       <c r="E111"/>
     </row>
     <row r="112" s="1" customFormat="1" spans="2:5">
-      <c r="B112" s="20" t="s">
+      <c r="B112" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C112"/>
@@ -13016,7 +13062,7 @@
       <c r="E112"/>
     </row>
     <row r="113" s="1" customFormat="1" spans="2:5">
-      <c r="B113" s="20" t="s">
+      <c r="B113" s="21" t="s">
         <v>198</v>
       </c>
       <c r="C113"/>
@@ -13024,7 +13070,7 @@
       <c r="E113"/>
     </row>
     <row r="114" s="1" customFormat="1" spans="2:5">
-      <c r="B114" s="20" t="s">
+      <c r="B114" s="21" t="s">
         <v>199</v>
       </c>
       <c r="C114"/>
@@ -13032,7 +13078,7 @@
       <c r="E114"/>
     </row>
     <row r="115" s="1" customFormat="1" spans="2:5">
-      <c r="B115" s="20" t="s">
+      <c r="B115" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C115"/>
@@ -13040,7 +13086,7 @@
       <c r="E115"/>
     </row>
     <row r="116" s="1" customFormat="1" spans="2:5">
-      <c r="B116" s="20" t="s">
+      <c r="B116" s="21" t="s">
         <v>200</v>
       </c>
       <c r="C116"/>
@@ -13048,7 +13094,7 @@
       <c r="E116"/>
     </row>
     <row r="117" s="1" customFormat="1" spans="2:5">
-      <c r="B117" s="20" t="s">
+      <c r="B117" s="21" t="s">
         <v>201</v>
       </c>
       <c r="C117"/>
@@ -13056,7 +13102,7 @@
       <c r="E117"/>
     </row>
     <row r="118" s="1" customFormat="1" spans="2:5">
-      <c r="B118" s="20" t="s">
+      <c r="B118" s="21" t="s">
         <v>56</v>
       </c>
       <c r="C118"/>
@@ -13064,7 +13110,7 @@
       <c r="E118"/>
     </row>
     <row r="119" s="1" customFormat="1" spans="2:5">
-      <c r="B119" s="20" t="s">
+      <c r="B119" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C119"/>
@@ -13072,7 +13118,7 @@
       <c r="E119"/>
     </row>
     <row r="120" s="1" customFormat="1" spans="2:5">
-      <c r="B120" s="20" t="s">
+      <c r="B120" s="21" t="s">
         <v>62</v>
       </c>
       <c r="C120"/>
@@ -13080,7 +13126,7 @@
       <c r="E120"/>
     </row>
     <row r="121" s="1" customFormat="1" spans="2:5">
-      <c r="B121" s="20" t="s">
+      <c r="B121" s="21" t="s">
         <v>63</v>
       </c>
       <c r="C121"/>
@@ -13088,7 +13134,7 @@
       <c r="E121"/>
     </row>
     <row r="122" s="1" customFormat="1" spans="2:5">
-      <c r="B122" s="20" t="s">
+      <c r="B122" s="21" t="s">
         <v>64</v>
       </c>
       <c r="C122"/>
@@ -13096,7 +13142,7 @@
       <c r="E122"/>
     </row>
     <row r="123" s="1" customFormat="1" spans="2:5">
-      <c r="B123" s="20" t="s">
+      <c r="B123" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C123"/>
@@ -13104,7 +13150,7 @@
       <c r="E123"/>
     </row>
     <row r="124" s="1" customFormat="1" spans="2:5">
-      <c r="B124" s="20" t="s">
+      <c r="B124" s="21" t="s">
         <v>202</v>
       </c>
       <c r="C124"/>
@@ -13112,7 +13158,7 @@
       <c r="E124"/>
     </row>
     <row r="125" s="1" customFormat="1" spans="2:5">
-      <c r="B125" s="20" t="s">
+      <c r="B125" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C125"/>
@@ -13120,7 +13166,7 @@
       <c r="E125"/>
     </row>
     <row r="126" s="1" customFormat="1" spans="2:5">
-      <c r="B126" s="20" t="s">
+      <c r="B126" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C126"/>
@@ -13128,7 +13174,7 @@
       <c r="E126"/>
     </row>
     <row r="127" s="1" customFormat="1" spans="2:5">
-      <c r="B127" s="20" t="s">
+      <c r="B127" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C127"/>
@@ -13136,7 +13182,7 @@
       <c r="E127"/>
     </row>
     <row r="128" s="1" customFormat="1" spans="2:5">
-      <c r="B128" s="20" t="s">
+      <c r="B128" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C128"/>
@@ -13144,7 +13190,7 @@
       <c r="E128"/>
     </row>
     <row r="129" s="1" customFormat="1" spans="2:5">
-      <c r="B129" s="20" t="s">
+      <c r="B129" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C129"/>
@@ -13152,7 +13198,7 @@
       <c r="E129"/>
     </row>
     <row r="130" spans="2:5">
-      <c r="B130" s="20" t="s">
+      <c r="B130" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C130"/>
@@ -13160,7 +13206,7 @@
       <c r="E130"/>
     </row>
     <row r="131" spans="2:5">
-      <c r="B131" s="20" t="s">
+      <c r="B131" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C131"/>
@@ -13168,7 +13214,7 @@
       <c r="E131"/>
     </row>
     <row r="132" spans="2:5">
-      <c r="B132" s="20" t="s">
+      <c r="B132" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C132"/>
@@ -13176,7 +13222,7 @@
       <c r="E132"/>
     </row>
     <row r="133" spans="2:5">
-      <c r="B133" s="20" t="s">
+      <c r="B133" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C133"/>
@@ -13184,7 +13230,7 @@
       <c r="E133"/>
     </row>
     <row r="134" spans="2:5">
-      <c r="B134" s="20" t="s">
+      <c r="B134" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C134"/>
@@ -13192,7 +13238,7 @@
       <c r="E134"/>
     </row>
     <row r="135" spans="2:5">
-      <c r="B135" s="20" t="s">
+      <c r="B135" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C135"/>
@@ -13200,7 +13246,7 @@
       <c r="E135"/>
     </row>
     <row r="136" spans="2:5">
-      <c r="B136" s="20" t="s">
+      <c r="B136" s="21" t="s">
         <v>204</v>
       </c>
       <c r="C136"/>
@@ -13208,7 +13254,7 @@
       <c r="E136"/>
     </row>
     <row r="137" spans="2:5">
-      <c r="B137" s="20" t="s">
+      <c r="B137" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C137"/>
@@ -13216,7 +13262,7 @@
       <c r="E137"/>
     </row>
     <row r="138" spans="2:5">
-      <c r="B138" s="20" t="s">
+      <c r="B138" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C138"/>
@@ -13224,7 +13270,7 @@
       <c r="E138"/>
     </row>
     <row r="139" spans="2:5">
-      <c r="B139" s="20" t="s">
+      <c r="B139" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C139"/>
@@ -13232,7 +13278,7 @@
       <c r="E139"/>
     </row>
     <row r="140" spans="2:5">
-      <c r="B140" s="20" t="s">
+      <c r="B140" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C140"/>
@@ -13240,7 +13286,7 @@
       <c r="E140"/>
     </row>
     <row r="141" spans="2:5">
-      <c r="B141" s="20" t="s">
+      <c r="B141" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C141"/>
@@ -13248,7 +13294,7 @@
       <c r="E141"/>
     </row>
     <row r="142" spans="2:5">
-      <c r="B142" s="20" t="s">
+      <c r="B142" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C142"/>
@@ -13256,7 +13302,7 @@
       <c r="E142"/>
     </row>
     <row r="143" spans="2:5">
-      <c r="B143" s="20" t="s">
+      <c r="B143" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C143"/>
@@ -13264,7 +13310,7 @@
       <c r="E143"/>
     </row>
     <row r="144" spans="2:5">
-      <c r="B144" s="20" t="s">
+      <c r="B144" s="21" t="s">
         <v>39</v>
       </c>
       <c r="C144"/>
@@ -13272,7 +13318,7 @@
       <c r="E144"/>
     </row>
     <row r="145" spans="2:5">
-      <c r="B145" s="20" t="s">
+      <c r="B145" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C145"/>
@@ -13280,7 +13326,7 @@
       <c r="E145"/>
     </row>
     <row r="146" spans="2:5">
-      <c r="B146" s="20" t="s">
+      <c r="B146" s="21" t="s">
         <v>41</v>
       </c>
       <c r="C146"/>
@@ -13288,7 +13334,7 @@
       <c r="E146"/>
     </row>
     <row r="147" spans="2:5">
-      <c r="B147" s="20" t="s">
+      <c r="B147" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C147"/>
@@ -13302,7 +13348,7 @@
       <c r="E148"/>
     </row>
     <row r="149" spans="2:5">
-      <c r="B149" s="20" t="s">
+      <c r="B149" s="21" t="s">
         <v>63</v>
       </c>
       <c r="C149"/>
@@ -13310,7 +13356,7 @@
       <c r="E149"/>
     </row>
     <row r="150" spans="2:5">
-      <c r="B150" s="20" t="s">
+      <c r="B150" s="21" t="s">
         <v>142</v>
       </c>
       <c r="C150"/>
@@ -13318,7 +13364,7 @@
       <c r="E150"/>
     </row>
     <row r="151" spans="2:5">
-      <c r="B151" s="20" t="s">
+      <c r="B151" s="21" t="s">
         <v>143</v>
       </c>
       <c r="C151"/>
@@ -13326,7 +13372,7 @@
       <c r="E151"/>
     </row>
     <row r="152" spans="2:5">
-      <c r="B152" s="20" t="s">
+      <c r="B152" s="21" t="s">
         <v>146</v>
       </c>
       <c r="C152"/>
@@ -13334,7 +13380,7 @@
       <c r="E152"/>
     </row>
     <row r="153" spans="2:5">
-      <c r="B153" s="20" t="s">
+      <c r="B153" s="21" t="s">
         <v>144</v>
       </c>
       <c r="C153"/>
@@ -13342,7 +13388,7 @@
       <c r="E153"/>
     </row>
     <row r="154" spans="2:5">
-      <c r="B154" s="20" t="s">
+      <c r="B154" s="21" t="s">
         <v>205</v>
       </c>
       <c r="C154"/>
@@ -13350,7 +13396,7 @@
       <c r="E154"/>
     </row>
     <row r="155" spans="2:5">
-      <c r="B155" s="20" t="s">
+      <c r="B155" s="21" t="s">
         <v>149</v>
       </c>
       <c r="C155"/>
@@ -13358,7 +13404,7 @@
       <c r="E155"/>
     </row>
     <row r="156" spans="2:5">
-      <c r="B156" s="20" t="s">
+      <c r="B156" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C156"/>
@@ -13366,7 +13412,7 @@
       <c r="E156"/>
     </row>
     <row r="157" spans="2:5">
-      <c r="B157" s="20" t="s">
+      <c r="B157" s="21" t="s">
         <v>150</v>
       </c>
       <c r="C157"/>
@@ -13374,7 +13420,7 @@
       <c r="E157"/>
     </row>
     <row r="158" spans="2:5">
-      <c r="B158" s="20" t="s">
+      <c r="B158" s="21" t="s">
         <v>151</v>
       </c>
       <c r="C158"/>
@@ -13382,7 +13428,7 @@
       <c r="E158"/>
     </row>
     <row r="159" spans="2:5">
-      <c r="B159" s="20" t="s">
+      <c r="B159" s="21" t="s">
         <v>152</v>
       </c>
       <c r="C159"/>
@@ -13390,7 +13436,7 @@
       <c r="E159"/>
     </row>
     <row r="160" spans="2:5">
-      <c r="B160" s="20" t="s">
+      <c r="B160" s="21" t="s">
         <v>153</v>
       </c>
       <c r="C160"/>
@@ -13398,7 +13444,7 @@
       <c r="E160"/>
     </row>
     <row r="161" spans="2:5">
-      <c r="B161" s="20" t="s">
+      <c r="B161" s="21" t="s">
         <v>154</v>
       </c>
       <c r="C161"/>
@@ -13406,7 +13452,7 @@
       <c r="E161"/>
     </row>
     <row r="162" spans="2:5">
-      <c r="B162" s="20" t="s">
+      <c r="B162" s="21" t="s">
         <v>142</v>
       </c>
       <c r="C162"/>
@@ -13414,7 +13460,7 @@
       <c r="E162"/>
     </row>
     <row r="163" spans="2:5">
-      <c r="B163" s="20" t="s">
+      <c r="B163" s="21" t="s">
         <v>143</v>
       </c>
       <c r="C163"/>
@@ -13422,7 +13468,7 @@
       <c r="E163"/>
     </row>
     <row r="164" spans="2:5">
-      <c r="B164" s="20" t="s">
+      <c r="B164" s="21" t="s">
         <v>206</v>
       </c>
       <c r="C164"/>
@@ -13430,7 +13476,7 @@
       <c r="E164"/>
     </row>
     <row r="165" spans="2:5">
-      <c r="B165" s="20" t="s">
+      <c r="B165" s="21" t="s">
         <v>155</v>
       </c>
       <c r="C165"/>
@@ -13438,7 +13484,7 @@
       <c r="E165"/>
     </row>
     <row r="166" spans="2:5">
-      <c r="B166" s="20" t="s">
+      <c r="B166" s="21" t="s">
         <v>148</v>
       </c>
       <c r="C166"/>
@@ -13446,7 +13492,7 @@
       <c r="E166"/>
     </row>
     <row r="167" spans="2:5">
-      <c r="B167" s="20" t="s">
+      <c r="B167" s="21" t="s">
         <v>207</v>
       </c>
       <c r="C167"/>
@@ -13454,7 +13500,7 @@
       <c r="E167"/>
     </row>
     <row r="168" spans="2:5">
-      <c r="B168" s="20" t="s">
+      <c r="B168" s="21" t="s">
         <v>157</v>
       </c>
       <c r="C168"/>
@@ -13462,7 +13508,7 @@
       <c r="E168"/>
     </row>
     <row r="169" spans="2:5">
-      <c r="B169" s="20" t="s">
+      <c r="B169" s="21" t="s">
         <v>158</v>
       </c>
       <c r="C169"/>
@@ -13520,7 +13566,7 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="25" t="s">
         <v>209</v>
       </c>
       <c r="C2" s="9"/>
@@ -13557,857 +13603,857 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="21" customHeight="1" spans="1:5">
       <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
+      <c r="B5" s="26"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="21" customHeight="1" spans="1:5">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A7" s="14"/>
-      <c r="B7" s="19"/>
+      <c r="B7" s="20"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
       <c r="A8" s="14"/>
-      <c r="B8" s="19"/>
+      <c r="B8" s="20"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A9" s="14"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="14"/>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="14"/>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
       <c r="A12" s="14"/>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="19"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
       <c r="A13" s="14"/>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>84</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
       <c r="A14" s="14"/>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="19"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
       <c r="A15" s="14"/>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="19"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
       <c r="A16" s="14"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="19"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
       <c r="A17" s="14"/>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="19"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
       <c r="A18" s="14"/>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="19"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:5">
       <c r="A19" s="14"/>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="22"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="21" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="2:5">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="19"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:5">
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="23"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="19"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="2:5">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="23"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="21" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="21" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="2:5">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="21" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:5">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E28" s="3"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="2:5">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="21" t="s">
         <v>32</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="2:5">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="21" t="s">
         <v>33</v>
       </c>
       <c r="E30" s="3"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="2:5">
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="21" t="s">
         <v>34</v>
       </c>
       <c r="E31" s="3"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="2:5">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="21" t="s">
         <v>35</v>
       </c>
       <c r="E32" s="3"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="2:5">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E33" s="3"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="2:5">
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E34" s="3"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:5">
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="2:5">
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="21" t="s">
         <v>39</v>
       </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="2:5">
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="2:5">
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="21" t="s">
         <v>41</v>
       </c>
       <c r="E38" s="3"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="2:5">
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="21" t="s">
         <v>42</v>
       </c>
       <c r="E39" s="3"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="2:5">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E40" s="3"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:5">
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="21" t="s">
         <v>44</v>
       </c>
       <c r="E41" s="3"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:5">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E42" s="3"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="2:5">
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E43" s="3"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="2:5">
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E44" s="3"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="2:5">
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="21" t="s">
         <v>48</v>
       </c>
       <c r="E45" s="3"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="2:5">
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="21" t="s">
         <v>49</v>
       </c>
       <c r="E46" s="3"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="2:5">
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E47" s="3"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="2:5">
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E48" s="3"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="2:5">
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E49" s="3"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="2:5">
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="21" t="s">
         <v>52</v>
       </c>
       <c r="E50" s="3"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="2:5">
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="21" t="s">
         <v>53</v>
       </c>
       <c r="E51" s="3"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="2:5">
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E52" s="3"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="2:5">
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="21" t="s">
         <v>54</v>
       </c>
       <c r="E53" s="3"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="2:5">
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="21" t="s">
         <v>55</v>
       </c>
       <c r="E54" s="3"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="2:5">
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="21" t="s">
         <v>56</v>
       </c>
       <c r="E55" s="3"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="2:5">
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="21" t="s">
         <v>57</v>
       </c>
       <c r="E56" s="3"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="2:5">
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E57" s="3"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="2:5">
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E58" s="3"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="2:5">
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="21" t="s">
         <v>58</v>
       </c>
       <c r="E59" s="3"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="2:5">
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="21" t="s">
         <v>59</v>
       </c>
       <c r="E60" s="3"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="2:5">
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E61" s="3"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="2:5">
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="21" t="s">
         <v>60</v>
       </c>
       <c r="E62" s="3"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="2:5">
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="21" t="s">
         <v>61</v>
       </c>
       <c r="E63" s="3"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="2:5">
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="21" t="s">
         <v>56</v>
       </c>
       <c r="E64" s="3"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:5">
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="21" t="s">
         <v>57</v>
       </c>
       <c r="E65" s="3"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="2:5">
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="21" t="s">
         <v>62</v>
       </c>
       <c r="E66" s="3"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="2:5">
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="21" t="s">
         <v>63</v>
       </c>
       <c r="E67" s="3"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="2:5">
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E68" s="3"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="2:5">
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E69" s="3"/>
     </row>
     <row r="70" s="1" customFormat="1" spans="2:5">
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="21" t="s">
         <v>196</v>
       </c>
       <c r="E70" s="3"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="2:5">
-      <c r="B71" s="20" t="s">
+      <c r="B71" s="21" t="s">
         <v>197</v>
       </c>
       <c r="E71" s="3"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="2:5">
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E72" s="3"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="2:5">
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E73" s="3"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="2:5">
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="21" t="s">
         <v>23</v>
       </c>
       <c r="E74" s="3"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="2:5">
-      <c r="B75" s="20" t="s">
+      <c r="B75" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E75" s="3"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="2:5">
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="21" t="s">
         <v>25</v>
       </c>
       <c r="E76" s="3"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="2:5">
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="21" t="s">
         <v>26</v>
       </c>
       <c r="E77" s="3"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="2:5">
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E78" s="3"/>
     </row>
     <row r="79" s="1" customFormat="1" spans="2:5">
-      <c r="B79" s="20" t="s">
+      <c r="B79" s="21" t="s">
         <v>28</v>
       </c>
       <c r="E79" s="3"/>
     </row>
     <row r="80" s="1" customFormat="1" spans="2:5">
-      <c r="B80" s="20" t="s">
+      <c r="B80" s="21" t="s">
         <v>29</v>
       </c>
       <c r="E80" s="3"/>
     </row>
     <row r="81" s="1" customFormat="1" spans="2:5">
-      <c r="B81" s="20" t="s">
+      <c r="B81" s="21" t="s">
         <v>30</v>
       </c>
       <c r="E81" s="3"/>
     </row>
     <row r="82" s="1" customFormat="1" spans="2:5">
-      <c r="B82" s="20" t="s">
+      <c r="B82" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E82" s="3"/>
     </row>
     <row r="83" s="1" customFormat="1" spans="2:5">
-      <c r="B83" s="20" t="s">
+      <c r="B83" s="21" t="s">
         <v>32</v>
       </c>
       <c r="E83" s="3"/>
     </row>
     <row r="84" s="1" customFormat="1" spans="2:5">
-      <c r="B84" s="20" t="s">
+      <c r="B84" s="21" t="s">
         <v>33</v>
       </c>
       <c r="E84" s="3"/>
     </row>
     <row r="85" s="1" customFormat="1" spans="2:5">
-      <c r="B85" s="20" t="s">
+      <c r="B85" s="21" t="s">
         <v>34</v>
       </c>
       <c r="E85" s="3"/>
     </row>
     <row r="86" s="1" customFormat="1" spans="2:5">
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="21" t="s">
         <v>35</v>
       </c>
       <c r="E86" s="3"/>
     </row>
     <row r="87" s="1" customFormat="1" spans="2:5">
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E87" s="3"/>
     </row>
     <row r="88" s="1" customFormat="1" spans="2:5">
-      <c r="B88" s="20" t="s">
+      <c r="B88" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E88" s="3"/>
     </row>
     <row r="89" s="1" customFormat="1" spans="2:5">
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E89" s="3"/>
     </row>
     <row r="90" s="1" customFormat="1" spans="2:5">
-      <c r="B90" s="20" t="s">
+      <c r="B90" s="21" t="s">
         <v>39</v>
       </c>
       <c r="E90" s="3"/>
     </row>
     <row r="91" s="1" customFormat="1" spans="2:5">
-      <c r="B91" s="20" t="s">
+      <c r="B91" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E91" s="3"/>
     </row>
     <row r="92" s="1" customFormat="1" spans="2:5">
-      <c r="B92" s="20" t="s">
+      <c r="B92" s="21" t="s">
         <v>41</v>
       </c>
       <c r="E92" s="3"/>
     </row>
     <row r="93" s="1" customFormat="1" spans="2:5">
-      <c r="B93" s="20" t="s">
+      <c r="B93" s="21" t="s">
         <v>42</v>
       </c>
       <c r="E93" s="3"/>
     </row>
     <row r="94" s="1" customFormat="1" spans="2:5">
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E94" s="3"/>
     </row>
     <row r="95" s="1" customFormat="1" spans="2:5">
-      <c r="B95" s="20" t="s">
+      <c r="B95" s="21" t="s">
         <v>52</v>
       </c>
       <c r="E95" s="3"/>
     </row>
     <row r="96" s="1" customFormat="1" spans="2:5">
-      <c r="B96" s="20" t="s">
+      <c r="B96" s="21" t="s">
         <v>53</v>
       </c>
       <c r="E96" s="3"/>
     </row>
     <row r="97" s="1" customFormat="1" spans="2:5">
-      <c r="B97" s="20" t="s">
+      <c r="B97" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E97" s="3"/>
     </row>
     <row r="98" s="1" customFormat="1" spans="2:5">
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="21" t="s">
         <v>54</v>
       </c>
       <c r="E98" s="3"/>
     </row>
     <row r="99" s="1" customFormat="1" spans="2:5">
-      <c r="B99" s="20" t="s">
+      <c r="B99" s="21" t="s">
         <v>55</v>
       </c>
       <c r="E99" s="3"/>
     </row>
     <row r="100" s="1" customFormat="1" spans="2:5">
-      <c r="B100" s="20" t="s">
+      <c r="B100" s="21" t="s">
         <v>56</v>
       </c>
       <c r="E100" s="3"/>
     </row>
     <row r="101" s="1" customFormat="1" spans="2:5">
-      <c r="B101" s="20" t="s">
+      <c r="B101" s="21" t="s">
         <v>57</v>
       </c>
       <c r="E101" s="3"/>
     </row>
     <row r="102" s="1" customFormat="1" spans="2:5">
-      <c r="B102" s="20" t="s">
+      <c r="B102" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E102" s="3"/>
     </row>
     <row r="103" s="1" customFormat="1" spans="2:5">
-      <c r="B103" s="20" t="s">
+      <c r="B103" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E103" s="3"/>
     </row>
     <row r="104" s="1" customFormat="1" spans="2:5">
-      <c r="B104" s="20" t="s">
+      <c r="B104" s="21" t="s">
         <v>58</v>
       </c>
       <c r="E104" s="3"/>
     </row>
     <row r="105" s="1" customFormat="1" spans="2:5">
-      <c r="B105" s="20" t="s">
+      <c r="B105" s="21" t="s">
         <v>59</v>
       </c>
       <c r="E105" s="3"/>
     </row>
     <row r="106" s="1" customFormat="1" spans="2:5">
-      <c r="B106" s="20" t="s">
+      <c r="B106" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E106" s="3"/>
     </row>
     <row r="107" s="1" customFormat="1" spans="2:5">
-      <c r="B107" s="20" t="s">
+      <c r="B107" s="21" t="s">
         <v>60</v>
       </c>
       <c r="E107" s="3"/>
     </row>
     <row r="108" s="1" customFormat="1" spans="2:5">
-      <c r="B108" s="20" t="s">
+      <c r="B108" s="21" t="s">
         <v>61</v>
       </c>
       <c r="E108" s="3"/>
     </row>
     <row r="109" s="1" customFormat="1" spans="2:5">
-      <c r="B109" s="20" t="s">
+      <c r="B109" s="21" t="s">
         <v>56</v>
       </c>
       <c r="E109" s="3"/>
     </row>
     <row r="110" s="1" customFormat="1" spans="2:5">
-      <c r="B110" s="20" t="s">
+      <c r="B110" s="21" t="s">
         <v>57</v>
       </c>
       <c r="E110" s="3"/>
     </row>
     <row r="111" s="1" customFormat="1" spans="2:5">
-      <c r="B111" s="20" t="s">
+      <c r="B111" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E111" s="3"/>
     </row>
     <row r="112" s="1" customFormat="1" spans="2:5">
-      <c r="B112" s="20" t="s">
+      <c r="B112" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E112" s="3"/>
     </row>
     <row r="113" s="1" customFormat="1" spans="2:5">
-      <c r="B113" s="20" t="s">
+      <c r="B113" s="21" t="s">
         <v>198</v>
       </c>
       <c r="E113" s="3"/>
     </row>
     <row r="114" s="1" customFormat="1" spans="2:5">
-      <c r="B114" s="20" t="s">
+      <c r="B114" s="21" t="s">
         <v>199</v>
       </c>
       <c r="E114" s="3"/>
     </row>
     <row r="115" s="1" customFormat="1" spans="2:5">
-      <c r="B115" s="20" t="s">
+      <c r="B115" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E115" s="3"/>
     </row>
     <row r="116" s="1" customFormat="1" spans="2:5">
-      <c r="B116" s="20" t="s">
+      <c r="B116" s="21" t="s">
         <v>200</v>
       </c>
       <c r="E116" s="3"/>
     </row>
     <row r="117" s="1" customFormat="1" spans="2:5">
-      <c r="B117" s="20" t="s">
+      <c r="B117" s="21" t="s">
         <v>201</v>
       </c>
       <c r="E117" s="3"/>
     </row>
     <row r="118" s="1" customFormat="1" spans="2:5">
-      <c r="B118" s="20" t="s">
+      <c r="B118" s="21" t="s">
         <v>56</v>
       </c>
       <c r="E118" s="3"/>
     </row>
     <row r="119" s="1" customFormat="1" spans="2:5">
-      <c r="B119" s="20" t="s">
+      <c r="B119" s="21" t="s">
         <v>57</v>
       </c>
       <c r="E119" s="3"/>
     </row>
     <row r="120" s="1" customFormat="1" spans="2:5">
-      <c r="B120" s="20" t="s">
+      <c r="B120" s="21" t="s">
         <v>62</v>
       </c>
       <c r="E120" s="3"/>
     </row>
     <row r="121" s="1" customFormat="1" spans="2:5">
-      <c r="B121" s="20" t="s">
+      <c r="B121" s="21" t="s">
         <v>63</v>
       </c>
       <c r="E121" s="3"/>
     </row>
     <row r="122" s="1" customFormat="1" spans="2:5">
-      <c r="B122" s="20" t="s">
+      <c r="B122" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E122" s="3"/>
     </row>
     <row r="123" s="1" customFormat="1" spans="2:5">
-      <c r="B123" s="20" t="s">
+      <c r="B123" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E123" s="3"/>
     </row>
     <row r="124" s="1" customFormat="1" spans="2:5">
-      <c r="B124" s="20" t="s">
+      <c r="B124" s="21" t="s">
         <v>202</v>
       </c>
       <c r="E124" s="3"/>
     </row>
     <row r="125" s="1" customFormat="1" spans="2:5">
-      <c r="B125" s="20" t="s">
+      <c r="B125" s="21" t="s">
         <v>203</v>
       </c>
       <c r="E125" s="3"/>
     </row>
     <row r="126" s="1" customFormat="1" spans="2:5">
-      <c r="B126" s="20" t="s">
+      <c r="B126" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E126" s="3"/>
     </row>
     <row r="127" s="1" customFormat="1" spans="2:5">
-      <c r="B127" s="20" t="s">
+      <c r="B127" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E127" s="3"/>
     </row>
     <row r="128" s="1" customFormat="1" spans="2:5">
-      <c r="B128" s="20" t="s">
+      <c r="B128" s="21" t="s">
         <v>23</v>
       </c>
       <c r="E128" s="3"/>
     </row>
     <row r="129" s="1" customFormat="1" spans="2:5">
-      <c r="B129" s="20" t="s">
+      <c r="B129" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E129" s="3"/>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="20" t="s">
+      <c r="B130" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="20" t="s">
+      <c r="B131" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="20" t="s">
+      <c r="B132" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="20" t="s">
+      <c r="B133" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="20" t="s">
+      <c r="B134" s="21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="20" t="s">
+      <c r="B135" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="20" t="s">
+      <c r="B136" s="21" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="20" t="s">
+      <c r="B137" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="20" t="s">
+      <c r="B138" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="139" spans="2:2">
-      <c r="B139" s="20" t="s">
+      <c r="B139" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="20" t="s">
+      <c r="B140" s="21" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="141" spans="2:2">
-      <c r="B141" s="20" t="s">
+      <c r="B141" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="142" spans="2:2">
-      <c r="B142" s="20" t="s">
+      <c r="B142" s="21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="143" spans="2:2">
-      <c r="B143" s="20" t="s">
+      <c r="B143" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="144" spans="2:2">
-      <c r="B144" s="20" t="s">
+      <c r="B144" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" s="20" t="s">
+      <c r="B145" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="146" spans="2:2">
-      <c r="B146" s="20" t="s">
+      <c r="B146" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="147" spans="2:2">
-      <c r="B147" s="20" t="s">
+      <c r="B147" s="21" t="s">
         <v>42</v>
       </c>
     </row>
@@ -14415,107 +14461,107 @@
       <c r="B148"/>
     </row>
     <row r="149" spans="2:2">
-      <c r="B149" s="20" t="s">
+      <c r="B149" s="21" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="150" spans="2:2">
-      <c r="B150" s="20" t="s">
+      <c r="B150" s="21" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="20" t="s">
+      <c r="B151" s="21" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="152" spans="2:2">
-      <c r="B152" s="20" t="s">
+      <c r="B152" s="21" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="153" spans="2:2">
-      <c r="B153" s="20" t="s">
+      <c r="B153" s="21" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="154" spans="2:2">
-      <c r="B154" s="20" t="s">
+      <c r="B154" s="21" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="155" spans="2:2">
-      <c r="B155" s="20" t="s">
+      <c r="B155" s="21" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="156" spans="2:2">
-      <c r="B156" s="20" t="s">
+      <c r="B156" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="157" spans="2:2">
-      <c r="B157" s="20" t="s">
+      <c r="B157" s="21" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="158" spans="2:2">
-      <c r="B158" s="20" t="s">
+      <c r="B158" s="21" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="159" spans="2:2">
-      <c r="B159" s="20" t="s">
+      <c r="B159" s="21" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="160" spans="2:2">
-      <c r="B160" s="20" t="s">
+      <c r="B160" s="21" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="161" spans="2:2">
-      <c r="B161" s="20" t="s">
+      <c r="B161" s="21" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="162" spans="2:2">
-      <c r="B162" s="20" t="s">
+      <c r="B162" s="21" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="163" spans="2:2">
-      <c r="B163" s="20" t="s">
+      <c r="B163" s="21" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="164" spans="2:2">
-      <c r="B164" s="20" t="s">
+      <c r="B164" s="21" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="165" spans="2:2">
-      <c r="B165" s="20" t="s">
+      <c r="B165" s="21" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="166" spans="2:2">
-      <c r="B166" s="20" t="s">
+      <c r="B166" s="21" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="167" spans="2:2">
-      <c r="B167" s="20" t="s">
+      <c r="B167" s="21" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="168" spans="2:2">
-      <c r="B168" s="20" t="s">
+      <c r="B168" s="21" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="169" spans="2:2">
-      <c r="B169" s="20" t="s">
+      <c r="B169" s="21" t="s">
         <v>158</v>
       </c>
     </row>
@@ -14570,7 +14616,7 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="25" t="s">
         <v>211</v>
       </c>
       <c r="C2" s="9"/>
@@ -14607,528 +14653,528 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="21" customHeight="1" spans="1:5">
       <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
+      <c r="B5" s="26"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="21" customHeight="1" spans="1:5">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A7" s="14"/>
-      <c r="B7" s="19"/>
+      <c r="B7" s="20"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
       <c r="A8" s="14"/>
-      <c r="B8" s="19"/>
+      <c r="B8" s="20"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A9" s="14"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="14"/>
-      <c r="B10" s="20"/>
-      <c r="E10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="14"/>
-      <c r="B11" s="20"/>
-      <c r="E11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
       <c r="A12" s="14"/>
-      <c r="B12" s="20"/>
-      <c r="E12" s="19"/>
+      <c r="B12" s="21"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
       <c r="A13" s="14"/>
-      <c r="B13" s="20"/>
+      <c r="B13" s="21"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
       <c r="A14" s="14"/>
-      <c r="B14" s="20"/>
-      <c r="E14" s="19"/>
+      <c r="B14" s="21"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
       <c r="A15" s="14"/>
-      <c r="B15" s="20"/>
-      <c r="E15" s="19"/>
+      <c r="B15" s="21"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
       <c r="A16" s="14"/>
-      <c r="B16" s="20"/>
-      <c r="E16" s="19"/>
+      <c r="B16" s="21"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
       <c r="A17" s="14"/>
-      <c r="B17" s="20"/>
-      <c r="E17" s="19"/>
+      <c r="B17" s="21"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
       <c r="A18" s="14"/>
-      <c r="B18" s="20"/>
-      <c r="E18" s="19"/>
+      <c r="B18" s="21"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:5">
       <c r="A19" s="14"/>
-      <c r="B19" s="20"/>
+      <c r="B19" s="21"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="22"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="21"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="2:5">
-      <c r="B21" s="20"/>
-      <c r="E21" s="19"/>
+      <c r="B21" s="21"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:5">
-      <c r="B22" s="20"/>
-      <c r="E22" s="23"/>
+      <c r="B22" s="21"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B23" s="20"/>
-      <c r="E23" s="19"/>
+      <c r="B23" s="21"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="2:5">
-      <c r="B24" s="20"/>
-      <c r="E24" s="23"/>
+      <c r="B24" s="21"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
-      <c r="B25" s="20"/>
+      <c r="B25" s="21"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
-      <c r="B26" s="20"/>
+      <c r="B26" s="21"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="2:5">
-      <c r="B27" s="20"/>
+      <c r="B27" s="21"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:5">
-      <c r="B28" s="20"/>
+      <c r="B28" s="21"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="2:5">
-      <c r="B29" s="20"/>
+      <c r="B29" s="21"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="2:5">
-      <c r="B30" s="20"/>
+      <c r="B30" s="21"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="2:5">
-      <c r="B31" s="20"/>
+      <c r="B31" s="21"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="2:5">
-      <c r="B32" s="20"/>
+      <c r="B32" s="21"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="2:5">
-      <c r="B33" s="20"/>
+      <c r="B33" s="21"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="2:5">
-      <c r="B34" s="20"/>
+      <c r="B34" s="21"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:5">
-      <c r="B35" s="20"/>
+      <c r="B35" s="21"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="2:5">
-      <c r="B36" s="20"/>
+      <c r="B36" s="21"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="2:5">
-      <c r="B37" s="20"/>
+      <c r="B37" s="21"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="2:5">
-      <c r="B38" s="20"/>
+      <c r="B38" s="21"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="2:5">
-      <c r="B39" s="20"/>
+      <c r="B39" s="21"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="2:5">
-      <c r="B40" s="20"/>
+      <c r="B40" s="21"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:5">
-      <c r="B41" s="20"/>
+      <c r="B41" s="21"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:5">
-      <c r="B42" s="20"/>
+      <c r="B42" s="21"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="2:5">
-      <c r="B43" s="20"/>
+      <c r="B43" s="21"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="2:5">
-      <c r="B44" s="20"/>
+      <c r="B44" s="21"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="2:5">
-      <c r="B45" s="20"/>
+      <c r="B45" s="21"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="2:5">
-      <c r="B46" s="20"/>
+      <c r="B46" s="21"/>
       <c r="E46" s="3"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="2:5">
-      <c r="B47" s="20"/>
+      <c r="B47" s="21"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="2:5">
-      <c r="B48" s="20"/>
+      <c r="B48" s="21"/>
       <c r="E48" s="3"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="2:5">
-      <c r="B49" s="20"/>
+      <c r="B49" s="21"/>
       <c r="E49" s="3"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="2:5">
-      <c r="B50" s="20"/>
+      <c r="B50" s="21"/>
       <c r="E50" s="3"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="2:5">
-      <c r="B51" s="20"/>
+      <c r="B51" s="21"/>
       <c r="E51" s="3"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="2:5">
-      <c r="B52" s="20"/>
+      <c r="B52" s="21"/>
       <c r="E52" s="3"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="2:5">
-      <c r="B53" s="20"/>
+      <c r="B53" s="21"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="2:5">
-      <c r="B54" s="20"/>
+      <c r="B54" s="21"/>
       <c r="E54" s="3"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="2:5">
-      <c r="B55" s="20"/>
+      <c r="B55" s="21"/>
       <c r="E55" s="3"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="2:5">
-      <c r="B56" s="20"/>
+      <c r="B56" s="21"/>
       <c r="E56" s="3"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="2:5">
-      <c r="B57" s="20"/>
+      <c r="B57" s="21"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="2:5">
-      <c r="B58" s="20"/>
+      <c r="B58" s="21"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="2:5">
-      <c r="B59" s="20"/>
+      <c r="B59" s="21"/>
       <c r="E59" s="3"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="2:5">
-      <c r="B60" s="20"/>
+      <c r="B60" s="21"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="2:5">
-      <c r="B61" s="20"/>
+      <c r="B61" s="21"/>
       <c r="E61" s="3"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="2:5">
-      <c r="B62" s="20"/>
+      <c r="B62" s="21"/>
       <c r="E62" s="3"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="2:5">
-      <c r="B63" s="20"/>
+      <c r="B63" s="21"/>
       <c r="E63" s="3"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="2:5">
-      <c r="B64" s="20"/>
+      <c r="B64" s="21"/>
       <c r="E64" s="3"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:5">
-      <c r="B65" s="20"/>
+      <c r="B65" s="21"/>
       <c r="E65" s="3"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="2:5">
-      <c r="B66" s="20"/>
+      <c r="B66" s="21"/>
       <c r="E66" s="3"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="2:5">
-      <c r="B67" s="20"/>
+      <c r="B67" s="21"/>
       <c r="E67" s="3"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="2:5">
-      <c r="B68" s="20"/>
+      <c r="B68" s="21"/>
       <c r="E68" s="3"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="2:5">
-      <c r="B69" s="20"/>
+      <c r="B69" s="21"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" s="1" customFormat="1" spans="2:5">
-      <c r="B70" s="20"/>
+      <c r="B70" s="21"/>
       <c r="E70" s="3"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="2:5">
-      <c r="B71" s="20"/>
+      <c r="B71" s="21"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="2:5">
-      <c r="B72" s="20"/>
+      <c r="B72" s="21"/>
       <c r="E72" s="3"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="2:5">
-      <c r="B73" s="20"/>
+      <c r="B73" s="21"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="2:5">
-      <c r="B74" s="20"/>
+      <c r="B74" s="21"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="2:5">
-      <c r="B75" s="20"/>
+      <c r="B75" s="21"/>
       <c r="E75" s="3"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="2:5">
-      <c r="B76" s="20"/>
+      <c r="B76" s="21"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="2:5">
-      <c r="B77" s="20"/>
+      <c r="B77" s="21"/>
       <c r="E77" s="3"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="2:5">
-      <c r="B78" s="20"/>
+      <c r="B78" s="21"/>
       <c r="E78" s="3"/>
     </row>
     <row r="79" s="1" customFormat="1" spans="2:5">
-      <c r="B79" s="20"/>
+      <c r="B79" s="21"/>
       <c r="E79" s="3"/>
     </row>
     <row r="80" s="1" customFormat="1" spans="2:5">
-      <c r="B80" s="20"/>
+      <c r="B80" s="21"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" s="1" customFormat="1" spans="2:5">
-      <c r="B81" s="20"/>
+      <c r="B81" s="21"/>
       <c r="E81" s="3"/>
     </row>
     <row r="82" s="1" customFormat="1" spans="2:5">
-      <c r="B82" s="20"/>
+      <c r="B82" s="21"/>
       <c r="E82" s="3"/>
     </row>
     <row r="83" s="1" customFormat="1" spans="2:5">
-      <c r="B83" s="20"/>
+      <c r="B83" s="21"/>
       <c r="E83" s="3"/>
     </row>
     <row r="84" s="1" customFormat="1" spans="2:5">
-      <c r="B84" s="20"/>
+      <c r="B84" s="21"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" s="1" customFormat="1" spans="2:5">
-      <c r="B85" s="20"/>
+      <c r="B85" s="21"/>
       <c r="E85" s="3"/>
     </row>
     <row r="86" s="1" customFormat="1" spans="2:5">
-      <c r="B86" s="20"/>
+      <c r="B86" s="21"/>
       <c r="E86" s="3"/>
     </row>
     <row r="87" s="1" customFormat="1" spans="2:5">
-      <c r="B87" s="20"/>
+      <c r="B87" s="21"/>
       <c r="E87" s="3"/>
     </row>
     <row r="88" s="1" customFormat="1" spans="2:5">
-      <c r="B88" s="20"/>
+      <c r="B88" s="21"/>
       <c r="E88" s="3"/>
     </row>
     <row r="89" s="1" customFormat="1" spans="2:5">
-      <c r="B89" s="20"/>
+      <c r="B89" s="21"/>
       <c r="E89" s="3"/>
     </row>
     <row r="90" s="1" customFormat="1" spans="2:5">
-      <c r="B90" s="20"/>
+      <c r="B90" s="21"/>
       <c r="E90" s="3"/>
     </row>
     <row r="91" s="1" customFormat="1" spans="2:5">
-      <c r="B91" s="20"/>
+      <c r="B91" s="21"/>
       <c r="E91" s="3"/>
     </row>
     <row r="92" s="1" customFormat="1" spans="2:5">
-      <c r="B92" s="20"/>
+      <c r="B92" s="21"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93" s="1" customFormat="1" spans="2:5">
-      <c r="B93" s="20"/>
+      <c r="B93" s="21"/>
       <c r="E93" s="3"/>
     </row>
     <row r="94" s="1" customFormat="1" spans="2:5">
-      <c r="B94" s="20"/>
+      <c r="B94" s="21"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95" s="1" customFormat="1" spans="2:5">
-      <c r="B95" s="20"/>
+      <c r="B95" s="21"/>
       <c r="E95" s="3"/>
     </row>
     <row r="96" s="1" customFormat="1" spans="2:5">
-      <c r="B96" s="20"/>
+      <c r="B96" s="21"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97" s="1" customFormat="1" spans="2:5">
-      <c r="B97" s="20"/>
+      <c r="B97" s="21"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" s="1" customFormat="1" spans="2:5">
-      <c r="B98" s="20"/>
+      <c r="B98" s="21"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" s="1" customFormat="1" spans="2:5">
-      <c r="B99" s="20"/>
+      <c r="B99" s="21"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" s="1" customFormat="1" spans="2:5">
-      <c r="B100" s="20"/>
+      <c r="B100" s="21"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" s="1" customFormat="1" spans="2:5">
-      <c r="B101" s="20"/>
+      <c r="B101" s="21"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" s="1" customFormat="1" spans="2:5">
-      <c r="B102" s="20"/>
+      <c r="B102" s="21"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" s="1" customFormat="1" spans="2:5">
-      <c r="B103" s="20"/>
+      <c r="B103" s="21"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" s="1" customFormat="1" spans="2:5">
-      <c r="B104" s="20"/>
+      <c r="B104" s="21"/>
       <c r="E104" s="3"/>
     </row>
     <row r="105" s="1" customFormat="1" spans="2:5">
-      <c r="B105" s="20"/>
+      <c r="B105" s="21"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" s="1" customFormat="1" spans="2:5">
-      <c r="B106" s="20"/>
+      <c r="B106" s="21"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" s="1" customFormat="1" spans="2:5">
-      <c r="B107" s="20"/>
+      <c r="B107" s="21"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" s="1" customFormat="1" spans="2:5">
-      <c r="B108" s="20"/>
+      <c r="B108" s="21"/>
       <c r="E108" s="3"/>
     </row>
     <row r="109" s="1" customFormat="1" spans="2:5">
-      <c r="B109" s="20"/>
+      <c r="B109" s="21"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" s="1" customFormat="1" spans="2:5">
-      <c r="B110" s="20"/>
+      <c r="B110" s="21"/>
       <c r="E110" s="3"/>
     </row>
     <row r="111" s="1" customFormat="1" spans="2:5">
-      <c r="B111" s="20"/>
+      <c r="B111" s="21"/>
       <c r="E111" s="3"/>
     </row>
     <row r="112" s="1" customFormat="1" spans="2:5">
-      <c r="B112" s="20"/>
+      <c r="B112" s="21"/>
       <c r="E112" s="3"/>
     </row>
     <row r="113" s="1" customFormat="1" spans="2:5">
-      <c r="B113" s="20"/>
+      <c r="B113" s="21"/>
       <c r="E113" s="3"/>
     </row>
     <row r="114" s="1" customFormat="1" spans="2:5">
-      <c r="B114" s="20"/>
+      <c r="B114" s="21"/>
       <c r="E114" s="3"/>
     </row>
     <row r="115" s="1" customFormat="1" spans="2:5">
-      <c r="B115" s="20"/>
+      <c r="B115" s="21"/>
       <c r="E115" s="3"/>
     </row>
     <row r="116" s="1" customFormat="1" spans="2:5">
-      <c r="B116" s="20"/>
+      <c r="B116" s="21"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" s="1" customFormat="1" spans="2:5">
-      <c r="B117" s="20"/>
+      <c r="B117" s="21"/>
       <c r="E117" s="3"/>
     </row>
     <row r="118" s="1" customFormat="1" spans="2:5">
-      <c r="B118" s="20"/>
+      <c r="B118" s="21"/>
       <c r="E118" s="3"/>
     </row>
     <row r="119" s="1" customFormat="1" spans="2:5">
-      <c r="B119" s="20"/>
+      <c r="B119" s="21"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120" s="1" customFormat="1" spans="2:5">
-      <c r="B120" s="20"/>
+      <c r="B120" s="21"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" s="1" customFormat="1" spans="2:5">
-      <c r="B121" s="20"/>
+      <c r="B121" s="21"/>
       <c r="E121" s="3"/>
     </row>
     <row r="122" s="1" customFormat="1" spans="2:5">
-      <c r="B122" s="20"/>
+      <c r="B122" s="21"/>
       <c r="E122" s="3"/>
     </row>
     <row r="123" s="1" customFormat="1" spans="2:5">
-      <c r="B123" s="20"/>
+      <c r="B123" s="21"/>
       <c r="E123" s="3"/>
     </row>
     <row r="124" s="1" customFormat="1" spans="2:5">
-      <c r="B124" s="20"/>
+      <c r="B124" s="21"/>
       <c r="E124" s="3"/>
     </row>
     <row r="125" s="1" customFormat="1" spans="2:5">
-      <c r="B125" s="20"/>
+      <c r="B125" s="21"/>
       <c r="E125" s="3"/>
     </row>
     <row r="126" s="1" customFormat="1" spans="2:5">
-      <c r="B126" s="20"/>
+      <c r="B126" s="21"/>
       <c r="E126" s="3"/>
     </row>
     <row r="127" s="1" customFormat="1" spans="2:5">
-      <c r="B127" s="20"/>
+      <c r="B127" s="21"/>
       <c r="E127" s="3"/>
     </row>
     <row r="128" s="1" customFormat="1" spans="2:5">
-      <c r="B128" s="20"/>
+      <c r="B128" s="21"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" s="1" customFormat="1" spans="2:5">
-      <c r="B129" s="20"/>
+      <c r="B129" s="21"/>
       <c r="E129" s="3"/>
     </row>
   </sheetData>
@@ -15182,7 +15228,7 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="25" t="s">
         <v>213</v>
       </c>
       <c r="C2" s="9"/>
@@ -15219,530 +15265,530 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="21" customHeight="1" spans="1:5">
       <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
+      <c r="B5" s="26"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="21" customHeight="1" spans="1:5">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A7" s="14"/>
-      <c r="B7" s="19"/>
+      <c r="B7" s="20"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
       <c r="A8" s="14"/>
-      <c r="B8" s="19"/>
+      <c r="B8" s="20"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A9" s="14"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="14"/>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="14"/>
-      <c r="B11" s="20"/>
-      <c r="E11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
       <c r="A12" s="14"/>
-      <c r="B12" s="20"/>
-      <c r="E12" s="19"/>
+      <c r="B12" s="21"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
       <c r="A13" s="14"/>
-      <c r="B13" s="20"/>
+      <c r="B13" s="21"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
       <c r="A14" s="14"/>
-      <c r="B14" s="20"/>
-      <c r="E14" s="19"/>
+      <c r="B14" s="21"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
       <c r="A15" s="14"/>
-      <c r="B15" s="20"/>
-      <c r="E15" s="19"/>
+      <c r="B15" s="21"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
       <c r="A16" s="14"/>
-      <c r="B16" s="20"/>
-      <c r="E16" s="19"/>
+      <c r="B16" s="21"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
       <c r="A17" s="14"/>
-      <c r="B17" s="20"/>
-      <c r="E17" s="19"/>
+      <c r="B17" s="21"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
       <c r="A18" s="14"/>
-      <c r="B18" s="20"/>
-      <c r="E18" s="19"/>
+      <c r="B18" s="21"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:5">
       <c r="A19" s="14"/>
-      <c r="B19" s="20"/>
+      <c r="B19" s="21"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="22"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="21"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="2:5">
-      <c r="B21" s="20"/>
-      <c r="E21" s="19"/>
+      <c r="B21" s="21"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:5">
-      <c r="B22" s="20"/>
-      <c r="E22" s="23"/>
+      <c r="B22" s="21"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B23" s="20"/>
-      <c r="E23" s="19"/>
+      <c r="B23" s="21"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="2:5">
-      <c r="B24" s="20"/>
-      <c r="E24" s="23"/>
+      <c r="B24" s="21"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
-      <c r="B25" s="20"/>
+      <c r="B25" s="21"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
-      <c r="B26" s="20"/>
+      <c r="B26" s="21"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="2:5">
-      <c r="B27" s="20"/>
+      <c r="B27" s="21"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:5">
-      <c r="B28" s="20"/>
+      <c r="B28" s="21"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="2:5">
-      <c r="B29" s="20"/>
+      <c r="B29" s="21"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="2:5">
-      <c r="B30" s="20"/>
+      <c r="B30" s="21"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="2:5">
-      <c r="B31" s="20"/>
+      <c r="B31" s="21"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="2:5">
-      <c r="B32" s="20"/>
+      <c r="B32" s="21"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="2:5">
-      <c r="B33" s="20"/>
+      <c r="B33" s="21"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="2:5">
-      <c r="B34" s="20"/>
+      <c r="B34" s="21"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:5">
-      <c r="B35" s="20"/>
+      <c r="B35" s="21"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="2:5">
-      <c r="B36" s="20"/>
+      <c r="B36" s="21"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="2:5">
-      <c r="B37" s="20"/>
+      <c r="B37" s="21"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="2:5">
-      <c r="B38" s="20"/>
+      <c r="B38" s="21"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="2:5">
-      <c r="B39" s="20"/>
+      <c r="B39" s="21"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="2:5">
-      <c r="B40" s="20"/>
+      <c r="B40" s="21"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:5">
-      <c r="B41" s="20"/>
+      <c r="B41" s="21"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:5">
-      <c r="B42" s="20"/>
+      <c r="B42" s="21"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="2:5">
-      <c r="B43" s="20"/>
+      <c r="B43" s="21"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="2:5">
-      <c r="B44" s="20"/>
+      <c r="B44" s="21"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="2:5">
-      <c r="B45" s="20"/>
+      <c r="B45" s="21"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="2:5">
-      <c r="B46" s="20"/>
+      <c r="B46" s="21"/>
       <c r="E46" s="3"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="2:5">
-      <c r="B47" s="20"/>
+      <c r="B47" s="21"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="2:5">
-      <c r="B48" s="20"/>
+      <c r="B48" s="21"/>
       <c r="E48" s="3"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="2:5">
-      <c r="B49" s="20"/>
+      <c r="B49" s="21"/>
       <c r="E49" s="3"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="2:5">
-      <c r="B50" s="20"/>
+      <c r="B50" s="21"/>
       <c r="E50" s="3"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="2:5">
-      <c r="B51" s="20"/>
+      <c r="B51" s="21"/>
       <c r="E51" s="3"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="2:5">
-      <c r="B52" s="20"/>
+      <c r="B52" s="21"/>
       <c r="E52" s="3"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="2:5">
-      <c r="B53" s="20"/>
+      <c r="B53" s="21"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="2:5">
-      <c r="B54" s="20"/>
+      <c r="B54" s="21"/>
       <c r="E54" s="3"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="2:5">
-      <c r="B55" s="20"/>
+      <c r="B55" s="21"/>
       <c r="E55" s="3"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="2:5">
-      <c r="B56" s="20"/>
+      <c r="B56" s="21"/>
       <c r="E56" s="3"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="2:5">
-      <c r="B57" s="20"/>
+      <c r="B57" s="21"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="2:5">
-      <c r="B58" s="20"/>
+      <c r="B58" s="21"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="2:5">
-      <c r="B59" s="20"/>
+      <c r="B59" s="21"/>
       <c r="E59" s="3"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="2:5">
-      <c r="B60" s="20"/>
+      <c r="B60" s="21"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="2:5">
-      <c r="B61" s="20"/>
+      <c r="B61" s="21"/>
       <c r="E61" s="3"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="2:5">
-      <c r="B62" s="20"/>
+      <c r="B62" s="21"/>
       <c r="E62" s="3"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="2:5">
-      <c r="B63" s="20"/>
+      <c r="B63" s="21"/>
       <c r="E63" s="3"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="2:5">
-      <c r="B64" s="20"/>
+      <c r="B64" s="21"/>
       <c r="E64" s="3"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:5">
-      <c r="B65" s="20"/>
+      <c r="B65" s="21"/>
       <c r="E65" s="3"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="2:5">
-      <c r="B66" s="20"/>
+      <c r="B66" s="21"/>
       <c r="E66" s="3"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="2:5">
-      <c r="B67" s="20"/>
+      <c r="B67" s="21"/>
       <c r="E67" s="3"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="2:5">
-      <c r="B68" s="20"/>
+      <c r="B68" s="21"/>
       <c r="E68" s="3"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="2:5">
-      <c r="B69" s="20"/>
+      <c r="B69" s="21"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" s="1" customFormat="1" spans="2:5">
-      <c r="B70" s="20"/>
+      <c r="B70" s="21"/>
       <c r="E70" s="3"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="2:5">
-      <c r="B71" s="20"/>
+      <c r="B71" s="21"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="2:5">
-      <c r="B72" s="20"/>
+      <c r="B72" s="21"/>
       <c r="E72" s="3"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="2:5">
-      <c r="B73" s="20"/>
+      <c r="B73" s="21"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="2:5">
-      <c r="B74" s="20"/>
+      <c r="B74" s="21"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="2:5">
-      <c r="B75" s="20"/>
+      <c r="B75" s="21"/>
       <c r="E75" s="3"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="2:5">
-      <c r="B76" s="20"/>
+      <c r="B76" s="21"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="2:5">
-      <c r="B77" s="20"/>
+      <c r="B77" s="21"/>
       <c r="E77" s="3"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="2:5">
-      <c r="B78" s="20"/>
+      <c r="B78" s="21"/>
       <c r="E78" s="3"/>
     </row>
     <row r="79" s="1" customFormat="1" spans="2:5">
-      <c r="B79" s="20"/>
+      <c r="B79" s="21"/>
       <c r="E79" s="3"/>
     </row>
     <row r="80" s="1" customFormat="1" spans="2:5">
-      <c r="B80" s="20"/>
+      <c r="B80" s="21"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" s="1" customFormat="1" spans="2:5">
-      <c r="B81" s="20"/>
+      <c r="B81" s="21"/>
       <c r="E81" s="3"/>
     </row>
     <row r="82" s="1" customFormat="1" spans="2:5">
-      <c r="B82" s="20"/>
+      <c r="B82" s="21"/>
       <c r="E82" s="3"/>
     </row>
     <row r="83" s="1" customFormat="1" spans="2:5">
-      <c r="B83" s="20"/>
+      <c r="B83" s="21"/>
       <c r="E83" s="3"/>
     </row>
     <row r="84" s="1" customFormat="1" spans="2:5">
-      <c r="B84" s="20"/>
+      <c r="B84" s="21"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" s="1" customFormat="1" spans="2:5">
-      <c r="B85" s="20"/>
+      <c r="B85" s="21"/>
       <c r="E85" s="3"/>
     </row>
     <row r="86" s="1" customFormat="1" spans="2:5">
-      <c r="B86" s="20"/>
+      <c r="B86" s="21"/>
       <c r="E86" s="3"/>
     </row>
     <row r="87" s="1" customFormat="1" spans="2:5">
-      <c r="B87" s="20"/>
+      <c r="B87" s="21"/>
       <c r="E87" s="3"/>
     </row>
     <row r="88" s="1" customFormat="1" spans="2:5">
-      <c r="B88" s="20"/>
+      <c r="B88" s="21"/>
       <c r="E88" s="3"/>
     </row>
     <row r="89" s="1" customFormat="1" spans="2:5">
-      <c r="B89" s="20"/>
+      <c r="B89" s="21"/>
       <c r="E89" s="3"/>
     </row>
     <row r="90" s="1" customFormat="1" spans="2:5">
-      <c r="B90" s="20"/>
+      <c r="B90" s="21"/>
       <c r="E90" s="3"/>
     </row>
     <row r="91" s="1" customFormat="1" spans="2:5">
-      <c r="B91" s="20"/>
+      <c r="B91" s="21"/>
       <c r="E91" s="3"/>
     </row>
     <row r="92" s="1" customFormat="1" spans="2:5">
-      <c r="B92" s="20"/>
+      <c r="B92" s="21"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93" s="1" customFormat="1" spans="2:5">
-      <c r="B93" s="20"/>
+      <c r="B93" s="21"/>
       <c r="E93" s="3"/>
     </row>
     <row r="94" s="1" customFormat="1" spans="2:5">
-      <c r="B94" s="20"/>
+      <c r="B94" s="21"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95" s="1" customFormat="1" spans="2:5">
-      <c r="B95" s="20"/>
+      <c r="B95" s="21"/>
       <c r="E95" s="3"/>
     </row>
     <row r="96" s="1" customFormat="1" spans="2:5">
-      <c r="B96" s="20"/>
+      <c r="B96" s="21"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97" s="1" customFormat="1" spans="2:5">
-      <c r="B97" s="20"/>
+      <c r="B97" s="21"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" s="1" customFormat="1" spans="2:5">
-      <c r="B98" s="20"/>
+      <c r="B98" s="21"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" s="1" customFormat="1" spans="2:5">
-      <c r="B99" s="20"/>
+      <c r="B99" s="21"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" s="1" customFormat="1" spans="2:5">
-      <c r="B100" s="20"/>
+      <c r="B100" s="21"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" s="1" customFormat="1" spans="2:5">
-      <c r="B101" s="20"/>
+      <c r="B101" s="21"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" s="1" customFormat="1" spans="2:5">
-      <c r="B102" s="20"/>
+      <c r="B102" s="21"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" s="1" customFormat="1" spans="2:5">
-      <c r="B103" s="20"/>
+      <c r="B103" s="21"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" s="1" customFormat="1" spans="2:5">
-      <c r="B104" s="20"/>
+      <c r="B104" s="21"/>
       <c r="E104" s="3"/>
     </row>
     <row r="105" s="1" customFormat="1" spans="2:5">
-      <c r="B105" s="20"/>
+      <c r="B105" s="21"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" s="1" customFormat="1" spans="2:5">
-      <c r="B106" s="20"/>
+      <c r="B106" s="21"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" s="1" customFormat="1" spans="2:5">
-      <c r="B107" s="20"/>
+      <c r="B107" s="21"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" s="1" customFormat="1" spans="2:5">
-      <c r="B108" s="20"/>
+      <c r="B108" s="21"/>
       <c r="E108" s="3"/>
     </row>
     <row r="109" s="1" customFormat="1" spans="2:5">
-      <c r="B109" s="20"/>
+      <c r="B109" s="21"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" s="1" customFormat="1" spans="2:5">
-      <c r="B110" s="20"/>
+      <c r="B110" s="21"/>
       <c r="E110" s="3"/>
     </row>
     <row r="111" s="1" customFormat="1" spans="2:5">
-      <c r="B111" s="20"/>
+      <c r="B111" s="21"/>
       <c r="E111" s="3"/>
     </row>
     <row r="112" s="1" customFormat="1" spans="2:5">
-      <c r="B112" s="20"/>
+      <c r="B112" s="21"/>
       <c r="E112" s="3"/>
     </row>
     <row r="113" s="1" customFormat="1" spans="2:5">
-      <c r="B113" s="20"/>
+      <c r="B113" s="21"/>
       <c r="E113" s="3"/>
     </row>
     <row r="114" s="1" customFormat="1" spans="2:5">
-      <c r="B114" s="20"/>
+      <c r="B114" s="21"/>
       <c r="E114" s="3"/>
     </row>
     <row r="115" s="1" customFormat="1" spans="2:5">
-      <c r="B115" s="20"/>
+      <c r="B115" s="21"/>
       <c r="E115" s="3"/>
     </row>
     <row r="116" s="1" customFormat="1" spans="2:5">
-      <c r="B116" s="20"/>
+      <c r="B116" s="21"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" s="1" customFormat="1" spans="2:5">
-      <c r="B117" s="20"/>
+      <c r="B117" s="21"/>
       <c r="E117" s="3"/>
     </row>
     <row r="118" s="1" customFormat="1" spans="2:5">
-      <c r="B118" s="20"/>
+      <c r="B118" s="21"/>
       <c r="E118" s="3"/>
     </row>
     <row r="119" s="1" customFormat="1" spans="2:5">
-      <c r="B119" s="20"/>
+      <c r="B119" s="21"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120" s="1" customFormat="1" spans="2:5">
-      <c r="B120" s="20"/>
+      <c r="B120" s="21"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" s="1" customFormat="1" spans="2:5">
-      <c r="B121" s="20"/>
+      <c r="B121" s="21"/>
       <c r="E121" s="3"/>
     </row>
     <row r="122" s="1" customFormat="1" spans="2:5">
-      <c r="B122" s="20"/>
+      <c r="B122" s="21"/>
       <c r="E122" s="3"/>
     </row>
     <row r="123" s="1" customFormat="1" spans="2:5">
-      <c r="B123" s="20"/>
+      <c r="B123" s="21"/>
       <c r="E123" s="3"/>
     </row>
     <row r="124" s="1" customFormat="1" spans="2:5">
-      <c r="B124" s="20"/>
+      <c r="B124" s="21"/>
       <c r="E124" s="3"/>
     </row>
     <row r="125" s="1" customFormat="1" spans="2:5">
-      <c r="B125" s="20"/>
+      <c r="B125" s="21"/>
       <c r="E125" s="3"/>
     </row>
     <row r="126" s="1" customFormat="1" spans="2:5">
-      <c r="B126" s="20"/>
+      <c r="B126" s="21"/>
       <c r="E126" s="3"/>
     </row>
     <row r="127" s="1" customFormat="1" spans="2:5">
-      <c r="B127" s="20"/>
+      <c r="B127" s="21"/>
       <c r="E127" s="3"/>
     </row>
     <row r="128" s="1" customFormat="1" spans="2:5">
-      <c r="B128" s="20"/>
+      <c r="B128" s="21"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" s="1" customFormat="1" spans="2:5">
-      <c r="B129" s="20"/>
+      <c r="B129" s="21"/>
       <c r="E129" s="3"/>
     </row>
   </sheetData>

--- a/接口文档/商品api/商品发布_商户端.xlsx
+++ b/接口文档/商品api/商品发布_商户端.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21255" windowHeight="9360" tabRatio="669" firstSheet="4" activeTab="10"/>
+    <workbookView windowWidth="21255" windowHeight="9360" tabRatio="669" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="批量上架" sheetId="9" r:id="rId9"/>
     <sheet name="批量下架" sheetId="10" r:id="rId10"/>
     <sheet name="历史宝贝记录列表" sheetId="11" r:id="rId11"/>
+    <sheet name="删除仓库商品" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230">
   <si>
     <t>商品发布接口
 版本：1.0
@@ -6305,6 +6306,9 @@
     <t>["120161104103816002"]</t>
   </si>
   <si>
+    <t>http://192.168.1.117/api/product_edit/v1/down</t>
+  </si>
+  <si>
     <t xml:space="preserve">历史宝贝记录列表
 </t>
   </si>
@@ -6331,6 +6335,22 @@
   </si>
   <si>
     <t>2016-10-01 00:00:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">删除仓库商品
+</t>
+  </si>
+  <si>
+    <t>http://192.168.1.117/api/product_edit/v1/del</t>
+  </si>
+  <si>
+    <t>ids</t>
+  </si>
+  <si>
+    <t>String[]</t>
+  </si>
+  <si>
+    <t>id数组</t>
   </si>
 </sst>
 </file>
@@ -6339,9 +6359,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -6392,16 +6412,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6435,9 +6448,75 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6453,28 +6532,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6489,45 +6547,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6595,12 +6615,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6643,6 +6657,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6655,7 +6675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6667,13 +6687,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6703,12 +6735,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6727,7 +6753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6751,13 +6777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6903,21 +6923,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -6948,11 +6953,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6970,22 +6996,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7000,6 +7011,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7008,10 +7028,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7020,16 +7040,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7039,116 +7059,116 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
@@ -7808,7 +7828,7 @@
   <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -7837,7 +7857,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -8409,7 +8429,7 @@
     <mergeCell ref="A6:A20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.117/api/product_edit/v1/off" tooltip="http://192.168.1.117/api/product_edit/v1/off"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.117/api/product_edit/v1/down" tooltip="http://192.168.1.117/api/product_edit/v1/down"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -8421,8 +8441,8 @@
   <sheetPr/>
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -8440,7 +8460,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -8451,7 +8471,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -8462,7 +8482,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -8488,31 +8508,31 @@
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="21" customHeight="1" spans="1:5">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="21" customHeight="1" spans="1:5">
@@ -9047,6 +9067,633 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.117/api/product_edit/v1/history?begin=2016-11-09 00:00:00&amp;end=2016-11-11 00:00:00" tooltip="http://192.168.1.117/api/product_edit/v1/history?begin=2016-11-09 00:00:00&amp;end=2016-11-11 00:00:00"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E130"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.25" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:5">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="21" customHeight="1" spans="1:5">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="21" customHeight="1" spans="1:5">
+      <c r="A7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
+      <c r="A8" s="14"/>
+      <c r="B8" s="20"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:5">
+      <c r="A9" s="14"/>
+      <c r="B9" s="20"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A10" s="14"/>
+      <c r="B10" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:5">
+      <c r="A11" s="14"/>
+      <c r="B11" s="21"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:5">
+      <c r="A12" s="14"/>
+      <c r="B12" s="21"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:5">
+      <c r="A13" s="14"/>
+      <c r="B13" s="21"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:5">
+      <c r="A14" s="14"/>
+      <c r="B14" s="21"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:5">
+      <c r="A15" s="14"/>
+      <c r="B15" s="21"/>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:5">
+      <c r="A16" s="14"/>
+      <c r="B16" s="21"/>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:5">
+      <c r="A17" s="14"/>
+      <c r="B17" s="21"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:5">
+      <c r="A18" s="14"/>
+      <c r="B18" s="21"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:5">
+      <c r="A19" s="14"/>
+      <c r="B19" s="21"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:5">
+      <c r="A20" s="14"/>
+      <c r="B20" s="21"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:5">
+      <c r="A21" s="23"/>
+      <c r="B21" s="21"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="2:5">
+      <c r="B22" s="21"/>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="2:5">
+      <c r="B23" s="21"/>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="25.5" customHeight="1" spans="2:5">
+      <c r="B24" s="21"/>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="2:5">
+      <c r="B25" s="21"/>
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
+      <c r="B26" s="21"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
+      <c r="B27" s="21"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="2:5">
+      <c r="B28" s="21"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="2:5">
+      <c r="B29" s="21"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="2:5">
+      <c r="B30" s="21"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="2:5">
+      <c r="B31" s="21"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="2:5">
+      <c r="B32" s="21"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="2:5">
+      <c r="B33" s="21"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="2:5">
+      <c r="B34" s="21"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="2:5">
+      <c r="B35" s="21"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="2:5">
+      <c r="B36" s="21"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="2:5">
+      <c r="B37" s="21"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="2:5">
+      <c r="B38" s="21"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="2:5">
+      <c r="B39" s="21"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:5">
+      <c r="B40" s="21"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="2:5">
+      <c r="B41" s="21"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="2:5">
+      <c r="B42" s="21"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="2:5">
+      <c r="B43" s="21"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="2:5">
+      <c r="B44" s="21"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="2:5">
+      <c r="B45" s="21"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="2:5">
+      <c r="B46" s="21"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="2:5">
+      <c r="B47" s="21"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="2:5">
+      <c r="B48" s="21"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="2:5">
+      <c r="B49" s="21"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="2:5">
+      <c r="B50" s="21"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:5">
+      <c r="B51" s="21"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="2:5">
+      <c r="B52" s="21"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="2:5">
+      <c r="B53" s="21"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:5">
+      <c r="B54" s="21"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="2:5">
+      <c r="B55" s="21"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="2:5">
+      <c r="B56" s="21"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="2:5">
+      <c r="B57" s="21"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="2:5">
+      <c r="B58" s="21"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="2:5">
+      <c r="B59" s="21"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="2:5">
+      <c r="B60" s="21"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="2:5">
+      <c r="B61" s="21"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="2:5">
+      <c r="B62" s="21"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="2:5">
+      <c r="B63" s="21"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="2:5">
+      <c r="B64" s="21"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="2:5">
+      <c r="B65" s="21"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="2:5">
+      <c r="B66" s="21"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="2:5">
+      <c r="B67" s="21"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="2:5">
+      <c r="B68" s="21"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="2:5">
+      <c r="B69" s="21"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="2:5">
+      <c r="B70" s="21"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="2:5">
+      <c r="B71" s="21"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="2:5">
+      <c r="B72" s="21"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="2:5">
+      <c r="B73" s="21"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="2:5">
+      <c r="B74" s="21"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="2:5">
+      <c r="B75" s="21"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="2:5">
+      <c r="B76" s="21"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="2:5">
+      <c r="B77" s="21"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="2:5">
+      <c r="B78" s="21"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="2:5">
+      <c r="B79" s="21"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="2:5">
+      <c r="B80" s="21"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="2:5">
+      <c r="B81" s="21"/>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="2:5">
+      <c r="B82" s="21"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="2:5">
+      <c r="B83" s="21"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="2:5">
+      <c r="B84" s="21"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="2:5">
+      <c r="B85" s="21"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="2:5">
+      <c r="B86" s="21"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="2:5">
+      <c r="B87" s="21"/>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" s="1" customFormat="1" spans="2:5">
+      <c r="B88" s="21"/>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" s="1" customFormat="1" spans="2:5">
+      <c r="B89" s="21"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" s="1" customFormat="1" spans="2:5">
+      <c r="B90" s="21"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" s="1" customFormat="1" spans="2:5">
+      <c r="B91" s="21"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" s="1" customFormat="1" spans="2:5">
+      <c r="B92" s="21"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" s="1" customFormat="1" spans="2:5">
+      <c r="B93" s="21"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" s="1" customFormat="1" spans="2:5">
+      <c r="B94" s="21"/>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" s="1" customFormat="1" spans="2:5">
+      <c r="B95" s="21"/>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" s="1" customFormat="1" spans="2:5">
+      <c r="B96" s="21"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" s="1" customFormat="1" spans="2:5">
+      <c r="B97" s="21"/>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" s="1" customFormat="1" spans="2:5">
+      <c r="B98" s="21"/>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" s="1" customFormat="1" spans="2:5">
+      <c r="B99" s="21"/>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" s="1" customFormat="1" spans="2:5">
+      <c r="B100" s="21"/>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" s="1" customFormat="1" spans="2:5">
+      <c r="B101" s="21"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" s="1" customFormat="1" spans="2:5">
+      <c r="B102" s="21"/>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" s="1" customFormat="1" spans="2:5">
+      <c r="B103" s="21"/>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" s="1" customFormat="1" spans="2:5">
+      <c r="B104" s="21"/>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" s="1" customFormat="1" spans="2:5">
+      <c r="B105" s="21"/>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" s="1" customFormat="1" spans="2:5">
+      <c r="B106" s="21"/>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" s="1" customFormat="1" spans="2:5">
+      <c r="B107" s="21"/>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" s="1" customFormat="1" spans="2:5">
+      <c r="B108" s="21"/>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" s="1" customFormat="1" spans="2:5">
+      <c r="B109" s="21"/>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" s="1" customFormat="1" spans="2:5">
+      <c r="B110" s="21"/>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" s="1" customFormat="1" spans="2:5">
+      <c r="B111" s="21"/>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" s="1" customFormat="1" spans="2:5">
+      <c r="B112" s="21"/>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" s="1" customFormat="1" spans="2:5">
+      <c r="B113" s="21"/>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" s="1" customFormat="1" spans="2:5">
+      <c r="B114" s="21"/>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" s="1" customFormat="1" spans="2:5">
+      <c r="B115" s="21"/>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" s="1" customFormat="1" spans="2:5">
+      <c r="B116" s="21"/>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" s="1" customFormat="1" spans="2:5">
+      <c r="B117" s="21"/>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" s="1" customFormat="1" spans="2:5">
+      <c r="B118" s="21"/>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" s="1" customFormat="1" spans="2:5">
+      <c r="B119" s="21"/>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" s="1" customFormat="1" spans="2:5">
+      <c r="B120" s="21"/>
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" s="1" customFormat="1" spans="2:5">
+      <c r="B121" s="21"/>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" s="1" customFormat="1" spans="2:5">
+      <c r="B122" s="21"/>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" s="1" customFormat="1" spans="2:5">
+      <c r="B123" s="21"/>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" s="1" customFormat="1" spans="2:5">
+      <c r="B124" s="21"/>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" s="1" customFormat="1" spans="2:5">
+      <c r="B125" s="21"/>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" s="1" customFormat="1" spans="2:5">
+      <c r="B126" s="21"/>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" s="1" customFormat="1" spans="2:5">
+      <c r="B127" s="21"/>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" s="1" customFormat="1" spans="2:5">
+      <c r="B128" s="21"/>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" s="1" customFormat="1" spans="2:5">
+      <c r="B129" s="21"/>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" s="1" customFormat="1" spans="2:5">
+      <c r="B130" s="21"/>
+      <c r="E130" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A7:A21"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.117/api/product_edit/v1/del" tooltip="http://192.168.1.117/api/product_edit/v1/del"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -9131,7 +9778,7 @@
   <sheetPr/>
   <dimension ref="A1:F164"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
@@ -10295,7 +10942,7 @@
   <sheetPr/>
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14:B133"/>
     </sheetView>
   </sheetViews>
@@ -11142,7 +11789,7 @@
   <sheetPr/>
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -12057,7 +12704,7 @@
   <sheetPr/>
   <dimension ref="A1:E169"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:B169"/>
     </sheetView>
   </sheetViews>
@@ -13537,7 +14184,7 @@
   <sheetPr/>
   <dimension ref="A1:E169"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:B169"/>
     </sheetView>
   </sheetViews>
@@ -14588,7 +15235,7 @@
   <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C21" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -14628,7 +15275,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>

--- a/接口文档/商品api/商品发布_商户端.xlsx
+++ b/接口文档/商品api/商品发布_商户端.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="669" activeTab="3"/>
+    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="669" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -7152,8 +7152,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -7207,7 +7207,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7215,21 +7215,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7251,6 +7252,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -7259,7 +7268,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7273,15 +7290,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7295,29 +7306,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7331,17 +7328,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7409,7 +7409,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7427,19 +7445,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7463,13 +7517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7481,13 +7529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7499,49 +7547,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7559,31 +7577,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7717,13 +7717,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7733,21 +7737,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7763,15 +7752,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7793,6 +7773,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -7800,17 +7791,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7822,10 +7822,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7834,16 +7834,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7853,116 +7853,116 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
@@ -11959,8 +11959,8 @@
   <sheetPr/>
   <dimension ref="A1:F164"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -13085,7 +13085,7 @@
   <sheetPr/>
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>

--- a/接口文档/商品api/商品发布_商户端.xlsx
+++ b/接口文档/商品api/商品发布_商户端.xlsx
@@ -21,7 +21,7 @@
     <sheet name="删除仓库商品" sheetId="12" r:id="rId12"/>
     <sheet name="根据商品ID获取商品库存" sheetId="13" r:id="rId13"/>
     <sheet name="根据商品SKU获取商品库存" sheetId="14" r:id="rId14"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId15"/>
+    <sheet name="减库存" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -7251,32 +7251,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7290,16 +7274,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7310,6 +7300,27 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -7329,14 +7340,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -7344,17 +7347,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7371,11 +7376,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -7447,30 +7447,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7489,13 +7465,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7513,7 +7567,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7537,91 +7615,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7755,56 +7755,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7830,16 +7791,55 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7860,10 +7860,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7872,16 +7872,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7891,116 +7891,116 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
@@ -11934,7 +11934,7 @@
   <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>

--- a/接口文档/商品api/商品发布_商户端.xlsx
+++ b/接口文档/商品api/商品发布_商户端.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="669" firstSheet="8" activeTab="14"/>
+    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="669" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -7251,16 +7251,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7274,22 +7290,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7300,27 +7310,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -7340,6 +7329,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -7347,19 +7344,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7376,6 +7371,11 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -7447,6 +7447,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7465,19 +7489,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7490,24 +7580,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7531,54 +7603,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7591,37 +7615,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7755,17 +7755,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7791,55 +7830,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7860,10 +7860,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7872,16 +7872,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7891,116 +7891,116 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
@@ -11933,7 +11933,7 @@
   <sheetPr/>
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -12675,8 +12675,8 @@
   <sheetPr/>
   <dimension ref="A1:F164"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B5:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
